--- a/MY/wc_template_MY_v3.xlsx
+++ b/MY/wc_template_MY_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\MY\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D2DF2-348C-4456-9B75-B44C1E067C07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C733E0-DDE9-4379-B8D7-B2B0BE87719D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="945" windowWidth="24585" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31815" yWindow="1395" windowWidth="24675" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>L30D</t>
-  </si>
-  <si>
-    <t>L30S</t>
   </si>
   <si>
     <t>Top Suppliers 
@@ -465,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -688,13 +685,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -976,16 +984,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1134,6 +1136,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1145,8 +1154,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1456,16 +1468,22 @@
     <col min="5" max="5" width="14.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="25" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13.1796875" style="128" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="13.1796875" style="130" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="31" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="43" width="13.1796875" style="18" customWidth="1"/>
-    <col min="44" max="47" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="13.1796875" style="18" customWidth="1"/>
+    <col min="10" max="25" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13.1796875" style="126" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="13.1796875" style="128" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="31" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="13.1796875" style="18" customWidth="1" collapsed="1"/>
+    <col min="33" max="36" width="13.1796875" style="18" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
+    <col min="39" max="42" width="13.1796875" style="18" customWidth="1"/>
+    <col min="43" max="47" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
+    <col min="49" max="50" width="13.1796875" style="18" customWidth="1"/>
     <col min="51" max="51" width="13.1796875" style="57" customWidth="1"/>
-    <col min="52" max="53" width="13.1796875" style="18" customWidth="1"/>
-    <col min="54" max="57" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="13.1796875" style="18" customWidth="1"/>
+    <col min="53" max="57" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="8.81640625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
@@ -1500,7 +1518,7 @@
       <c r="W1" s="75"/>
       <c r="X1" s="75"/>
       <c r="Y1" s="75"/>
-      <c r="Z1" s="115"/>
+      <c r="Z1" s="113"/>
       <c r="AA1" s="75"/>
       <c r="AB1" s="75"/>
       <c r="AC1" s="75"/>
@@ -1514,7 +1532,7 @@
       <c r="AI1" s="58"/>
       <c r="AJ1" s="58"/>
       <c r="AK1" s="58"/>
-      <c r="AL1" s="69"/>
+      <c r="AL1" s="58"/>
       <c r="AM1" s="69"/>
       <c r="AN1" s="69"/>
       <c r="AO1" s="69"/>
@@ -1524,7 +1542,7 @@
       <c r="AS1" s="69"/>
       <c r="AT1" s="69"/>
       <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
+      <c r="AV1" s="58"/>
       <c r="AW1" s="69"/>
       <c r="AX1" s="69"/>
       <c r="AY1" s="69"/>
@@ -1533,7 +1551,7 @@
       <c r="BB1" s="69"/>
       <c r="BC1" s="69"/>
       <c r="BD1" s="69"/>
-      <c r="BE1" s="145"/>
+      <c r="BE1" s="143"/>
     </row>
     <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
@@ -1576,11 +1594,11 @@
       <c r="W2" s="78"/>
       <c r="X2" s="78"/>
       <c r="Y2" s="78"/>
-      <c r="Z2" s="116" t="s">
+      <c r="Z2" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
       <c r="AC2" s="78" t="s">
         <v>55</v>
       </c>
@@ -1751,7 +1769,7 @@
         <v>33</v>
       </c>
       <c r="AQ3" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR3" s="73">
         <v>43709</v>
@@ -1759,10 +1777,10 @@
       <c r="AS3" s="73">
         <v>43739</v>
       </c>
-      <c r="AT3" s="111">
+      <c r="AT3" s="109">
         <v>43770</v>
       </c>
-      <c r="AU3" s="142" t="s">
+      <c r="AU3" s="140" t="s">
         <v>58</v>
       </c>
       <c r="AV3" s="67" t="s">
@@ -1774,13 +1792,13 @@
       <c r="AX3" s="73">
         <v>43739</v>
       </c>
-      <c r="AY3" s="111">
+      <c r="AY3" s="109">
         <v>43770</v>
       </c>
       <c r="AZ3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="BA3" s="143" t="s">
+      <c r="BA3" s="141" t="s">
         <v>58</v>
       </c>
       <c r="BB3" s="73">
@@ -1789,10 +1807,10 @@
       <c r="BC3" s="73">
         <v>43739</v>
       </c>
-      <c r="BD3" s="144">
+      <c r="BD3" s="142">
         <v>43770</v>
       </c>
-      <c r="BE3" s="146" t="s">
+      <c r="BE3" s="144" t="s">
         <v>58</v>
       </c>
       <c r="BF3" s="2"/>
@@ -1800,14 +1818,14 @@
     </row>
     <row r="4" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="92" t="e">
         <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -1840,20 +1858,20 @@
         <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
       <c r="AF4" s="93" t="str">
         <f>IFERROR(VLOOKUP($B4,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -1866,7 +1884,7 @@
         <f t="shared" ref="AH4:AH16" si="1">IFERROR(IF(AN4="n.a.", -AX4, IF(AX4="n.a.", AN4, AN4-AX4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AI4" s="118" t="str">
+      <c r="AI4" s="116" t="str">
         <f t="shared" ref="AI4:AI15" si="2">IFERROR(IF(AO4="n.a.", -AY4, IF(AY4="n.a.", AO4, AO4-AY4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -1874,31 +1892,31 @@
         <f t="shared" ref="AJ4:AJ15" si="3">IFERROR(AF4-AI4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AK4" s="147" t="str">
+      <c r="AK4" s="145" t="str">
         <f>IFERROR(IF(AQ4="n.a.", -BA4, IF(BA4="n.a.", AQ4, AQ4-BA4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL4" s="103" t="str">
+      <c r="AL4" s="162" t="str">
         <f>IFERROR(VLOOKUP($B4,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
       <c r="AM4" s="94" t="str">
-        <f t="shared" ref="AM4:AM16" si="4">IFERROR(AR4/J4*30,"n.a.")</f>
+        <f>IFERROR(AR4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN4" s="97" t="str">
-        <f t="shared" ref="AN4:AN16" si="5">IFERROR(AS4/K4*30,"n.a.")</f>
+        <f>IFERROR(AS4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="94" t="str">
-        <f>IFERROR(AT4/L4*30,"n.a.")</f>
+        <f>IFERROR(AT4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AP4" s="95" t="str">
-        <f t="shared" ref="AP4:AP15" si="6">IFERROR(-AO4+AL4,"n.a.")</f>
+        <f t="shared" ref="AP4:AP15" si="4">IFERROR(-AO4+AL4,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AQ4" s="118" t="str">
+      <c r="AQ4" s="116" t="str">
         <f>IFERROR(AU4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -1918,27 +1936,27 @@
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV4" s="106" t="str">
+      <c r="AV4" s="99" t="str">
         <f>IFERROR(VLOOKUP($B4,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
       <c r="AW4" s="94" t="str">
-        <f t="shared" ref="AW4:AW16" si="7">IFERROR(BB4/J4*30,"n.a.")</f>
+        <f>IFERROR(BB4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="94" t="str">
-        <f t="shared" ref="AX4:AX16" si="8">IFERROR(BC4/K4*30,"n.a.")</f>
+        <f>IFERROR(BC4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="90" t="str">
-        <f t="shared" ref="AY4:AY15" si="9">IFERROR(BD4/L4*30,"n.a.")</f>
+        <f>IFERROR(BD4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ4" s="95" t="str">
-        <f t="shared" ref="AZ4:AZ15" si="10">IFERROR(-AV4+AY4, "n.a.")</f>
+        <f t="shared" ref="AZ4:AZ15" si="5">IFERROR(-AV4+AY4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA4" s="118" t="str">
+      <c r="BA4" s="116" t="str">
         <f>IFERROR(BE4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -1954,21 +1972,21 @@
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE4" s="105" t="e">
+      <c r="BE4" s="104" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="98"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="92" t="e">
         <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2001,20 +2019,20 @@
         <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
       <c r="AF5" s="93" t="str">
         <f>IFERROR(VLOOKUP($B5,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2027,7 +2045,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI5" s="119" t="str">
+      <c r="AI5" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -2035,43 +2053,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK5" s="147" t="str">
-        <f t="shared" ref="AK5:AK16" si="11">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
+      <c r="AK5" s="145" t="str">
+        <f t="shared" ref="AK5:AK16" si="6">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL5" s="103" t="str">
+      <c r="AL5" s="162" t="str">
         <f>IFERROR(VLOOKUP($B5,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM5" s="100" t="str">
+      <c r="AM5" s="94" t="str">
+        <f t="shared" ref="AM5:AM15" si="7">IFERROR(AR5/J5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AN5" s="97" t="str">
+        <f t="shared" ref="AN5:AN15" si="8">IFERROR(AS5/K5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AO5" s="94" t="str">
+        <f t="shared" ref="AO5:AO15" si="9">IFERROR(AT5/L5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AP5" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN5" s="97" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ5" s="116" t="str">
+        <f t="shared" ref="AQ5:AQ16" si="10">IFERROR(AU5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AO5" s="100" t="str">
-        <f t="shared" ref="AO5:AO16" si="12">IFERROR(AT5/L5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AP5" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ5" s="118" t="str">
-        <f t="shared" ref="AQ5:AQ16" si="13">IFERROR(AU5/M5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AR5" s="105" t="e">
+      <c r="AR5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS5" s="105" t="e">
+      <c r="AS5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT5" s="105" t="e">
+      <c r="AT5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2079,57 +2097,57 @@
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV5" s="106" t="str">
+      <c r="AV5" s="99" t="str">
         <f>IFERROR(VLOOKUP($B5,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW5" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW5" s="94" t="str">
+        <f t="shared" ref="AW5:AW15" si="11">IFERROR(BB5/J5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX5" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX5" s="94" t="str">
+        <f t="shared" ref="AX5:AX16" si="12">IFERROR(BC5/K5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AY5" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY5" s="90" t="str">
+        <f t="shared" ref="AY5:AY15" si="13">IFERROR(BD5/L5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ5" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA5" s="118" t="str">
+      <c r="BA5" s="116" t="str">
         <f t="shared" ref="BA5:BA15" si="14">IFERROR(BE5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB5" s="105" t="e">
+      <c r="BB5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC5" s="105" t="e">
+      <c r="BC5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD5" s="105" t="e">
+      <c r="BD5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE5" s="105" t="e">
+      <c r="BE5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="98"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="92" t="e">
         <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2162,20 +2180,20 @@
         <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="117"/>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="115"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="115"/>
       <c r="AF6" s="93" t="str">
         <f>IFERROR(VLOOKUP($B6,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2188,7 +2206,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI6" s="119" t="str">
+      <c r="AI6" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -2196,43 +2214,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK6" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK6" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL6" s="103" t="str">
+      <c r="AL6" s="162" t="str">
         <f>IFERROR(VLOOKUP($B6,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM6" s="100" t="str">
+      <c r="AM6" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN6" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO6" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP6" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN6" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ6" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO6" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP6" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ6" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR6" s="105" t="e">
+      <c r="AR6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS6" s="105" t="e">
+      <c r="AS6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT6" s="105" t="e">
+      <c r="AT6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2240,57 +2258,57 @@
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV6" s="106" t="str">
+      <c r="AV6" s="99" t="str">
         <f>IFERROR(VLOOKUP($B6,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW6" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW6" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX6" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX6" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY6" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY6" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ6" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA6" s="118" t="str">
+      <c r="BA6" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB6" s="105" t="e">
+      <c r="BB6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC6" s="105" t="e">
+      <c r="BC6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD6" s="105" t="e">
+      <c r="BD6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE6" s="105" t="e">
+      <c r="BE6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="98"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="92" t="e">
         <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2323,20 +2341,20 @@
         <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="117"/>
-      <c r="AE7" s="117"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="115"/>
       <c r="AF7" s="93" t="str">
         <f>IFERROR(VLOOKUP($B7,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2349,7 +2367,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI7" s="119" t="str">
+      <c r="AI7" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -2357,43 +2375,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK7" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK7" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL7" s="103" t="str">
+      <c r="AL7" s="162" t="str">
         <f>IFERROR(VLOOKUP($B7,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM7" s="100" t="str">
+      <c r="AM7" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN7" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO7" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP7" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN7" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ7" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO7" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP7" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ7" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR7" s="105" t="e">
+      <c r="AR7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS7" s="105" t="e">
+      <c r="AS7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT7" s="105" t="e">
+      <c r="AT7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2401,57 +2419,57 @@
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV7" s="106" t="str">
+      <c r="AV7" s="99" t="str">
         <f>IFERROR(VLOOKUP($B7,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW7" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW7" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX7" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX7" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY7" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY7" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ7" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA7" s="118" t="str">
+      <c r="BA7" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB7" s="105" t="e">
+      <c r="BB7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC7" s="105" t="e">
+      <c r="BC7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD7" s="105" t="e">
+      <c r="BD7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE7" s="105" t="e">
+      <c r="BE7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="98"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="92" t="e">
         <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2484,20 +2502,20 @@
         <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="117"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="115"/>
       <c r="AF8" s="93" t="str">
         <f>IFERROR(VLOOKUP($B8,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2510,7 +2528,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI8" s="119" t="str">
+      <c r="AI8" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -2518,43 +2536,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK8" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK8" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL8" s="103" t="str">
+      <c r="AL8" s="162" t="str">
         <f>IFERROR(VLOOKUP($B8,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM8" s="100" t="str">
+      <c r="AM8" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN8" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO8" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP8" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN8" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ8" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO8" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP8" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ8" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR8" s="105" t="e">
+      <c r="AR8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS8" s="105" t="e">
+      <c r="AS8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT8" s="105" t="e">
+      <c r="AT8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2562,57 +2580,57 @@
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV8" s="106" t="str">
+      <c r="AV8" s="99" t="str">
         <f>IFERROR(VLOOKUP($B8,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW8" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW8" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX8" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX8" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY8" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY8" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ8" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA8" s="118" t="str">
+      <c r="BA8" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB8" s="105" t="e">
+      <c r="BB8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC8" s="105" t="e">
+      <c r="BC8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD8" s="105" t="e">
+      <c r="BD8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE8" s="105" t="e">
+      <c r="BE8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="98"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="92" t="e">
         <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2645,20 +2663,20 @@
         <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="117"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="115"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="115"/>
       <c r="AF9" s="93" t="str">
         <f>IFERROR(VLOOKUP($B9,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2671,7 +2689,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI9" s="119" t="str">
+      <c r="AI9" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -2679,43 +2697,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK9" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK9" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL9" s="103" t="str">
+      <c r="AL9" s="162" t="str">
         <f>IFERROR(VLOOKUP($B9,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM9" s="100" t="str">
+      <c r="AM9" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN9" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO9" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP9" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN9" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ9" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO9" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP9" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ9" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR9" s="105" t="e">
+      <c r="AR9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS9" s="105" t="e">
+      <c r="AS9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT9" s="105" t="e">
+      <c r="AT9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2723,57 +2741,57 @@
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV9" s="106" t="str">
+      <c r="AV9" s="99" t="str">
         <f>IFERROR(VLOOKUP($B9,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW9" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW9" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX9" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX9" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY9" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY9" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ9" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA9" s="118" t="str">
+      <c r="BA9" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB9" s="105" t="e">
+      <c r="BB9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC9" s="105" t="e">
+      <c r="BC9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD9" s="105" t="e">
+      <c r="BD9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE9" s="105" t="e">
+      <c r="BE9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="98"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="92" t="e">
         <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2806,20 +2824,20 @@
         <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
-      <c r="AB10" s="125"/>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="117"/>
-      <c r="AE10" s="117"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
       <c r="AF10" s="93" t="str">
         <f>IFERROR(VLOOKUP($B10,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2832,7 +2850,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI10" s="119" t="str">
+      <c r="AI10" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -2840,43 +2858,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK10" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK10" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL10" s="103" t="str">
+      <c r="AL10" s="162" t="str">
         <f>IFERROR(VLOOKUP($B10,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM10" s="100" t="str">
+      <c r="AM10" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN10" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO10" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP10" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN10" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ10" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO10" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP10" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ10" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR10" s="105" t="e">
+      <c r="AR10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS10" s="105" t="e">
+      <c r="AS10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT10" s="105" t="e">
+      <c r="AT10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2884,57 +2902,57 @@
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV10" s="106" t="str">
+      <c r="AV10" s="99" t="str">
         <f>IFERROR(VLOOKUP($B10,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW10" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW10" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX10" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX10" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY10" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY10" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ10" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA10" s="118" t="str">
+      <c r="BA10" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB10" s="105" t="e">
+      <c r="BB10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC10" s="105" t="e">
+      <c r="BC10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD10" s="105" t="e">
+      <c r="BD10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE10" s="105" t="e">
+      <c r="BE10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="98"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
       <c r="J11" s="92" t="e">
         <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2967,20 +2985,20 @@
         <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="115"/>
       <c r="AF11" s="93" t="str">
         <f>IFERROR(VLOOKUP($B11,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2993,7 +3011,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI11" s="119" t="str">
+      <c r="AI11" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -3001,43 +3019,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK11" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK11" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL11" s="103" t="str">
+      <c r="AL11" s="162" t="str">
         <f>IFERROR(VLOOKUP($B11,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM11" s="100" t="str">
+      <c r="AM11" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN11" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO11" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP11" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN11" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ11" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO11" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP11" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ11" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR11" s="105" t="e">
+      <c r="AR11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS11" s="105" t="e">
+      <c r="AS11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT11" s="105" t="e">
+      <c r="AT11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3045,57 +3063,57 @@
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV11" s="106" t="str">
+      <c r="AV11" s="99" t="str">
         <f>IFERROR(VLOOKUP($B11,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW11" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW11" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX11" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX11" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY11" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY11" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ11" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA11" s="118" t="str">
+      <c r="BA11" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB11" s="105" t="e">
+      <c r="BB11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC11" s="105" t="e">
+      <c r="BC11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="105" t="e">
+      <c r="BD11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE11" s="105" t="e">
+      <c r="BE11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="98"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="92" t="e">
         <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3128,20 +3146,20 @@
         <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="125"/>
-      <c r="AB12" s="125"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="117"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="123"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="123"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="115"/>
       <c r="AF12" s="93" t="str">
         <f>IFERROR(VLOOKUP($B12,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3154,7 +3172,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI12" s="119" t="str">
+      <c r="AI12" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -3162,43 +3180,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK12" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK12" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL12" s="103" t="str">
+      <c r="AL12" s="162" t="str">
         <f>IFERROR(VLOOKUP($B12,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM12" s="100" t="str">
+      <c r="AM12" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN12" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO12" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP12" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN12" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ12" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO12" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP12" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ12" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR12" s="105" t="e">
+      <c r="AR12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS12" s="105" t="e">
+      <c r="AS12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT12" s="105" t="e">
+      <c r="AT12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3206,57 +3224,57 @@
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV12" s="106" t="str">
+      <c r="AV12" s="99" t="str">
         <f>IFERROR(VLOOKUP($B12,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW12" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW12" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX12" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX12" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY12" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY12" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ12" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA12" s="118" t="str">
+      <c r="BA12" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB12" s="105" t="e">
+      <c r="BB12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC12" s="105" t="e">
+      <c r="BC12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD12" s="105" t="e">
+      <c r="BD12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE12" s="105" t="e">
+      <c r="BE12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="98"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="92" t="e">
         <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3289,20 +3307,20 @@
         <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="125"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="123"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="115"/>
       <c r="AF13" s="93" t="str">
         <f>IFERROR(VLOOKUP($B13,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3315,7 +3333,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI13" s="119" t="str">
+      <c r="AI13" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -3323,43 +3341,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK13" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK13" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL13" s="103" t="str">
+      <c r="AL13" s="162" t="str">
         <f>IFERROR(VLOOKUP($B13,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM13" s="100" t="str">
+      <c r="AM13" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN13" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO13" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP13" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN13" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ13" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO13" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP13" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ13" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR13" s="105" t="e">
+      <c r="AR13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS13" s="105" t="e">
+      <c r="AS13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT13" s="105" t="e">
+      <c r="AT13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3367,57 +3385,57 @@
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV13" s="106" t="str">
+      <c r="AV13" s="99" t="str">
         <f>IFERROR(VLOOKUP($B13,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW13" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW13" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX13" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX13" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY13" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY13" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ13" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA13" s="118" t="str">
+      <c r="BA13" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB13" s="105" t="e">
+      <c r="BB13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC13" s="105" t="e">
+      <c r="BC13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD13" s="105" t="e">
+      <c r="BD13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE13" s="105" t="e">
+      <c r="BE13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="98"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="92" t="e">
         <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3450,20 +3468,20 @@
         <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="117"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
       <c r="AF14" s="93" t="str">
         <f>IFERROR(VLOOKUP($B14,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3476,7 +3494,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI14" s="119" t="str">
+      <c r="AI14" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -3484,43 +3502,43 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK14" s="147" t="str">
-        <f t="shared" si="11"/>
+      <c r="AK14" s="145" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL14" s="103" t="str">
+      <c r="AL14" s="162" t="str">
         <f>IFERROR(VLOOKUP($B14,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM14" s="100" t="str">
+      <c r="AM14" s="94" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN14" s="97" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO14" s="94" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP14" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AN14" s="104" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ14" s="116" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AO14" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP14" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ14" s="118" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR14" s="105" t="e">
+      <c r="AR14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS14" s="105" t="e">
+      <c r="AS14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT14" s="105" t="e">
+      <c r="AT14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3528,103 +3546,103 @@
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV14" s="106" t="str">
+      <c r="AV14" s="99" t="str">
         <f>IFERROR(VLOOKUP($B14,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW14" s="100" t="str">
-        <f t="shared" si="7"/>
+      <c r="AW14" s="94" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX14" s="100" t="str">
-        <f t="shared" si="8"/>
+      <c r="AX14" s="94" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY14" s="87" t="str">
-        <f t="shared" si="9"/>
+      <c r="AY14" s="90" t="str">
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AZ14" s="101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA14" s="118" t="str">
+      <c r="BA14" s="116" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="BB14" s="105" t="e">
+      <c r="BB14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC14" s="105" t="e">
+      <c r="BC14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD14" s="105" t="e">
+      <c r="BD14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE14" s="105" t="e">
+      <c r="BE14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="141" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" s="139" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="98"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="105" t="e">
+      <c r="B15" s="107"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="105" t="e">
+      <c r="K15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="105" t="e">
+      <c r="L15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="105" t="e">
+      <c r="M15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="105" t="e">
+      <c r="N15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="105" t="e">
+      <c r="O15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="105" t="e">
+      <c r="P15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="105" t="e">
+      <c r="Q15" s="104" t="e">
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="138"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
       <c r="AF15" s="99" t="str">
         <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3637,7 +3655,7 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI15" s="119" t="str">
+      <c r="AI15" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
@@ -3645,246 +3663,246 @@
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK15" s="148" t="str">
+      <c r="AK15" s="146" t="str">
+        <f t="shared" si="6"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL15" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM15" s="100" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN15" s="103" t="str">
+        <f t="shared" si="8"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AO15" s="100" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP15" s="101" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AQ15" s="117" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV15" s="99" t="str">
+        <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 32,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AW15" s="100" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AL15" s="103" t="str">
-        <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM15" s="100" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX15" s="100" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AN15" s="104" t="str">
+      <c r="AY15" s="87" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ15" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AO15" s="100" t="str">
+      <c r="BA15" s="117" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="BB15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE15" s="104" t="e">
+        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" s="4" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130">
+        <f>SUM(C4:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="130">
+        <f>SUM(D4:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="131">
+        <f>SUM(E4:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="131" t="e">
+        <f t="shared" ref="J16:Q16" si="15">SUM(J4:J15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="131" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="131" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="131" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="131" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="131" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="131" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="131" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AH16" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI16" s="130" t="str">
+        <f>IFERROR(IF(AO16="n.a.", -AY16, IF(AY16="n.a.", AO16, AO16-AY16)),"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ16" s="130"/>
+      <c r="AK16" s="161" t="str">
+        <f t="shared" si="6"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="134"/>
+      <c r="AM16" s="135" t="str">
+        <f t="shared" ref="AM4:AM16" si="16">IFERROR(AR16/J16*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AN16" s="135" t="str">
+        <f t="shared" ref="AN4:AN16" si="17">IFERROR(AS16/K16*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AO16" s="135" t="str">
+        <f t="shared" ref="AO5:AO16" si="18">IFERROR(AT16/L16*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AP16" s="130"/>
+      <c r="AQ16" s="151" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR16" s="131" t="e">
+        <f>SUM(AR4:AR15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS16" s="131" t="e">
+        <f>SUM(AS4:AS15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT16" s="131" t="e">
+        <f>SUM(AT4:AT15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU16" s="131" t="e">
+        <f>SUM(AU4:AU15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV16" s="134"/>
+      <c r="AW16" s="136" t="str">
+        <f t="shared" ref="AW4:AW16" si="19">IFERROR(BB16/J16*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AX16" s="169" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AP15" s="101" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ15" s="119" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AS15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AT15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AV15" s="106" t="str">
-        <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 32,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AW15" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AX15" s="100" t="str">
-        <f t="shared" si="8"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AY15" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AZ15" s="101" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA15" s="119" t="str">
-        <f t="shared" si="14"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE15" s="105" t="e">
-        <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" s="4" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132">
-        <f>SUM(C4:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="132">
-        <f>SUM(D4:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="133">
-        <f>SUM(E4:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="133" t="e">
-        <f t="shared" ref="J16:Q16" si="15">SUM(J4:J15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K16" s="133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" s="133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="133"/>
-      <c r="AD16" s="133"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="132"/>
-      <c r="AG16" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH16" s="132" t="str">
-        <f t="shared" si="1"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI16" s="132" t="str">
-        <f>IFERROR(IF(AO16="n.a.", -AY16, IF(AY16="n.a.", AO16, AO16-AY16)),"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="168" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL16" s="136"/>
-      <c r="AM16" s="137" t="str">
-        <f t="shared" si="4"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN16" s="137" t="str">
-        <f t="shared" si="5"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AO16" s="137" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP16" s="132"/>
-      <c r="AQ16" s="153" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR16" s="133" t="e">
-        <f>SUM(AR4:AR15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AS16" s="133" t="e">
-        <f>SUM(AS4:AS15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AT16" s="133" t="e">
-        <f>SUM(AT4:AT15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU16" s="133" t="e">
-        <f>SUM(AU4:AU15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AV16" s="136"/>
-      <c r="AW16" s="138" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AX16" s="138" t="str">
-        <f t="shared" si="8"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AY16" s="137" t="str">
+      <c r="AY16" s="135" t="str">
         <f>IFERROR(BD16/L16*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AZ16" s="132"/>
-      <c r="BA16" s="132" t="str">
+      <c r="AZ16" s="170"/>
+      <c r="BA16" s="130" t="str">
         <f>IFERROR(BE16/M16*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB16" s="133" t="e">
+      <c r="BB16" s="131" t="e">
         <f>SUM(BB4:BB15)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC16" s="133" t="e">
+      <c r="BC16" s="131" t="e">
         <f>SUM(BC4:BC15)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD16" s="133" t="e">
+      <c r="BD16" s="131" t="e">
         <f>SUM(BD4:BD15)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE16" s="154" t="e">
+      <c r="BE16" s="152" t="e">
         <f>SUM(BE4:BE15)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="17"/>
@@ -3910,9 +3928,9 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="129"/>
-      <c r="AB17" s="129"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="17"/>
@@ -3922,7 +3940,7 @@
       <c r="AI17" s="17"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
+      <c r="AL17" s="88"/>
       <c r="AM17" s="17"/>
       <c r="AN17" s="17"/>
       <c r="AO17" s="88" t="s">
@@ -3934,7 +3952,7 @@
       <c r="AS17" s="17"/>
       <c r="AT17" s="17"/>
       <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
+      <c r="AV17" s="88"/>
       <c r="AW17" s="17"/>
       <c r="AX17" s="17"/>
       <c r="AY17" s="89" t="s">
@@ -3973,9 +3991,9 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
@@ -3985,7 +4003,7 @@
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
+      <c r="AL18" s="88"/>
       <c r="AM18" s="17"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
@@ -3995,7 +4013,7 @@
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
+      <c r="AV18" s="88"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="56"/>
@@ -4032,9 +4050,9 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
@@ -4044,7 +4062,7 @@
       <c r="AI19" s="17"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
+      <c r="AL19" s="88"/>
       <c r="AM19" s="17"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
@@ -4054,7 +4072,7 @@
       <c r="AS19" s="17"/>
       <c r="AT19" s="17"/>
       <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
+      <c r="AV19" s="88"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="56"/>
@@ -4091,9 +4109,9 @@
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
@@ -4103,7 +4121,7 @@
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
+      <c r="AL20" s="88"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
       <c r="AO20" s="17"/>
@@ -4113,7 +4131,7 @@
       <c r="AS20" s="17"/>
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
+      <c r="AV20" s="88"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="56"/>
@@ -4150,9 +4168,9 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="129"/>
-      <c r="AB21" s="129"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
@@ -4162,7 +4180,7 @@
       <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
+      <c r="AL21" s="88"/>
       <c r="AM21" s="17"/>
       <c r="AN21" s="17"/>
       <c r="AO21" s="17"/>
@@ -4172,7 +4190,7 @@
       <c r="AS21" s="17"/>
       <c r="AT21" s="17"/>
       <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
+      <c r="AV21" s="88"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="56"/>
@@ -4209,9 +4227,9 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
@@ -4221,7 +4239,7 @@
       <c r="AI22" s="17"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
+      <c r="AL22" s="88"/>
       <c r="AM22" s="17"/>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
@@ -4231,7 +4249,7 @@
       <c r="AS22" s="17"/>
       <c r="AT22" s="17"/>
       <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
+      <c r="AV22" s="88"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="56"/>
@@ -4268,9 +4286,9 @@
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="129"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
@@ -4280,7 +4298,7 @@
       <c r="AI23" s="17"/>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
+      <c r="AL23" s="88"/>
       <c r="AM23" s="17"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="17"/>
@@ -4290,7 +4308,7 @@
       <c r="AS23" s="17"/>
       <c r="AT23" s="17"/>
       <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
+      <c r="AV23" s="88"/>
       <c r="AW23" s="17"/>
       <c r="AX23" s="17"/>
       <c r="AY23" s="56"/>
@@ -4327,9 +4345,9 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
@@ -4339,7 +4357,7 @@
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
+      <c r="AL24" s="88"/>
       <c r="AM24" s="17"/>
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
@@ -4349,7 +4367,7 @@
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
       <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
+      <c r="AV24" s="88"/>
       <c r="AW24" s="17"/>
       <c r="AX24" s="17"/>
       <c r="AY24" s="56"/>
@@ -4386,9 +4404,9 @@
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="129"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
@@ -4398,7 +4416,7 @@
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
+      <c r="AL25" s="88"/>
       <c r="AM25" s="17"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="17"/>
@@ -4408,7 +4426,7 @@
       <c r="AS25" s="17"/>
       <c r="AT25" s="17"/>
       <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
+      <c r="AV25" s="88"/>
       <c r="AW25" s="17"/>
       <c r="AX25" s="17"/>
       <c r="AY25" s="56"/>
@@ -4445,9 +4463,9 @@
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="129"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
@@ -4457,7 +4475,7 @@
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
+      <c r="AL26" s="88"/>
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
@@ -4467,7 +4485,7 @@
       <c r="AS26" s="17"/>
       <c r="AT26" s="17"/>
       <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="AV26" s="88"/>
       <c r="AW26" s="17"/>
       <c r="AX26" s="17"/>
       <c r="AY26" s="56"/>
@@ -4504,9 +4522,9 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="129"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
@@ -4516,7 +4534,7 @@
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
+      <c r="AL27" s="88"/>
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
       <c r="AO27" s="17"/>
@@ -4526,7 +4544,7 @@
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="AV27" s="88"/>
       <c r="AW27" s="17"/>
       <c r="AX27" s="17"/>
       <c r="AY27" s="56"/>
@@ -4563,9 +4581,9 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
@@ -4575,7 +4593,7 @@
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
+      <c r="AL28" s="88"/>
       <c r="AM28" s="17"/>
       <c r="AN28" s="17"/>
       <c r="AO28" s="17"/>
@@ -4585,7 +4603,7 @@
       <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
       <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="AV28" s="88"/>
       <c r="AW28" s="17"/>
       <c r="AX28" s="17"/>
       <c r="AY28" s="56"/>
@@ -4622,9 +4640,9 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="129"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
@@ -4634,7 +4652,7 @@
       <c r="AI29" s="17"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
+      <c r="AL29" s="88"/>
       <c r="AM29" s="17"/>
       <c r="AN29" s="17"/>
       <c r="AO29" s="17"/>
@@ -4644,7 +4662,7 @@
       <c r="AS29" s="17"/>
       <c r="AT29" s="17"/>
       <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
+      <c r="AV29" s="88"/>
       <c r="AW29" s="17"/>
       <c r="AX29" s="17"/>
       <c r="AY29" s="56"/>
@@ -4681,9 +4699,9 @@
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="129"/>
-      <c r="AB30" s="129"/>
+      <c r="Z30" s="125"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
@@ -4693,7 +4711,7 @@
       <c r="AI30" s="17"/>
       <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
+      <c r="AL30" s="88"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
       <c r="AO30" s="17"/>
@@ -4703,7 +4721,7 @@
       <c r="AS30" s="17"/>
       <c r="AT30" s="17"/>
       <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
+      <c r="AV30" s="88"/>
       <c r="AW30" s="17"/>
       <c r="AX30" s="17"/>
       <c r="AY30" s="56"/>
@@ -4740,9 +4758,9 @@
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="129"/>
-      <c r="AB31" s="129"/>
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
@@ -4752,7 +4770,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
+      <c r="AL31" s="88"/>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="17"/>
@@ -4762,7 +4780,7 @@
       <c r="AS31" s="17"/>
       <c r="AT31" s="17"/>
       <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
+      <c r="AV31" s="88"/>
       <c r="AW31" s="17"/>
       <c r="AX31" s="17"/>
       <c r="AY31" s="56"/>
@@ -4799,9 +4817,9 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="129"/>
-      <c r="AB32" s="129"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
@@ -4811,7 +4829,7 @@
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
+      <c r="AL32" s="88"/>
       <c r="AM32" s="17"/>
       <c r="AN32" s="17"/>
       <c r="AO32" s="17"/>
@@ -4821,7 +4839,7 @@
       <c r="AS32" s="17"/>
       <c r="AT32" s="17"/>
       <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
+      <c r="AV32" s="88"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="17"/>
       <c r="AY32" s="56"/>
@@ -4858,9 +4876,9 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="129"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
@@ -4870,7 +4888,7 @@
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
+      <c r="AL33" s="88"/>
       <c r="AM33" s="17"/>
       <c r="AN33" s="17"/>
       <c r="AO33" s="17"/>
@@ -4880,7 +4898,7 @@
       <c r="AS33" s="17"/>
       <c r="AT33" s="17"/>
       <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
+      <c r="AV33" s="88"/>
       <c r="AW33" s="17"/>
       <c r="AX33" s="17"/>
       <c r="AY33" s="56"/>
@@ -4917,9 +4935,9 @@
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="129"/>
-      <c r="AB34" s="129"/>
+      <c r="Z34" s="125"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="127"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -4929,7 +4947,7 @@
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
       <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
+      <c r="AL34" s="88"/>
       <c r="AM34" s="17"/>
       <c r="AN34" s="17"/>
       <c r="AO34" s="17"/>
@@ -4939,7 +4957,7 @@
       <c r="AS34" s="17"/>
       <c r="AT34" s="17"/>
       <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
+      <c r="AV34" s="88"/>
       <c r="AW34" s="17"/>
       <c r="AX34" s="17"/>
       <c r="AY34" s="56"/>
@@ -4976,9 +4994,9 @@
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="129"/>
-      <c r="AB35" s="129"/>
+      <c r="Z35" s="125"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="127"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17"/>
@@ -4988,7 +5006,7 @@
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
+      <c r="AL35" s="88"/>
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
       <c r="AO35" s="17"/>
@@ -4998,7 +5016,7 @@
       <c r="AS35" s="17"/>
       <c r="AT35" s="17"/>
       <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
+      <c r="AV35" s="88"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
       <c r="AY35" s="56"/>
@@ -5035,9 +5053,9 @@
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="17"/>
-      <c r="Z36" s="127"/>
-      <c r="AA36" s="129"/>
-      <c r="AB36" s="129"/>
+      <c r="Z36" s="125"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="127"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
@@ -5047,7 +5065,7 @@
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
+      <c r="AL36" s="88"/>
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
@@ -5057,7 +5075,7 @@
       <c r="AS36" s="17"/>
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
+      <c r="AV36" s="88"/>
       <c r="AW36" s="17"/>
       <c r="AX36" s="17"/>
       <c r="AY36" s="56"/>
@@ -5094,9 +5112,9 @@
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
       <c r="Y37" s="17"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="129"/>
-      <c r="AB37" s="129"/>
+      <c r="Z37" s="125"/>
+      <c r="AA37" s="127"/>
+      <c r="AB37" s="127"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="17"/>
@@ -5106,7 +5124,7 @@
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
+      <c r="AL37" s="88"/>
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
@@ -5116,7 +5134,7 @@
       <c r="AS37" s="17"/>
       <c r="AT37" s="17"/>
       <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
+      <c r="AV37" s="88"/>
       <c r="AW37" s="17"/>
       <c r="AX37" s="17"/>
       <c r="AY37" s="56"/>
@@ -5153,9 +5171,9 @@
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
       <c r="Y38" s="17"/>
-      <c r="Z38" s="127"/>
-      <c r="AA38" s="129"/>
-      <c r="AB38" s="129"/>
+      <c r="Z38" s="125"/>
+      <c r="AA38" s="127"/>
+      <c r="AB38" s="127"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="17"/>
@@ -5165,7 +5183,7 @@
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
+      <c r="AL38" s="88"/>
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
       <c r="AO38" s="17"/>
@@ -5175,7 +5193,7 @@
       <c r="AS38" s="17"/>
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
+      <c r="AV38" s="88"/>
       <c r="AW38" s="17"/>
       <c r="AX38" s="17"/>
       <c r="AY38" s="56"/>
@@ -5212,9 +5230,9 @@
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
       <c r="Y39" s="17"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="129"/>
-      <c r="AB39" s="129"/>
+      <c r="Z39" s="125"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="127"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="17"/>
@@ -5224,7 +5242,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
+      <c r="AL39" s="88"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
       <c r="AO39" s="17"/>
@@ -5234,7 +5252,7 @@
       <c r="AS39" s="17"/>
       <c r="AT39" s="17"/>
       <c r="AU39" s="17"/>
-      <c r="AV39" s="17"/>
+      <c r="AV39" s="88"/>
       <c r="AW39" s="17"/>
       <c r="AX39" s="17"/>
       <c r="AY39" s="56"/>
@@ -5271,9 +5289,9 @@
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="127"/>
-      <c r="AA40" s="129"/>
-      <c r="AB40" s="129"/>
+      <c r="Z40" s="125"/>
+      <c r="AA40" s="127"/>
+      <c r="AB40" s="127"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
       <c r="AE40" s="17"/>
@@ -5283,7 +5301,7 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
+      <c r="AL40" s="88"/>
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
       <c r="AO40" s="17"/>
@@ -5293,7 +5311,7 @@
       <c r="AS40" s="17"/>
       <c r="AT40" s="17"/>
       <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
+      <c r="AV40" s="88"/>
       <c r="AW40" s="17"/>
       <c r="AX40" s="17"/>
       <c r="AY40" s="56"/>
@@ -5330,9 +5348,9 @@
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="129"/>
-      <c r="AB41" s="129"/>
+      <c r="Z41" s="125"/>
+      <c r="AA41" s="127"/>
+      <c r="AB41" s="127"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
@@ -5342,7 +5360,7 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
+      <c r="AL41" s="88"/>
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
       <c r="AO41" s="17"/>
@@ -5352,7 +5370,7 @@
       <c r="AS41" s="17"/>
       <c r="AT41" s="17"/>
       <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
+      <c r="AV41" s="88"/>
       <c r="AW41" s="17"/>
       <c r="AX41" s="17"/>
       <c r="AY41" s="56"/>
@@ -5389,9 +5407,9 @@
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="129"/>
-      <c r="AB42" s="129"/>
+      <c r="Z42" s="125"/>
+      <c r="AA42" s="127"/>
+      <c r="AB42" s="127"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
@@ -5401,7 +5419,7 @@
       <c r="AI42" s="17"/>
       <c r="AJ42" s="17"/>
       <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
+      <c r="AL42" s="88"/>
       <c r="AM42" s="17"/>
       <c r="AN42" s="17"/>
       <c r="AO42" s="17"/>
@@ -5411,7 +5429,7 @@
       <c r="AS42" s="17"/>
       <c r="AT42" s="17"/>
       <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
+      <c r="AV42" s="88"/>
       <c r="AW42" s="17"/>
       <c r="AX42" s="17"/>
       <c r="AY42" s="56"/>
@@ -5448,9 +5466,9 @@
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Y43" s="17"/>
-      <c r="Z43" s="127"/>
-      <c r="AA43" s="129"/>
-      <c r="AB43" s="129"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="127"/>
+      <c r="AB43" s="127"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17"/>
@@ -5460,7 +5478,7 @@
       <c r="AI43" s="17"/>
       <c r="AJ43" s="17"/>
       <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
+      <c r="AL43" s="88"/>
       <c r="AM43" s="17"/>
       <c r="AN43" s="17"/>
       <c r="AO43" s="17"/>
@@ -5470,7 +5488,7 @@
       <c r="AS43" s="17"/>
       <c r="AT43" s="17"/>
       <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
+      <c r="AV43" s="88"/>
       <c r="AW43" s="17"/>
       <c r="AX43" s="17"/>
       <c r="AY43" s="56"/>
@@ -5507,9 +5525,9 @@
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
       <c r="Y44" s="17"/>
-      <c r="Z44" s="127"/>
-      <c r="AA44" s="129"/>
-      <c r="AB44" s="129"/>
+      <c r="Z44" s="125"/>
+      <c r="AA44" s="127"/>
+      <c r="AB44" s="127"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17"/>
@@ -5519,7 +5537,7 @@
       <c r="AI44" s="17"/>
       <c r="AJ44" s="17"/>
       <c r="AK44" s="17"/>
-      <c r="AL44" s="17"/>
+      <c r="AL44" s="88"/>
       <c r="AM44" s="17"/>
       <c r="AN44" s="17"/>
       <c r="AO44" s="17"/>
@@ -5529,7 +5547,7 @@
       <c r="AS44" s="17"/>
       <c r="AT44" s="17"/>
       <c r="AU44" s="17"/>
-      <c r="AV44" s="17"/>
+      <c r="AV44" s="88"/>
       <c r="AW44" s="17"/>
       <c r="AX44" s="17"/>
       <c r="AY44" s="56"/>
@@ -5566,9 +5584,9 @@
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="17"/>
-      <c r="Z45" s="127"/>
-      <c r="AA45" s="129"/>
-      <c r="AB45" s="129"/>
+      <c r="Z45" s="125"/>
+      <c r="AA45" s="127"/>
+      <c r="AB45" s="127"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="17"/>
@@ -5578,7 +5596,7 @@
       <c r="AI45" s="17"/>
       <c r="AJ45" s="17"/>
       <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
+      <c r="AL45" s="88"/>
       <c r="AM45" s="17"/>
       <c r="AN45" s="17"/>
       <c r="AO45" s="17"/>
@@ -5588,7 +5606,7 @@
       <c r="AS45" s="17"/>
       <c r="AT45" s="17"/>
       <c r="AU45" s="17"/>
-      <c r="AV45" s="17"/>
+      <c r="AV45" s="88"/>
       <c r="AW45" s="17"/>
       <c r="AX45" s="17"/>
       <c r="AY45" s="56"/>
@@ -5625,9 +5643,9 @@
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
-      <c r="Z46" s="127"/>
-      <c r="AA46" s="129"/>
-      <c r="AB46" s="129"/>
+      <c r="Z46" s="125"/>
+      <c r="AA46" s="127"/>
+      <c r="AB46" s="127"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="17"/>
@@ -5637,7 +5655,7 @@
       <c r="AI46" s="17"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
+      <c r="AL46" s="88"/>
       <c r="AM46" s="17"/>
       <c r="AN46" s="17"/>
       <c r="AO46" s="17"/>
@@ -5647,7 +5665,7 @@
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
       <c r="AU46" s="17"/>
-      <c r="AV46" s="17"/>
+      <c r="AV46" s="88"/>
       <c r="AW46" s="17"/>
       <c r="AX46" s="17"/>
       <c r="AY46" s="56"/>
@@ -5684,9 +5702,9 @@
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
-      <c r="Z47" s="127"/>
-      <c r="AA47" s="129"/>
-      <c r="AB47" s="129"/>
+      <c r="Z47" s="125"/>
+      <c r="AA47" s="127"/>
+      <c r="AB47" s="127"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17"/>
@@ -5696,7 +5714,7 @@
       <c r="AI47" s="17"/>
       <c r="AJ47" s="17"/>
       <c r="AK47" s="17"/>
-      <c r="AL47" s="17"/>
+      <c r="AL47" s="88"/>
       <c r="AM47" s="17"/>
       <c r="AN47" s="17"/>
       <c r="AO47" s="17"/>
@@ -5706,7 +5724,7 @@
       <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
       <c r="AU47" s="17"/>
-      <c r="AV47" s="17"/>
+      <c r="AV47" s="88"/>
       <c r="AW47" s="17"/>
       <c r="AX47" s="17"/>
       <c r="AY47" s="56"/>
@@ -5743,9 +5761,9 @@
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
-      <c r="Z48" s="127"/>
-      <c r="AA48" s="129"/>
-      <c r="AB48" s="129"/>
+      <c r="Z48" s="125"/>
+      <c r="AA48" s="127"/>
+      <c r="AB48" s="127"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="17"/>
@@ -5755,7 +5773,7 @@
       <c r="AI48" s="17"/>
       <c r="AJ48" s="17"/>
       <c r="AK48" s="17"/>
-      <c r="AL48" s="17"/>
+      <c r="AL48" s="88"/>
       <c r="AM48" s="17"/>
       <c r="AN48" s="17"/>
       <c r="AO48" s="17"/>
@@ -5765,7 +5783,7 @@
       <c r="AS48" s="17"/>
       <c r="AT48" s="17"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="17"/>
+      <c r="AV48" s="88"/>
       <c r="AW48" s="17"/>
       <c r="AX48" s="17"/>
       <c r="AY48" s="56"/>
@@ -5802,9 +5820,9 @@
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
-      <c r="Z49" s="127"/>
-      <c r="AA49" s="129"/>
-      <c r="AB49" s="129"/>
+      <c r="Z49" s="125"/>
+      <c r="AA49" s="127"/>
+      <c r="AB49" s="127"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="17"/>
@@ -5814,7 +5832,7 @@
       <c r="AI49" s="17"/>
       <c r="AJ49" s="17"/>
       <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
+      <c r="AL49" s="88"/>
       <c r="AM49" s="17"/>
       <c r="AN49" s="17"/>
       <c r="AO49" s="17"/>
@@ -5824,7 +5842,7 @@
       <c r="AS49" s="17"/>
       <c r="AT49" s="17"/>
       <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
+      <c r="AV49" s="88"/>
       <c r="AW49" s="17"/>
       <c r="AX49" s="17"/>
       <c r="AY49" s="56"/>
@@ -5861,9 +5879,9 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
-      <c r="Z50" s="127"/>
-      <c r="AA50" s="129"/>
-      <c r="AB50" s="129"/>
+      <c r="Z50" s="125"/>
+      <c r="AA50" s="127"/>
+      <c r="AB50" s="127"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="17"/>
@@ -5873,7 +5891,7 @@
       <c r="AI50" s="17"/>
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
+      <c r="AL50" s="88"/>
       <c r="AM50" s="17"/>
       <c r="AN50" s="17"/>
       <c r="AO50" s="17"/>
@@ -5883,7 +5901,7 @@
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
       <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
+      <c r="AV50" s="88"/>
       <c r="AW50" s="17"/>
       <c r="AX50" s="17"/>
       <c r="AY50" s="56"/>
@@ -5920,9 +5938,9 @@
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
-      <c r="Z51" s="127"/>
-      <c r="AA51" s="129"/>
-      <c r="AB51" s="129"/>
+      <c r="Z51" s="125"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="17"/>
@@ -5932,7 +5950,7 @@
       <c r="AI51" s="17"/>
       <c r="AJ51" s="17"/>
       <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
+      <c r="AL51" s="88"/>
       <c r="AM51" s="17"/>
       <c r="AN51" s="17"/>
       <c r="AO51" s="17"/>
@@ -5942,7 +5960,7 @@
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
       <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
+      <c r="AV51" s="88"/>
       <c r="AW51" s="17"/>
       <c r="AX51" s="17"/>
       <c r="AY51" s="56"/>
@@ -5979,9 +5997,9 @@
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
-      <c r="Z52" s="127"/>
-      <c r="AA52" s="129"/>
-      <c r="AB52" s="129"/>
+      <c r="Z52" s="125"/>
+      <c r="AA52" s="127"/>
+      <c r="AB52" s="127"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="17"/>
@@ -5991,7 +6009,7 @@
       <c r="AI52" s="17"/>
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
+      <c r="AL52" s="88"/>
       <c r="AM52" s="17"/>
       <c r="AN52" s="17"/>
       <c r="AO52" s="17"/>
@@ -6001,7 +6019,7 @@
       <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
       <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
+      <c r="AV52" s="88"/>
       <c r="AW52" s="17"/>
       <c r="AX52" s="17"/>
       <c r="AY52" s="56"/>
@@ -6038,9 +6056,9 @@
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
-      <c r="Z53" s="127"/>
-      <c r="AA53" s="129"/>
-      <c r="AB53" s="129"/>
+      <c r="Z53" s="125"/>
+      <c r="AA53" s="127"/>
+      <c r="AB53" s="127"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="17"/>
@@ -6050,7 +6068,7 @@
       <c r="AI53" s="17"/>
       <c r="AJ53" s="17"/>
       <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
+      <c r="AL53" s="88"/>
       <c r="AM53" s="17"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
@@ -6060,7 +6078,7 @@
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
       <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
+      <c r="AV53" s="88"/>
       <c r="AW53" s="17"/>
       <c r="AX53" s="17"/>
       <c r="AY53" s="56"/>
@@ -6097,9 +6115,9 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
-      <c r="Z54" s="127"/>
-      <c r="AA54" s="129"/>
-      <c r="AB54" s="129"/>
+      <c r="Z54" s="125"/>
+      <c r="AA54" s="127"/>
+      <c r="AB54" s="127"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="17"/>
@@ -6109,7 +6127,7 @@
       <c r="AI54" s="17"/>
       <c r="AJ54" s="17"/>
       <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
+      <c r="AL54" s="88"/>
       <c r="AM54" s="17"/>
       <c r="AN54" s="17"/>
       <c r="AO54" s="17"/>
@@ -6119,7 +6137,7 @@
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
       <c r="AU54" s="17"/>
-      <c r="AV54" s="17"/>
+      <c r="AV54" s="88"/>
       <c r="AW54" s="17"/>
       <c r="AX54" s="17"/>
       <c r="AY54" s="56"/>
@@ -6156,9 +6174,9 @@
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
-      <c r="Z55" s="127"/>
-      <c r="AA55" s="129"/>
-      <c r="AB55" s="129"/>
+      <c r="Z55" s="125"/>
+      <c r="AA55" s="127"/>
+      <c r="AB55" s="127"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="17"/>
@@ -6168,7 +6186,7 @@
       <c r="AI55" s="17"/>
       <c r="AJ55" s="17"/>
       <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
+      <c r="AL55" s="88"/>
       <c r="AM55" s="17"/>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
@@ -6178,7 +6196,7 @@
       <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
       <c r="AU55" s="17"/>
-      <c r="AV55" s="17"/>
+      <c r="AV55" s="88"/>
       <c r="AW55" s="17"/>
       <c r="AX55" s="17"/>
       <c r="AY55" s="56"/>
@@ -6215,9 +6233,9 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
-      <c r="Z56" s="127"/>
-      <c r="AA56" s="129"/>
-      <c r="AB56" s="129"/>
+      <c r="Z56" s="125"/>
+      <c r="AA56" s="127"/>
+      <c r="AB56" s="127"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="17"/>
@@ -6227,7 +6245,7 @@
       <c r="AI56" s="17"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
-      <c r="AL56" s="17"/>
+      <c r="AL56" s="88"/>
       <c r="AM56" s="17"/>
       <c r="AN56" s="17"/>
       <c r="AO56" s="17"/>
@@ -6237,7 +6255,7 @@
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
       <c r="AU56" s="17"/>
-      <c r="AV56" s="17"/>
+      <c r="AV56" s="88"/>
       <c r="AW56" s="17"/>
       <c r="AX56" s="17"/>
       <c r="AY56" s="56"/>
@@ -6274,9 +6292,9 @@
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
-      <c r="Z57" s="127"/>
-      <c r="AA57" s="129"/>
-      <c r="AB57" s="129"/>
+      <c r="Z57" s="125"/>
+      <c r="AA57" s="127"/>
+      <c r="AB57" s="127"/>
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="17"/>
@@ -6286,7 +6304,7 @@
       <c r="AI57" s="17"/>
       <c r="AJ57" s="17"/>
       <c r="AK57" s="17"/>
-      <c r="AL57" s="17"/>
+      <c r="AL57" s="88"/>
       <c r="AM57" s="17"/>
       <c r="AN57" s="17"/>
       <c r="AO57" s="17"/>
@@ -6296,7 +6314,7 @@
       <c r="AS57" s="17"/>
       <c r="AT57" s="17"/>
       <c r="AU57" s="17"/>
-      <c r="AV57" s="17"/>
+      <c r="AV57" s="88"/>
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
       <c r="AY57" s="56"/>
@@ -6333,9 +6351,9 @@
       <c r="W58" s="17"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="17"/>
-      <c r="Z58" s="127"/>
-      <c r="AA58" s="129"/>
-      <c r="AB58" s="129"/>
+      <c r="Z58" s="125"/>
+      <c r="AA58" s="127"/>
+      <c r="AB58" s="127"/>
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="17"/>
@@ -6345,7 +6363,7 @@
       <c r="AI58" s="17"/>
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
+      <c r="AL58" s="88"/>
       <c r="AM58" s="17"/>
       <c r="AN58" s="17"/>
       <c r="AO58" s="17"/>
@@ -6355,7 +6373,7 @@
       <c r="AS58" s="17"/>
       <c r="AT58" s="17"/>
       <c r="AU58" s="17"/>
-      <c r="AV58" s="17"/>
+      <c r="AV58" s="88"/>
       <c r="AW58" s="17"/>
       <c r="AX58" s="17"/>
       <c r="AY58" s="56"/>
@@ -6392,9 +6410,9 @@
       <c r="W59" s="17"/>
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
-      <c r="Z59" s="127"/>
-      <c r="AA59" s="129"/>
-      <c r="AB59" s="129"/>
+      <c r="Z59" s="125"/>
+      <c r="AA59" s="127"/>
+      <c r="AB59" s="127"/>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
@@ -6404,7 +6422,7 @@
       <c r="AI59" s="17"/>
       <c r="AJ59" s="17"/>
       <c r="AK59" s="17"/>
-      <c r="AL59" s="17"/>
+      <c r="AL59" s="88"/>
       <c r="AM59" s="17"/>
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
@@ -6414,7 +6432,7 @@
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
       <c r="AU59" s="17"/>
-      <c r="AV59" s="17"/>
+      <c r="AV59" s="88"/>
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
       <c r="AY59" s="56"/>
@@ -6451,9 +6469,9 @@
       <c r="W60" s="17"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
-      <c r="Z60" s="127"/>
-      <c r="AA60" s="129"/>
-      <c r="AB60" s="129"/>
+      <c r="Z60" s="125"/>
+      <c r="AA60" s="127"/>
+      <c r="AB60" s="127"/>
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="17"/>
@@ -6463,7 +6481,7 @@
       <c r="AI60" s="17"/>
       <c r="AJ60" s="17"/>
       <c r="AK60" s="17"/>
-      <c r="AL60" s="17"/>
+      <c r="AL60" s="88"/>
       <c r="AM60" s="17"/>
       <c r="AN60" s="17"/>
       <c r="AO60" s="17"/>
@@ -6473,7 +6491,7 @@
       <c r="AS60" s="17"/>
       <c r="AT60" s="17"/>
       <c r="AU60" s="17"/>
-      <c r="AV60" s="17"/>
+      <c r="AV60" s="88"/>
       <c r="AW60" s="17"/>
       <c r="AX60" s="17"/>
       <c r="AY60" s="56"/>
@@ -6510,9 +6528,9 @@
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
       <c r="Y61" s="17"/>
-      <c r="Z61" s="127"/>
-      <c r="AA61" s="129"/>
-      <c r="AB61" s="129"/>
+      <c r="Z61" s="125"/>
+      <c r="AA61" s="127"/>
+      <c r="AB61" s="127"/>
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="17"/>
@@ -6522,7 +6540,7 @@
       <c r="AI61" s="17"/>
       <c r="AJ61" s="17"/>
       <c r="AK61" s="17"/>
-      <c r="AL61" s="17"/>
+      <c r="AL61" s="88"/>
       <c r="AM61" s="17"/>
       <c r="AN61" s="17"/>
       <c r="AO61" s="17"/>
@@ -6532,7 +6550,7 @@
       <c r="AS61" s="17"/>
       <c r="AT61" s="17"/>
       <c r="AU61" s="17"/>
-      <c r="AV61" s="17"/>
+      <c r="AV61" s="88"/>
       <c r="AW61" s="17"/>
       <c r="AX61" s="17"/>
       <c r="AY61" s="56"/>
@@ -6569,9 +6587,9 @@
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
-      <c r="Z62" s="127"/>
-      <c r="AA62" s="129"/>
-      <c r="AB62" s="129"/>
+      <c r="Z62" s="125"/>
+      <c r="AA62" s="127"/>
+      <c r="AB62" s="127"/>
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="17"/>
@@ -6581,7 +6599,7 @@
       <c r="AI62" s="17"/>
       <c r="AJ62" s="17"/>
       <c r="AK62" s="17"/>
-      <c r="AL62" s="17"/>
+      <c r="AL62" s="88"/>
       <c r="AM62" s="17"/>
       <c r="AN62" s="17"/>
       <c r="AO62" s="17"/>
@@ -6591,7 +6609,7 @@
       <c r="AS62" s="17"/>
       <c r="AT62" s="17"/>
       <c r="AU62" s="17"/>
-      <c r="AV62" s="17"/>
+      <c r="AV62" s="88"/>
       <c r="AW62" s="17"/>
       <c r="AX62" s="17"/>
       <c r="AY62" s="56"/>
@@ -6628,9 +6646,9 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
       <c r="Y63" s="17"/>
-      <c r="Z63" s="127"/>
-      <c r="AA63" s="129"/>
-      <c r="AB63" s="129"/>
+      <c r="Z63" s="125"/>
+      <c r="AA63" s="127"/>
+      <c r="AB63" s="127"/>
       <c r="AC63" s="17"/>
       <c r="AD63" s="17"/>
       <c r="AE63" s="17"/>
@@ -6640,7 +6658,7 @@
       <c r="AI63" s="17"/>
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
-      <c r="AL63" s="17"/>
+      <c r="AL63" s="88"/>
       <c r="AM63" s="17"/>
       <c r="AN63" s="17"/>
       <c r="AO63" s="17"/>
@@ -6650,7 +6668,7 @@
       <c r="AS63" s="17"/>
       <c r="AT63" s="17"/>
       <c r="AU63" s="17"/>
-      <c r="AV63" s="17"/>
+      <c r="AV63" s="88"/>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
       <c r="AY63" s="56"/>
@@ -6687,9 +6705,9 @@
       <c r="W64" s="17"/>
       <c r="X64" s="17"/>
       <c r="Y64" s="17"/>
-      <c r="Z64" s="127"/>
-      <c r="AA64" s="129"/>
-      <c r="AB64" s="129"/>
+      <c r="Z64" s="125"/>
+      <c r="AA64" s="127"/>
+      <c r="AB64" s="127"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
       <c r="AE64" s="17"/>
@@ -6699,7 +6717,7 @@
       <c r="AI64" s="17"/>
       <c r="AJ64" s="17"/>
       <c r="AK64" s="17"/>
-      <c r="AL64" s="17"/>
+      <c r="AL64" s="88"/>
       <c r="AM64" s="17"/>
       <c r="AN64" s="17"/>
       <c r="AO64" s="17"/>
@@ -6709,7 +6727,7 @@
       <c r="AS64" s="17"/>
       <c r="AT64" s="17"/>
       <c r="AU64" s="17"/>
-      <c r="AV64" s="17"/>
+      <c r="AV64" s="88"/>
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
       <c r="AY64" s="56"/>
@@ -6746,9 +6764,9 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
       <c r="Y65" s="17"/>
-      <c r="Z65" s="127"/>
-      <c r="AA65" s="129"/>
-      <c r="AB65" s="129"/>
+      <c r="Z65" s="125"/>
+      <c r="AA65" s="127"/>
+      <c r="AB65" s="127"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
       <c r="AE65" s="17"/>
@@ -6758,7 +6776,7 @@
       <c r="AI65" s="17"/>
       <c r="AJ65" s="17"/>
       <c r="AK65" s="17"/>
-      <c r="AL65" s="17"/>
+      <c r="AL65" s="88"/>
       <c r="AM65" s="17"/>
       <c r="AN65" s="17"/>
       <c r="AO65" s="17"/>
@@ -6768,7 +6786,7 @@
       <c r="AS65" s="17"/>
       <c r="AT65" s="17"/>
       <c r="AU65" s="17"/>
-      <c r="AV65" s="17"/>
+      <c r="AV65" s="88"/>
       <c r="AW65" s="17"/>
       <c r="AX65" s="17"/>
       <c r="AY65" s="56"/>
@@ -6805,9 +6823,9 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
       <c r="Y66" s="17"/>
-      <c r="Z66" s="127"/>
-      <c r="AA66" s="129"/>
-      <c r="AB66" s="129"/>
+      <c r="Z66" s="125"/>
+      <c r="AA66" s="127"/>
+      <c r="AB66" s="127"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="17"/>
@@ -6817,7 +6835,7 @@
       <c r="AI66" s="17"/>
       <c r="AJ66" s="17"/>
       <c r="AK66" s="17"/>
-      <c r="AL66" s="17"/>
+      <c r="AL66" s="88"/>
       <c r="AM66" s="17"/>
       <c r="AN66" s="17"/>
       <c r="AO66" s="17"/>
@@ -6827,7 +6845,7 @@
       <c r="AS66" s="17"/>
       <c r="AT66" s="17"/>
       <c r="AU66" s="17"/>
-      <c r="AV66" s="17"/>
+      <c r="AV66" s="88"/>
       <c r="AW66" s="17"/>
       <c r="AX66" s="17"/>
       <c r="AY66" s="56"/>
@@ -6864,9 +6882,9 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
       <c r="Y67" s="17"/>
-      <c r="Z67" s="127"/>
-      <c r="AA67" s="129"/>
-      <c r="AB67" s="129"/>
+      <c r="Z67" s="125"/>
+      <c r="AA67" s="127"/>
+      <c r="AB67" s="127"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="17"/>
@@ -6876,7 +6894,7 @@
       <c r="AI67" s="17"/>
       <c r="AJ67" s="17"/>
       <c r="AK67" s="17"/>
-      <c r="AL67" s="17"/>
+      <c r="AL67" s="88"/>
       <c r="AM67" s="17"/>
       <c r="AN67" s="17"/>
       <c r="AO67" s="17"/>
@@ -6886,7 +6904,7 @@
       <c r="AS67" s="17"/>
       <c r="AT67" s="17"/>
       <c r="AU67" s="17"/>
-      <c r="AV67" s="17"/>
+      <c r="AV67" s="88"/>
       <c r="AW67" s="17"/>
       <c r="AX67" s="17"/>
       <c r="AY67" s="56"/>
@@ -6923,9 +6941,9 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
       <c r="Y68" s="17"/>
-      <c r="Z68" s="127"/>
-      <c r="AA68" s="129"/>
-      <c r="AB68" s="129"/>
+      <c r="Z68" s="125"/>
+      <c r="AA68" s="127"/>
+      <c r="AB68" s="127"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="17"/>
@@ -6935,7 +6953,7 @@
       <c r="AI68" s="17"/>
       <c r="AJ68" s="17"/>
       <c r="AK68" s="17"/>
-      <c r="AL68" s="17"/>
+      <c r="AL68" s="88"/>
       <c r="AM68" s="17"/>
       <c r="AN68" s="17"/>
       <c r="AO68" s="17"/>
@@ -6945,7 +6963,7 @@
       <c r="AS68" s="17"/>
       <c r="AT68" s="17"/>
       <c r="AU68" s="17"/>
-      <c r="AV68" s="17"/>
+      <c r="AV68" s="88"/>
       <c r="AW68" s="17"/>
       <c r="AX68" s="17"/>
       <c r="AY68" s="56"/>
@@ -6982,9 +7000,9 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
       <c r="Y69" s="17"/>
-      <c r="Z69" s="127"/>
-      <c r="AA69" s="129"/>
-      <c r="AB69" s="129"/>
+      <c r="Z69" s="125"/>
+      <c r="AA69" s="127"/>
+      <c r="AB69" s="127"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="17"/>
@@ -6994,7 +7012,7 @@
       <c r="AI69" s="17"/>
       <c r="AJ69" s="17"/>
       <c r="AK69" s="17"/>
-      <c r="AL69" s="17"/>
+      <c r="AL69" s="88"/>
       <c r="AM69" s="17"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
@@ -7004,7 +7022,7 @@
       <c r="AS69" s="17"/>
       <c r="AT69" s="17"/>
       <c r="AU69" s="17"/>
-      <c r="AV69" s="17"/>
+      <c r="AV69" s="88"/>
       <c r="AW69" s="17"/>
       <c r="AX69" s="17"/>
       <c r="AY69" s="56"/>
@@ -7157,59 +7175,59 @@
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="163" t="s">
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="163" t="s">
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="163" t="s">
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="167" t="s">
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="163" t="s">
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="163" t="s">
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="166" t="s">
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="150"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="148"/>
     </row>
     <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>17</v>
@@ -7217,115 +7235,115 @@
       <c r="C2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="150" t="s">
+      <c r="F2" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="150" t="s">
+      <c r="J2" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="149" t="s">
+      <c r="L2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="149" t="s">
+      <c r="M2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="150" t="s">
+      <c r="N2" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="149" t="s">
+      <c r="P2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="149" t="s">
+      <c r="Q2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="150" t="s">
+      <c r="R2" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="149" t="s">
+      <c r="T2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="149" t="s">
+      <c r="U2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="149" t="s">
-        <v>61</v>
+      <c r="V2" s="147" t="s">
+        <v>60</v>
       </c>
       <c r="W2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="149" t="s">
+      <c r="X2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="149" t="s">
+      <c r="Y2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="149" t="s">
-        <v>61</v>
+      <c r="Z2" s="147" t="s">
+        <v>60</v>
       </c>
       <c r="AA2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="150" t="s">
+      <c r="AB2" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="149" t="s">
+      <c r="AC2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="149" t="s">
+      <c r="AD2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="149" t="s">
-        <v>61</v>
+      <c r="AE2" s="147" t="s">
+        <v>60</v>
       </c>
       <c r="AF2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="150" t="s">
+      <c r="AG2" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="151" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="152" t="s">
+      <c r="AH2" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="150" t="s">
+      <c r="AJ2" s="148" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="54">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="35">
         <v>12062.63992209041</v>
@@ -7396,11 +7414,11 @@
       <c r="Z3" s="55">
         <v>38.359644124815389</v>
       </c>
-      <c r="AA3" s="155">
+      <c r="AA3" s="153">
         <v>30</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC3" s="55">
         <v>30.0073177005508</v>
@@ -7411,29 +7429,29 @@
       <c r="AE3" s="55">
         <v>56.446646927494093</v>
       </c>
-      <c r="AF3" s="155">
+      <c r="AF3" s="153">
         <v>30</v>
       </c>
       <c r="AG3" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH3" s="41">
         <v>0</v>
       </c>
-      <c r="AI3" s="156">
+      <c r="AI3" s="154">
         <v>0</v>
       </c>
       <c r="AJ3" s="36"/>
     </row>
     <row r="4" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="54">
         <v>30</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="35">
         <v>31726.73912052848</v>
@@ -7492,7 +7510,7 @@
       <c r="V4" s="55">
         <v>-12.28941820544469</v>
       </c>
-      <c r="W4" s="155">
+      <c r="W4" s="153">
         <v>0</v>
       </c>
       <c r="X4" s="35">
@@ -7504,11 +7522,11 @@
       <c r="Z4" s="55">
         <v>15.88969532467628</v>
       </c>
-      <c r="AA4" s="155">
+      <c r="AA4" s="153">
         <v>30</v>
       </c>
-      <c r="AB4" s="157" t="s">
-        <v>67</v>
+      <c r="AB4" s="155" t="s">
+        <v>66</v>
       </c>
       <c r="AC4" s="55">
         <v>16.050182467365801</v>
@@ -7519,29 +7537,29 @@
       <c r="AE4" s="55">
         <v>28.179113530120969</v>
       </c>
-      <c r="AF4" s="155">
+      <c r="AF4" s="153">
         <v>30</v>
       </c>
       <c r="AG4" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH4" s="41">
         <v>0</v>
       </c>
-      <c r="AI4" s="156">
+      <c r="AI4" s="154">
         <v>0</v>
       </c>
       <c r="AJ4" s="36"/>
     </row>
     <row r="5" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="54">
         <v>30</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="35">
         <v>74339.27392691889</v>
@@ -7600,56 +7618,56 @@
       <c r="V5" s="55">
         <v>-5.3603655904064027</v>
       </c>
-      <c r="W5" s="155">
+      <c r="W5" s="153">
         <v>0</v>
       </c>
-      <c r="X5" s="158">
+      <c r="X5" s="156">
         <v>51.706464732039507</v>
       </c>
-      <c r="Y5" s="159">
+      <c r="Y5" s="157">
         <v>27.026952517847551</v>
       </c>
       <c r="Z5" s="55">
         <v>24.015610095460421</v>
       </c>
-      <c r="AA5" s="155">
+      <c r="AA5" s="153">
         <v>30</v>
       </c>
-      <c r="AB5" s="157" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC5" s="160">
+      <c r="AB5" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="158">
         <v>18.656005144144579</v>
       </c>
-      <c r="AD5" s="160">
+      <c r="AD5" s="158">
         <v>14.65413953807052</v>
       </c>
       <c r="AE5" s="55">
         <v>29.37597568586683</v>
       </c>
-      <c r="AF5" s="155">
+      <c r="AF5" s="153">
         <v>30</v>
       </c>
-      <c r="AG5" s="157" t="s">
-        <v>64</v>
+      <c r="AG5" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AH5" s="41">
         <v>0</v>
       </c>
-      <c r="AI5" s="156">
+      <c r="AI5" s="154">
         <v>0</v>
       </c>
       <c r="AJ5" s="36"/>
     </row>
     <row r="6" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="54">
         <v>30</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="35">
         <v>30286.68362262753</v>
@@ -7708,56 +7726,56 @@
       <c r="V6" s="55">
         <v>-12.742088260126399</v>
       </c>
-      <c r="W6" s="155">
+      <c r="W6" s="153">
         <v>0</v>
       </c>
-      <c r="X6" s="158">
+      <c r="X6" s="156">
         <v>44.656486235616171</v>
       </c>
-      <c r="Y6" s="159">
+      <c r="Y6" s="157">
         <v>21.002097045809052</v>
       </c>
       <c r="Z6" s="55">
         <v>15.27373577348283</v>
       </c>
-      <c r="AA6" s="155">
+      <c r="AA6" s="153">
         <v>30</v>
       </c>
-      <c r="AB6" s="157" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC6" s="160">
+      <c r="AB6" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="158">
         <v>30.415799504610241</v>
       </c>
-      <c r="AD6" s="160">
+      <c r="AD6" s="158">
         <v>25.786620174535631</v>
       </c>
       <c r="AE6" s="55">
         <v>28.015824033609231</v>
       </c>
-      <c r="AF6" s="155">
+      <c r="AF6" s="153">
         <v>30</v>
       </c>
-      <c r="AG6" s="157" t="s">
-        <v>64</v>
+      <c r="AG6" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AH6" s="41">
         <v>0</v>
       </c>
-      <c r="AI6" s="156">
+      <c r="AI6" s="154">
         <v>0</v>
       </c>
       <c r="AJ6" s="36"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="54">
         <v>30</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="35">
         <v>90380.749658452391</v>
@@ -7816,23 +7834,23 @@
       <c r="V7" s="55">
         <v>36.319049690014353</v>
       </c>
-      <c r="W7" s="155">
+      <c r="W7" s="153">
         <v>0</v>
       </c>
-      <c r="X7" s="158">
+      <c r="X7" s="156">
         <v>32.480116409803067</v>
       </c>
-      <c r="Y7" s="159">
+      <c r="Y7" s="157">
         <v>27.272036321601199</v>
       </c>
       <c r="Z7" s="55">
         <v>42.683413500401123</v>
       </c>
-      <c r="AA7" s="155">
+      <c r="AA7" s="153">
         <v>0</v>
       </c>
-      <c r="AB7" s="161" t="s">
-        <v>76</v>
+      <c r="AB7" s="159" t="s">
+        <v>75</v>
       </c>
       <c r="AC7" s="55">
         <v>0</v>
@@ -7843,29 +7861,29 @@
       <c r="AE7" s="55">
         <v>6.3643638103867737</v>
       </c>
-      <c r="AF7" s="155">
+      <c r="AF7" s="153">
         <v>0</v>
       </c>
-      <c r="AG7" s="161" t="s">
-        <v>76</v>
+      <c r="AG7" s="159" t="s">
+        <v>75</v>
       </c>
       <c r="AH7" s="41">
         <v>0</v>
       </c>
-      <c r="AI7" s="156">
+      <c r="AI7" s="154">
         <v>0</v>
       </c>
       <c r="AJ7" s="36"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="54">
         <v>30</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="35">
         <v>38367.755522799103</v>
@@ -7924,23 +7942,23 @@
       <c r="V8" s="55">
         <v>-8.0262936123987174</v>
       </c>
-      <c r="W8" s="155">
+      <c r="W8" s="153">
         <v>0</v>
       </c>
-      <c r="X8" s="158">
+      <c r="X8" s="156">
         <v>29.3928088797614</v>
       </c>
-      <c r="Y8" s="159">
+      <c r="Y8" s="157">
         <v>19.028647762149379</v>
       </c>
       <c r="Z8" s="55">
         <v>27.458587847751161</v>
       </c>
-      <c r="AA8" s="155">
+      <c r="AA8" s="153">
         <v>30</v>
       </c>
-      <c r="AB8" s="157" t="s">
-        <v>64</v>
+      <c r="AB8" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AC8" s="55">
         <v>19.531892171745969</v>
@@ -7951,29 +7969,29 @@
       <c r="AE8" s="55">
         <v>35.484881460149879</v>
       </c>
-      <c r="AF8" s="155">
+      <c r="AF8" s="153">
         <v>30</v>
       </c>
-      <c r="AG8" s="157" t="s">
-        <v>64</v>
+      <c r="AG8" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AH8" s="41">
         <v>0</v>
       </c>
-      <c r="AI8" s="156">
+      <c r="AI8" s="154">
         <v>0</v>
       </c>
       <c r="AJ8" s="36"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="54">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="35">
         <v>95452.544333437036</v>
@@ -8032,23 +8050,23 @@
       <c r="V9" s="55">
         <v>31.84366853355078</v>
       </c>
-      <c r="W9" s="155">
+      <c r="W9" s="153">
         <v>0</v>
       </c>
-      <c r="X9" s="158">
+      <c r="X9" s="156">
         <v>52.299782542859532</v>
       </c>
-      <c r="Y9" s="159">
+      <c r="Y9" s="157">
         <v>43.201114165876149</v>
       </c>
       <c r="Z9" s="55">
         <v>31.84366853355078</v>
       </c>
-      <c r="AA9" s="155">
+      <c r="AA9" s="153">
         <v>0</v>
       </c>
-      <c r="AB9" s="161" t="s">
-        <v>76</v>
+      <c r="AB9" s="159" t="s">
+        <v>75</v>
       </c>
       <c r="AC9" s="55">
         <v>0</v>
@@ -8059,29 +8077,29 @@
       <c r="AE9" s="55">
         <v>0</v>
       </c>
-      <c r="AF9" s="155">
+      <c r="AF9" s="153">
         <v>0</v>
       </c>
-      <c r="AG9" s="161" t="s">
-        <v>76</v>
+      <c r="AG9" s="159" t="s">
+        <v>75</v>
       </c>
       <c r="AH9" s="41">
         <v>0</v>
       </c>
-      <c r="AI9" s="156">
+      <c r="AI9" s="154">
         <v>0</v>
       </c>
       <c r="AJ9" s="36"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="54">
         <v>7</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="35">
         <v>79442.132835689059</v>
@@ -8140,7 +8158,7 @@
       <c r="V10" s="55">
         <v>19.619737756136789</v>
       </c>
-      <c r="W10" s="155">
+      <c r="W10" s="153">
         <v>0</v>
       </c>
       <c r="X10" s="35">
@@ -8152,44 +8170,44 @@
       <c r="Z10" s="55">
         <v>19.619737756136789</v>
       </c>
-      <c r="AA10" s="155">
+      <c r="AA10" s="153">
         <v>30</v>
       </c>
-      <c r="AB10" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" s="160">
+      <c r="AB10" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" s="158">
         <v>0</v>
       </c>
-      <c r="AD10" s="160">
+      <c r="AD10" s="158">
         <v>0</v>
       </c>
       <c r="AE10" s="55">
         <v>0</v>
       </c>
-      <c r="AF10" s="155">
+      <c r="AF10" s="153">
         <v>30</v>
       </c>
-      <c r="AG10" s="162" t="s">
-        <v>83</v>
+      <c r="AG10" s="160" t="s">
+        <v>82</v>
       </c>
       <c r="AH10" s="41">
         <v>0</v>
       </c>
-      <c r="AI10" s="156">
+      <c r="AI10" s="154">
         <v>0</v>
       </c>
       <c r="AJ10" s="36"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="54">
         <v>60</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="35">
         <v>11784.935034954</v>
@@ -8248,7 +8266,7 @@
       <c r="V11" s="55">
         <v>-6.3040836555523896</v>
       </c>
-      <c r="W11" s="155">
+      <c r="W11" s="153">
         <v>0</v>
       </c>
       <c r="X11" s="35">
@@ -8260,11 +8278,11 @@
       <c r="Z11" s="55">
         <v>35.822887392584427</v>
       </c>
-      <c r="AA11" s="155">
+      <c r="AA11" s="153">
         <v>30</v>
       </c>
-      <c r="AB11" s="157" t="s">
-        <v>64</v>
+      <c r="AB11" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AC11" s="55">
         <v>19.624181369751931</v>
@@ -8275,29 +8293,29 @@
       <c r="AE11" s="55">
         <v>42.126971048136816</v>
       </c>
-      <c r="AF11" s="155">
+      <c r="AF11" s="153">
         <v>30</v>
       </c>
-      <c r="AG11" s="157" t="s">
-        <v>64</v>
+      <c r="AG11" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AH11" s="41">
         <v>0</v>
       </c>
-      <c r="AI11" s="156">
+      <c r="AI11" s="154">
         <v>0</v>
       </c>
       <c r="AJ11" s="36"/>
     </row>
     <row r="12" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="54">
         <v>7</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="35">
         <v>111306.36549716871</v>
@@ -8356,7 +8374,7 @@
       <c r="V12" s="55">
         <v>33.602259312395262</v>
       </c>
-      <c r="W12" s="155">
+      <c r="W12" s="153">
         <v>0</v>
       </c>
       <c r="X12" s="35">
@@ -8368,11 +8386,11 @@
       <c r="Z12" s="55">
         <v>33.602259312395262</v>
       </c>
-      <c r="AA12" s="155">
+      <c r="AA12" s="153">
         <v>30</v>
       </c>
-      <c r="AB12" s="157" t="s">
-        <v>88</v>
+      <c r="AB12" s="155" t="s">
+        <v>87</v>
       </c>
       <c r="AC12" s="55">
         <v>0</v>
@@ -8383,29 +8401,29 @@
       <c r="AE12" s="55">
         <v>0</v>
       </c>
-      <c r="AF12" s="155">
+      <c r="AF12" s="153">
         <v>30</v>
       </c>
-      <c r="AG12" s="162" t="s">
-        <v>83</v>
+      <c r="AG12" s="160" t="s">
+        <v>82</v>
       </c>
       <c r="AH12" s="41">
         <v>0</v>
       </c>
-      <c r="AI12" s="156">
+      <c r="AI12" s="154">
         <v>0</v>
       </c>
       <c r="AJ12" s="36"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="54">
         <v>60</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="35">
         <v>22773.095105918001</v>
@@ -8464,23 +8482,23 @@
       <c r="V13" s="55">
         <v>-20.185495944680369</v>
       </c>
-      <c r="W13" s="155">
+      <c r="W13" s="153">
         <v>-30</v>
       </c>
-      <c r="X13" s="158">
+      <c r="X13" s="156">
         <v>215.80854825791349</v>
       </c>
-      <c r="Y13" s="159">
+      <c r="Y13" s="157">
         <v>28.79568461906193</v>
       </c>
       <c r="Z13" s="55">
         <v>39.846826181892688</v>
       </c>
-      <c r="AA13" s="155">
+      <c r="AA13" s="153">
         <v>30</v>
       </c>
-      <c r="AB13" s="157" t="s">
-        <v>64</v>
+      <c r="AB13" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AC13" s="55">
         <v>123.9485172777398</v>
@@ -8491,29 +8509,29 @@
       <c r="AE13" s="55">
         <v>60.983108762548348</v>
       </c>
-      <c r="AF13" s="155">
+      <c r="AF13" s="153">
         <v>60</v>
       </c>
-      <c r="AG13" s="157" t="s">
-        <v>64</v>
+      <c r="AG13" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AH13" s="41">
         <v>0.95078663597528368</v>
       </c>
-      <c r="AI13" s="156">
+      <c r="AI13" s="154">
         <v>0</v>
       </c>
       <c r="AJ13" s="36"/>
     </row>
     <row r="14" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="54">
         <v>30</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="35">
         <v>70704.758778128322</v>
@@ -8572,7 +8590,7 @@
       <c r="V14" s="55">
         <v>153.9627985957618</v>
       </c>
-      <c r="W14" s="155">
+      <c r="W14" s="153">
         <v>0</v>
       </c>
       <c r="X14" s="35">
@@ -8584,11 +8602,11 @@
       <c r="Z14" s="55">
         <v>153.9627985957618</v>
       </c>
-      <c r="AA14" s="155">
+      <c r="AA14" s="153">
         <v>30</v>
       </c>
-      <c r="AB14" s="157" t="s">
-        <v>93</v>
+      <c r="AB14" s="155" t="s">
+        <v>92</v>
       </c>
       <c r="AC14" s="55">
         <v>0</v>
@@ -8599,16 +8617,16 @@
       <c r="AE14" s="55">
         <v>0</v>
       </c>
-      <c r="AF14" s="155">
+      <c r="AF14" s="153">
         <v>30</v>
       </c>
-      <c r="AG14" s="157" t="s">
-        <v>64</v>
+      <c r="AG14" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="AH14" s="41">
         <v>0</v>
       </c>
-      <c r="AI14" s="156">
+      <c r="AI14" s="154">
         <v>0</v>
       </c>
       <c r="AJ14" s="36"/>
@@ -8763,7 +8781,7 @@
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8786,16 +8804,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:FC2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -8869,10 +8887,10 @@
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="121" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -9488,10 +9506,10 @@
       </c>
     </row>
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="108"/>
+      <c r="A3" s="106"/>
       <c r="B3"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="124"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="122"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -9586,10 +9604,10 @@
       <c r="CT3"/>
     </row>
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="108"/>
+      <c r="A4" s="106"/>
       <c r="B4"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="124"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="122"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -9684,10 +9702,10 @@
       <c r="CT4"/>
     </row>
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
+      <c r="A5" s="106"/>
       <c r="B5"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="122"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -9782,10 +9800,10 @@
       <c r="CT5"/>
     </row>
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="108"/>
+      <c r="A6" s="106"/>
       <c r="B6"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="124"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="122"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -9880,10 +9898,10 @@
       <c r="CT6"/>
     </row>
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="108"/>
+      <c r="A7" s="106"/>
       <c r="B7"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="124"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="122"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -9978,10 +9996,10 @@
       <c r="CT7"/>
     </row>
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="108"/>
+      <c r="A8" s="106"/>
       <c r="B8"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="124"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="122"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -10076,10 +10094,10 @@
       <c r="CT8"/>
     </row>
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="108"/>
+      <c r="A9" s="106"/>
       <c r="B9"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="124"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="122"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -10174,10 +10192,10 @@
       <c r="CT9"/>
     </row>
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
+      <c r="A10" s="106"/>
       <c r="B10"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="124"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="122"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -10272,10 +10290,10 @@
       <c r="CT10"/>
     </row>
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
+      <c r="A11" s="106"/>
       <c r="B11"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="124"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="122"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -10370,10 +10388,10 @@
       <c r="CT11"/>
     </row>
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
+      <c r="A12" s="106"/>
       <c r="B12"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="124"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="122"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -10468,10 +10486,10 @@
       <c r="CT12"/>
     </row>
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
+      <c r="A13" s="106"/>
       <c r="B13"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="124"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="122"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -10566,10 +10584,10 @@
       <c r="CT13"/>
     </row>
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
+      <c r="A14" s="106"/>
       <c r="B14"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="124"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="122"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -10664,10 +10682,10 @@
       <c r="CT14"/>
     </row>
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
+      <c r="A15" s="106"/>
       <c r="B15"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="124"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="122"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -10764,61 +10782,61 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="119"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="121"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="119"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="121"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="119"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="121"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="119"/>
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="121"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="119"/>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="119"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="119"/>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="119"/>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="119"/>
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
@@ -12066,7 +12084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12075,7 +12093,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -12165,7 +12183,7 @@
       <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="121" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -12784,86 +12802,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="124"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="124"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="124"/>
+      <c r="F5" s="122"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="124"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="124"/>
+      <c r="F7" s="122"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="124"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="124"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="124"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="124"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="124"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="124"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="124"/>
+      <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="119"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -12960,8 +12978,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -13058,8 +13076,8 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="119"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -35903,7 +35921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -35912,7 +35930,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -35968,8 +35986,8 @@
       <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="120" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="118" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35989,7 +36007,7 @@
       <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="121" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -36607,7 +36625,7 @@
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="F3" s="124"/>
+      <c r="F3" s="122"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -36704,7 +36722,7 @@
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="F4" s="124"/>
+      <c r="F4" s="122"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -36801,7 +36819,7 @@
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="F5" s="124"/>
+      <c r="F5" s="122"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -36898,7 +36916,7 @@
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="F6" s="124"/>
+      <c r="F6" s="122"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -36995,7 +37013,7 @@
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="F7" s="124"/>
+      <c r="F7" s="122"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -37092,7 +37110,7 @@
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="F8" s="124"/>
+      <c r="F8" s="122"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -37189,7 +37207,7 @@
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="F9" s="124"/>
+      <c r="F9" s="122"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -37286,7 +37304,7 @@
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="F10" s="124"/>
+      <c r="F10" s="122"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -37383,7 +37401,7 @@
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="F11" s="124"/>
+      <c r="F11" s="122"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -37456,7 +37474,7 @@
       <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11"/>
-      <c r="CA11" s="110"/>
+      <c r="CA11" s="108"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
@@ -37480,7 +37498,7 @@
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="F12" s="124"/>
+      <c r="F12" s="122"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -37577,7 +37595,7 @@
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="F13" s="124"/>
+      <c r="F13" s="122"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -37674,7 +37692,7 @@
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="F14" s="124"/>
+      <c r="F14" s="122"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -37771,7 +37789,7 @@
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="122"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -37868,14 +37886,14 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="119"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="119"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
@@ -39057,7 +39075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -39067,7 +39085,7 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="42.36328125" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -39217,7 +39235,7 @@
       <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="121" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -39836,86 +39854,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="124"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="124"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="124"/>
+      <c r="F5" s="122"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="124"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="124"/>
+      <c r="F7" s="122"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="124"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="124"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="124"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="124"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="124"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="124"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="124"/>
+      <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="119"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -40012,8 +40030,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>

--- a/MY/wc_template_MY_v3.xlsx
+++ b/MY/wc_template_MY_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\MY\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C733E0-DDE9-4379-B8D7-B2B0BE87719D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CBD36-52F8-43DC-9338-D38ECF2F4F78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31815" yWindow="1395" windowWidth="24675" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17070" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Daily Accounts Payable'!$A$2:$CT$251</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Daily Inbounds'!$A$2:$CT$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Daily Inbounds'!$A$2:$CS$251</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Daily Inventory Value'!$A$2:$CT$251</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracking!$A$3:$BD$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracking!$A$3:$BA$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -184,15 +184,9 @@
     <t>Average Daily Inventory (US$)</t>
   </si>
   <si>
-    <t>COGS (US$)</t>
-  </si>
-  <si>
     <t>Current 
 Payment 
 terms</t>
-  </si>
-  <si>
-    <t>Inbounds (US$)</t>
   </si>
   <si>
     <t>Total Purchases</t>
@@ -334,6 +328,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>L90D Average Monthly COGS (US$)</t>
+  </si>
+  <si>
+    <t>Monthly Inbounds (US$)</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1143,6 +1143,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1154,11 +1160,8 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1451,7 +1454,7 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:BG69"/>
+  <dimension ref="A1:BD69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1468,25 +1471,24 @@
     <col min="5" max="5" width="14.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="25" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13.1796875" style="126" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="13.1796875" style="128" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="31" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="13.1796875" style="18" customWidth="1" collapsed="1"/>
-    <col min="33" max="36" width="13.1796875" style="18" customWidth="1"/>
-    <col min="37" max="37" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
-    <col min="39" max="42" width="13.1796875" style="18" customWidth="1"/>
-    <col min="43" max="47" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
-    <col min="49" max="50" width="13.1796875" style="18" customWidth="1"/>
-    <col min="51" max="51" width="13.1796875" style="57" customWidth="1"/>
-    <col min="52" max="52" width="13.1796875" style="18" customWidth="1"/>
-    <col min="53" max="57" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="8.81640625" collapsed="1"/>
+    <col min="10" max="22" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="13.1796875" style="126" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="13.1796875" style="128" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="28" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="33" width="13.1796875" style="18" customWidth="1"/>
+    <col min="34" max="34" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
+    <col min="36" max="39" width="13.1796875" style="18" customWidth="1"/>
+    <col min="40" max="44" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="13.1796875" style="18" customWidth="1"/>
+    <col min="48" max="48" width="13.1796875" style="57" customWidth="1"/>
+    <col min="49" max="49" width="13.1796875" style="18" customWidth="1"/>
+    <col min="50" max="54" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="8.81640625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
@@ -1515,45 +1517,42 @@
       <c r="T1" s="75"/>
       <c r="U1" s="75"/>
       <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
+      <c r="W1" s="113"/>
       <c r="X1" s="75"/>
       <c r="Y1" s="75"/>
-      <c r="Z1" s="113"/>
+      <c r="Z1" s="75"/>
       <c r="AA1" s="75"/>
       <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="68" t="s">
+      <c r="AC1" s="68" t="s">
         <v>35</v>
       </c>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
       <c r="AG1" s="58"/>
       <c r="AH1" s="58"/>
       <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
       <c r="AM1" s="69"/>
       <c r="AN1" s="69"/>
       <c r="AO1" s="69"/>
       <c r="AP1" s="69"/>
       <c r="AQ1" s="69"/>
       <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
+      <c r="AS1" s="58"/>
       <c r="AT1" s="69"/>
       <c r="AU1" s="69"/>
-      <c r="AV1" s="58"/>
+      <c r="AV1" s="69"/>
       <c r="AW1" s="69"/>
       <c r="AX1" s="69"/>
       <c r="AY1" s="69"/>
       <c r="AZ1" s="69"/>
       <c r="BA1" s="69"/>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="69"/>
-      <c r="BD1" s="69"/>
-      <c r="BE1" s="143"/>
-    </row>
-    <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BB1" s="143"/>
+    </row>
+    <row r="2" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="23" t="str">
@@ -1571,77 +1570,74 @@
         <v>32</v>
       </c>
       <c r="J2" s="77" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
       <c r="N2" s="77" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="78" t="s">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="77" t="s">
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="63" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="63" t="s">
         <v>34</v>
       </c>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
       <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="63" t="s">
+        <v>11</v>
+      </c>
       <c r="AJ2" s="59"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="63" t="s">
-        <v>11</v>
-      </c>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
       <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="59" t="s">
+        <v>45</v>
+      </c>
       <c r="AP2" s="59"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="63" t="s">
+        <v>10</v>
+      </c>
       <c r="AT2" s="59"/>
       <c r="AU2" s="59"/>
-      <c r="AV2" s="63" t="s">
-        <v>10</v>
-      </c>
+      <c r="AV2" s="59"/>
       <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="59" t="s">
+        <v>44</v>
+      </c>
       <c r="AZ2" s="59"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="64"/>
-    </row>
-    <row r="3" spans="1:59" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="64"/>
+    </row>
+    <row r="3" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="80" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="76">
         <v>43709</v>
@@ -1679,7 +1675,7 @@
         <v>43770</v>
       </c>
       <c r="M3" s="76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N3" s="76">
         <v>43709</v>
@@ -1687,35 +1683,35 @@
       <c r="O3" s="76">
         <v>43739</v>
       </c>
-      <c r="P3" s="76">
+      <c r="P3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="76">
+        <v>43709</v>
+      </c>
+      <c r="R3" s="76">
+        <v>43739</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="76">
+        <v>43709</v>
+      </c>
+      <c r="U3" s="76">
+        <v>43739</v>
+      </c>
+      <c r="V3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="76">
+        <v>43709</v>
+      </c>
+      <c r="X3" s="76">
+        <v>43739</v>
+      </c>
+      <c r="Y3" s="76">
         <v>43770</v>
-      </c>
-      <c r="Q3" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="76">
-        <v>43709</v>
-      </c>
-      <c r="S3" s="76">
-        <v>43739</v>
-      </c>
-      <c r="T3" s="76">
-        <v>43770</v>
-      </c>
-      <c r="U3" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="76">
-        <v>43709</v>
-      </c>
-      <c r="W3" s="76">
-        <v>43739</v>
-      </c>
-      <c r="X3" s="76">
-        <v>43770</v>
-      </c>
-      <c r="Y3" s="76" t="s">
-        <v>58</v>
       </c>
       <c r="Z3" s="76">
         <v>43709</v>
@@ -1726,97 +1722,88 @@
       <c r="AB3" s="76">
         <v>43770</v>
       </c>
-      <c r="AC3" s="76">
+      <c r="AC3" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="73">
         <v>43709</v>
       </c>
-      <c r="AD3" s="76">
+      <c r="AE3" s="73">
         <v>43739</v>
       </c>
-      <c r="AE3" s="76">
+      <c r="AF3" s="73">
         <v>43770</v>
       </c>
-      <c r="AF3" s="67" t="s">
+      <c r="AG3" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="73">
+      <c r="AJ3" s="73">
         <v>43709</v>
       </c>
-      <c r="AH3" s="73">
+      <c r="AK3" s="73">
         <v>43739</v>
       </c>
-      <c r="AI3" s="73">
+      <c r="AL3" s="73">
         <v>43770</v>
       </c>
-      <c r="AJ3" s="67" t="s">
+      <c r="AM3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AN3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="73">
+        <v>43709</v>
+      </c>
+      <c r="AP3" s="73">
+        <v>43739</v>
+      </c>
+      <c r="AQ3" s="109">
+        <v>43770</v>
+      </c>
+      <c r="AR3" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AM3" s="73">
+      <c r="AT3" s="73">
         <v>43709</v>
       </c>
-      <c r="AN3" s="73">
+      <c r="AU3" s="73">
         <v>43739</v>
       </c>
-      <c r="AO3" s="73">
+      <c r="AV3" s="109">
         <v>43770</v>
       </c>
-      <c r="AP3" s="67" t="s">
+      <c r="AW3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AQ3" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR3" s="73">
+      <c r="AX3" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" s="73">
         <v>43709</v>
       </c>
-      <c r="AS3" s="73">
+      <c r="AZ3" s="73">
         <v>43739</v>
       </c>
-      <c r="AT3" s="109">
+      <c r="BA3" s="142">
         <v>43770</v>
       </c>
-      <c r="AU3" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV3" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW3" s="73">
-        <v>43709</v>
-      </c>
-      <c r="AX3" s="73">
-        <v>43739</v>
-      </c>
-      <c r="AY3" s="109">
-        <v>43770</v>
-      </c>
-      <c r="AZ3" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA3" s="141" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB3" s="73">
-        <v>43709</v>
-      </c>
-      <c r="BC3" s="73">
-        <v>43739</v>
-      </c>
-      <c r="BD3" s="142">
-        <v>43770</v>
-      </c>
-      <c r="BE3" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-    </row>
-    <row r="4" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BB3" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+    </row>
+    <row r="4" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91"/>
       <c r="B4" s="107"/>
       <c r="C4" s="110"/>
@@ -1843,141 +1830,135 @@
         <v>#N/A</v>
       </c>
       <c r="N4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q4" s="115"/>
       <c r="R4" s="115"/>
       <c r="S4" s="115"/>
       <c r="T4" s="115"/>
       <c r="U4" s="115"/>
       <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B4,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="93" t="str">
+        <f>IFERROR(AI4-AS4, "")</f>
         <v/>
       </c>
-      <c r="AG4" s="94" t="str">
-        <f t="shared" ref="AG4:AG16" si="0">IFERROR(IF(AM4="n.a.", -AW4, IF(AW4="n.a.", AM4, AM4-AW4)),"n.a.")</f>
+      <c r="AD4" s="94" t="str">
+        <f t="shared" ref="AD4:AD16" si="0">IFERROR(IF(AJ4="n.a.", -AT4, IF(AT4="n.a.", AJ4, AJ4-AT4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AH4" s="94" t="str">
-        <f t="shared" ref="AH4:AH16" si="1">IFERROR(IF(AN4="n.a.", -AX4, IF(AX4="n.a.", AN4, AN4-AX4)),"n.a.")</f>
+      <c r="AE4" s="94" t="str">
+        <f t="shared" ref="AE4:AE16" si="1">IFERROR(IF(AK4="n.a.", -AU4, IF(AU4="n.a.", AK4, AK4-AU4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AI4" s="116" t="str">
-        <f t="shared" ref="AI4:AI15" si="2">IFERROR(IF(AO4="n.a.", -AY4, IF(AY4="n.a.", AO4, AO4-AY4)),"n.a.")</f>
+      <c r="AF4" s="116" t="str">
+        <f t="shared" ref="AF4:AF15" si="2">IFERROR(IF(AL4="n.a.", -AV4, IF(AV4="n.a.", AL4, AL4-AV4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AJ4" s="96" t="str">
-        <f t="shared" ref="AJ4:AJ15" si="3">IFERROR(AF4-AI4, "n.a.")</f>
+      <c r="AG4" s="96" t="str">
+        <f t="shared" ref="AG4:AG15" si="3">IFERROR(AC4-AF4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AK4" s="145" t="str">
-        <f>IFERROR(IF(AQ4="n.a.", -BA4, IF(BA4="n.a.", AQ4, AQ4-BA4)),"n.a.")</f>
+      <c r="AH4" s="145" t="str">
+        <f>IFERROR(IF(AN4="n.a.", -AX4, IF(AX4="n.a.", AN4, AN4-AX4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL4" s="162" t="str">
+      <c r="AI4" s="162" t="str">
         <f>IFERROR(VLOOKUP($B4,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM4" s="94" t="str">
-        <f>IFERROR(AR4/J4*90,"n.a.")</f>
+      <c r="AJ4" s="94" t="str">
+        <f>IFERROR(AO4/J4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AN4" s="97" t="str">
-        <f>IFERROR(AS4/K4*90,"n.a.")</f>
+      <c r="AK4" s="97" t="str">
+        <f>IFERROR(AP4/K4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AO4" s="94" t="str">
-        <f>IFERROR(AT4/L4*90,"n.a.")</f>
+      <c r="AL4" s="94" t="str">
+        <f>IFERROR(AQ4/L4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AP4" s="95" t="str">
-        <f t="shared" ref="AP4:AP15" si="4">IFERROR(-AO4+AL4,"n.a.")</f>
+      <c r="AM4" s="95" t="str">
+        <f t="shared" ref="AM4:AM15" si="4">IFERROR(-AL4+AI4,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AQ4" s="116" t="str">
-        <f>IFERROR(AU4/M4*30,"n.a.")</f>
+      <c r="AN4" s="116" t="str">
+        <f>IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR4" s="92" t="e">
+      <c r="AO4" s="92" t="e">
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS4" s="92" t="e">
+      <c r="AP4" s="92" t="e">
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT4" s="92" t="e">
+      <c r="AQ4" s="92" t="e">
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU4" s="92" t="e">
+      <c r="AR4" s="92" t="e">
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV4" s="99" t="str">
+      <c r="AS4" s="99" t="str">
         <f>IFERROR(VLOOKUP($B4,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW4" s="94" t="str">
-        <f>IFERROR(BB4/J4*90,"n.a.")</f>
+      <c r="AT4" s="94" t="str">
+        <f>IFERROR(AY4/J4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX4" s="94" t="str">
-        <f>IFERROR(BC4/K4*90,"n.a.")</f>
+      <c r="AU4" s="94" t="str">
+        <f>IFERROR(AZ4/K4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AY4" s="90" t="str">
-        <f>IFERROR(BD4/L4*90,"n.a.")</f>
+      <c r="AV4" s="90" t="str">
+        <f>IFERROR(BA4/L4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AZ4" s="95" t="str">
-        <f t="shared" ref="AZ4:AZ15" si="5">IFERROR(-AV4+AY4, "n.a.")</f>
+      <c r="AW4" s="95" t="str">
+        <f t="shared" ref="AW4:AW15" si="5">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA4" s="116" t="str">
-        <f>IFERROR(BE4/M4*30,"n.a.")</f>
+      <c r="AX4" s="116" t="str">
+        <f>IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB4" s="92" t="e">
+      <c r="AY4" s="92" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC4" s="92" t="e">
+      <c r="AZ4" s="92" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD4" s="92" t="e">
+      <c r="BA4" s="92" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE4" s="104" t="e">
+      <c r="BB4" s="104" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="98"/>
       <c r="B5" s="107"/>
       <c r="C5" s="110"/>
@@ -2004,141 +1985,135 @@
         <v>#N/A</v>
       </c>
       <c r="N5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q5" s="115"/>
       <c r="R5" s="115"/>
       <c r="S5" s="115"/>
       <c r="T5" s="115"/>
       <c r="U5" s="115"/>
       <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B5,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="93" t="str">
+        <f t="shared" ref="AC5:AC16" si="6">IFERROR(AI5-AS5, "")</f>
         <v/>
       </c>
-      <c r="AG5" s="100" t="str">
+      <c r="AD5" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH5" s="100" t="str">
+      <c r="AE5" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI5" s="117" t="str">
+      <c r="AF5" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ5" s="102" t="str">
+      <c r="AG5" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK5" s="145" t="str">
-        <f t="shared" ref="AK5:AK16" si="6">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
+      <c r="AH5" s="145" t="str">
+        <f t="shared" ref="AH5:AH16" si="7">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL5" s="162" t="str">
+      <c r="AI5" s="162" t="str">
         <f>IFERROR(VLOOKUP($B5,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM5" s="94" t="str">
-        <f t="shared" ref="AM5:AM15" si="7">IFERROR(AR5/J5*90,"n.a.")</f>
+      <c r="AJ5" s="94" t="str">
+        <f t="shared" ref="AJ5:AJ15" si="8">IFERROR(AO5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AN5" s="97" t="str">
-        <f t="shared" ref="AN5:AN15" si="8">IFERROR(AS5/K5*90,"n.a.")</f>
+      <c r="AK5" s="97" t="str">
+        <f t="shared" ref="AK5:AK15" si="9">IFERROR(AP5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AO5" s="94" t="str">
-        <f t="shared" ref="AO5:AO15" si="9">IFERROR(AT5/L5*90,"n.a.")</f>
+      <c r="AL5" s="94" t="str">
+        <f t="shared" ref="AL5:AL15" si="10">IFERROR(AQ5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AP5" s="101" t="str">
+      <c r="AM5" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ5" s="116" t="str">
-        <f t="shared" ref="AQ5:AQ16" si="10">IFERROR(AU5/M5*30,"n.a.")</f>
+      <c r="AN5" s="116" t="str">
+        <f>IFERROR(AR5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR5" s="104" t="e">
+      <c r="AO5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS5" s="104" t="e">
+      <c r="AP5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT5" s="104" t="e">
+      <c r="AQ5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU5" s="92" t="e">
+      <c r="AR5" s="92" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV5" s="99" t="str">
+      <c r="AS5" s="99" t="str">
         <f>IFERROR(VLOOKUP($B5,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW5" s="94" t="str">
-        <f t="shared" ref="AW5:AW15" si="11">IFERROR(BB5/J5*90,"n.a.")</f>
+      <c r="AT5" s="94" t="str">
+        <f t="shared" ref="AT5:AT15" si="11">IFERROR(AY5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX5" s="94" t="str">
-        <f t="shared" ref="AX5:AX16" si="12">IFERROR(BC5/K5*90,"n.a.")</f>
+      <c r="AU5" s="94" t="str">
+        <f t="shared" ref="AU5:AU15" si="12">IFERROR(AZ5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AY5" s="90" t="str">
-        <f t="shared" ref="AY5:AY15" si="13">IFERROR(BD5/L5*90,"n.a.")</f>
+      <c r="AV5" s="90" t="str">
+        <f t="shared" ref="AV5:AV15" si="13">IFERROR(BA5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AZ5" s="101" t="str">
+      <c r="AW5" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA5" s="116" t="str">
-        <f t="shared" ref="BA5:BA15" si="14">IFERROR(BE5/M5*30,"n.a.")</f>
+      <c r="AX5" s="116" t="str">
+        <f>IFERROR(BB5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB5" s="104" t="e">
+      <c r="AY5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC5" s="104" t="e">
+      <c r="AZ5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD5" s="104" t="e">
+      <c r="BA5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE5" s="104" t="e">
+      <c r="BB5" s="104" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="98"/>
       <c r="B6" s="107"/>
       <c r="C6" s="110"/>
@@ -2165,141 +2140,135 @@
         <v>#N/A</v>
       </c>
       <c r="N6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q6" s="115"/>
       <c r="R6" s="115"/>
       <c r="S6" s="115"/>
       <c r="T6" s="115"/>
       <c r="U6" s="115"/>
       <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="115"/>
-      <c r="AD6" s="115"/>
-      <c r="AE6" s="115"/>
-      <c r="AF6" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B6,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG6" s="100" t="str">
+      <c r="AD6" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH6" s="100" t="str">
+      <c r="AE6" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI6" s="117" t="str">
+      <c r="AF6" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ6" s="102" t="str">
+      <c r="AG6" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK6" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH6" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL6" s="162" t="str">
+      <c r="AI6" s="162" t="str">
         <f>IFERROR(VLOOKUP($B6,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM6" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN6" s="97" t="str">
+      <c r="AJ6" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO6" s="94" t="str">
+      <c r="AK6" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP6" s="101" t="str">
+      <c r="AL6" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM6" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ6" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN6" s="116" t="str">
+        <f>IFERROR(AR6/M6*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR6" s="104" t="e">
+      <c r="AO6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS6" s="104" t="e">
+      <c r="AP6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT6" s="104" t="e">
+      <c r="AQ6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU6" s="92" t="e">
+      <c r="AR6" s="92" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV6" s="99" t="str">
+      <c r="AS6" s="99" t="str">
         <f>IFERROR(VLOOKUP($B6,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW6" s="94" t="str">
+      <c r="AT6" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX6" s="94" t="str">
+      <c r="AU6" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY6" s="90" t="str">
+      <c r="AV6" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ6" s="101" t="str">
+      <c r="AW6" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA6" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX6" s="116" t="str">
+        <f>IFERROR(BB6/M6*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB6" s="104" t="e">
+      <c r="AY6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC6" s="104" t="e">
+      <c r="AZ6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD6" s="104" t="e">
+      <c r="BA6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE6" s="104" t="e">
+      <c r="BB6" s="104" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="98"/>
       <c r="B7" s="107"/>
       <c r="C7" s="110"/>
@@ -2326,141 +2295,135 @@
         <v>#N/A</v>
       </c>
       <c r="N7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q7" s="115"/>
       <c r="R7" s="115"/>
       <c r="S7" s="115"/>
       <c r="T7" s="115"/>
       <c r="U7" s="115"/>
       <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="115"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B7,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG7" s="100" t="str">
+      <c r="AD7" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH7" s="100" t="str">
+      <c r="AE7" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI7" s="117" t="str">
+      <c r="AF7" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ7" s="102" t="str">
+      <c r="AG7" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK7" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH7" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL7" s="162" t="str">
+      <c r="AI7" s="162" t="str">
         <f>IFERROR(VLOOKUP($B7,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM7" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN7" s="97" t="str">
+      <c r="AJ7" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO7" s="94" t="str">
+      <c r="AK7" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP7" s="101" t="str">
+      <c r="AL7" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM7" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ7" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN7" s="116" t="str">
+        <f>IFERROR(AR7/M7*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR7" s="104" t="e">
+      <c r="AO7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS7" s="104" t="e">
+      <c r="AP7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT7" s="104" t="e">
+      <c r="AQ7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU7" s="92" t="e">
+      <c r="AR7" s="92" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV7" s="99" t="str">
+      <c r="AS7" s="99" t="str">
         <f>IFERROR(VLOOKUP($B7,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW7" s="94" t="str">
+      <c r="AT7" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX7" s="94" t="str">
+      <c r="AU7" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY7" s="90" t="str">
+      <c r="AV7" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ7" s="101" t="str">
+      <c r="AW7" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA7" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX7" s="116" t="str">
+        <f>IFERROR(BB7/M7*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB7" s="104" t="e">
+      <c r="AY7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC7" s="104" t="e">
+      <c r="AZ7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD7" s="104" t="e">
+      <c r="BA7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE7" s="104" t="e">
+      <c r="BB7" s="104" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="98"/>
       <c r="B8" s="107"/>
       <c r="C8" s="110"/>
@@ -2487,141 +2450,135 @@
         <v>#N/A</v>
       </c>
       <c r="N8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q8" s="115"/>
       <c r="R8" s="115"/>
       <c r="S8" s="115"/>
       <c r="T8" s="115"/>
       <c r="U8" s="115"/>
       <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B8,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG8" s="100" t="str">
+      <c r="AD8" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH8" s="100" t="str">
+      <c r="AE8" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI8" s="117" t="str">
+      <c r="AF8" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ8" s="102" t="str">
+      <c r="AG8" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK8" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH8" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL8" s="162" t="str">
+      <c r="AI8" s="162" t="str">
         <f>IFERROR(VLOOKUP($B8,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM8" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN8" s="97" t="str">
+      <c r="AJ8" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO8" s="94" t="str">
+      <c r="AK8" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP8" s="101" t="str">
+      <c r="AL8" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM8" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ8" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN8" s="116" t="str">
+        <f>IFERROR(AR8/M8*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR8" s="104" t="e">
+      <c r="AO8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS8" s="104" t="e">
+      <c r="AP8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT8" s="104" t="e">
+      <c r="AQ8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU8" s="92" t="e">
+      <c r="AR8" s="92" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV8" s="99" t="str">
+      <c r="AS8" s="99" t="str">
         <f>IFERROR(VLOOKUP($B8,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW8" s="94" t="str">
+      <c r="AT8" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX8" s="94" t="str">
+      <c r="AU8" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY8" s="90" t="str">
+      <c r="AV8" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ8" s="101" t="str">
+      <c r="AW8" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA8" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX8" s="116" t="str">
+        <f>IFERROR(BB8/M8*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB8" s="104" t="e">
+      <c r="AY8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC8" s="104" t="e">
+      <c r="AZ8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD8" s="104" t="e">
+      <c r="BA8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE8" s="104" t="e">
+      <c r="BB8" s="104" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="98"/>
       <c r="B9" s="107"/>
       <c r="C9" s="110"/>
@@ -2648,141 +2605,135 @@
         <v>#N/A</v>
       </c>
       <c r="N9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q9" s="115"/>
       <c r="R9" s="115"/>
       <c r="S9" s="115"/>
       <c r="T9" s="115"/>
       <c r="U9" s="115"/>
       <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="115"/>
-      <c r="Y9" s="115"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="115"/>
-      <c r="AD9" s="115"/>
-      <c r="AE9" s="115"/>
-      <c r="AF9" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B9,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG9" s="100" t="str">
+      <c r="AD9" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH9" s="100" t="str">
+      <c r="AE9" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI9" s="117" t="str">
+      <c r="AF9" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ9" s="102" t="str">
+      <c r="AG9" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK9" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH9" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL9" s="162" t="str">
+      <c r="AI9" s="162" t="str">
         <f>IFERROR(VLOOKUP($B9,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM9" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN9" s="97" t="str">
+      <c r="AJ9" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO9" s="94" t="str">
+      <c r="AK9" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP9" s="101" t="str">
+      <c r="AL9" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM9" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ9" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN9" s="116" t="str">
+        <f>IFERROR(AR9/M9*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR9" s="104" t="e">
+      <c r="AO9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS9" s="104" t="e">
+      <c r="AP9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT9" s="104" t="e">
+      <c r="AQ9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU9" s="92" t="e">
+      <c r="AR9" s="92" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV9" s="99" t="str">
+      <c r="AS9" s="99" t="str">
         <f>IFERROR(VLOOKUP($B9,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW9" s="94" t="str">
+      <c r="AT9" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX9" s="94" t="str">
+      <c r="AU9" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY9" s="90" t="str">
+      <c r="AV9" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ9" s="101" t="str">
+      <c r="AW9" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA9" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX9" s="116" t="str">
+        <f>IFERROR(BB9/M9*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB9" s="104" t="e">
+      <c r="AY9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC9" s="104" t="e">
+      <c r="AZ9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD9" s="104" t="e">
+      <c r="BA9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE9" s="104" t="e">
+      <c r="BB9" s="104" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="98"/>
       <c r="B10" s="107"/>
       <c r="C10" s="110"/>
@@ -2809,141 +2760,135 @@
         <v>#N/A</v>
       </c>
       <c r="N10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q10" s="115"/>
       <c r="R10" s="115"/>
       <c r="S10" s="115"/>
       <c r="T10" s="115"/>
       <c r="U10" s="115"/>
       <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B10,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG10" s="100" t="str">
+      <c r="AD10" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH10" s="100" t="str">
+      <c r="AE10" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI10" s="117" t="str">
+      <c r="AF10" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ10" s="102" t="str">
+      <c r="AG10" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK10" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH10" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL10" s="162" t="str">
+      <c r="AI10" s="162" t="str">
         <f>IFERROR(VLOOKUP($B10,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM10" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN10" s="97" t="str">
+      <c r="AJ10" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO10" s="94" t="str">
+      <c r="AK10" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP10" s="101" t="str">
+      <c r="AL10" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM10" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ10" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN10" s="116" t="str">
+        <f>IFERROR(AR10/M10*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR10" s="104" t="e">
+      <c r="AO10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS10" s="104" t="e">
+      <c r="AP10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT10" s="104" t="e">
+      <c r="AQ10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU10" s="92" t="e">
+      <c r="AR10" s="92" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV10" s="99" t="str">
+      <c r="AS10" s="99" t="str">
         <f>IFERROR(VLOOKUP($B10,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW10" s="94" t="str">
+      <c r="AT10" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX10" s="94" t="str">
+      <c r="AU10" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY10" s="90" t="str">
+      <c r="AV10" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ10" s="101" t="str">
+      <c r="AW10" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA10" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX10" s="116" t="str">
+        <f>IFERROR(BB10/M10*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB10" s="104" t="e">
+      <c r="AY10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC10" s="104" t="e">
+      <c r="AZ10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD10" s="104" t="e">
+      <c r="BA10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE10" s="104" t="e">
+      <c r="BB10" s="104" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="98"/>
       <c r="B11" s="107"/>
       <c r="C11" s="110"/>
@@ -2970,141 +2915,135 @@
         <v>#N/A</v>
       </c>
       <c r="N11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q11" s="115"/>
       <c r="R11" s="115"/>
       <c r="S11" s="115"/>
       <c r="T11" s="115"/>
       <c r="U11" s="115"/>
       <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="115"/>
-      <c r="AD11" s="115"/>
-      <c r="AE11" s="115"/>
-      <c r="AF11" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B11,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG11" s="100" t="str">
+      <c r="AD11" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH11" s="100" t="str">
+      <c r="AE11" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI11" s="117" t="str">
+      <c r="AF11" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ11" s="102" t="str">
+      <c r="AG11" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK11" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH11" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL11" s="162" t="str">
+      <c r="AI11" s="162" t="str">
         <f>IFERROR(VLOOKUP($B11,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM11" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN11" s="97" t="str">
+      <c r="AJ11" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO11" s="94" t="str">
+      <c r="AK11" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP11" s="101" t="str">
+      <c r="AL11" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM11" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ11" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN11" s="116" t="str">
+        <f>IFERROR(AR11/M11*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR11" s="104" t="e">
+      <c r="AO11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS11" s="104" t="e">
+      <c r="AP11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT11" s="104" t="e">
+      <c r="AQ11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU11" s="92" t="e">
+      <c r="AR11" s="92" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV11" s="99" t="str">
+      <c r="AS11" s="99" t="str">
         <f>IFERROR(VLOOKUP($B11,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW11" s="94" t="str">
+      <c r="AT11" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX11" s="94" t="str">
+      <c r="AU11" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY11" s="90" t="str">
+      <c r="AV11" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ11" s="101" t="str">
+      <c r="AW11" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA11" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX11" s="116" t="str">
+        <f>IFERROR(BB11/M11*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB11" s="104" t="e">
+      <c r="AY11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC11" s="104" t="e">
+      <c r="AZ11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="104" t="e">
+      <c r="BA11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE11" s="104" t="e">
+      <c r="BB11" s="104" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="98"/>
       <c r="B12" s="107"/>
       <c r="C12" s="110"/>
@@ -3131,141 +3070,135 @@
         <v>#N/A</v>
       </c>
       <c r="N12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q12" s="115"/>
       <c r="R12" s="115"/>
       <c r="S12" s="115"/>
       <c r="T12" s="115"/>
       <c r="U12" s="115"/>
       <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="115"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="115"/>
-      <c r="AD12" s="115"/>
-      <c r="AE12" s="115"/>
-      <c r="AF12" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B12,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W12" s="123"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG12" s="100" t="str">
+      <c r="AD12" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH12" s="100" t="str">
+      <c r="AE12" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI12" s="117" t="str">
+      <c r="AF12" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ12" s="102" t="str">
+      <c r="AG12" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK12" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH12" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL12" s="162" t="str">
+      <c r="AI12" s="162" t="str">
         <f>IFERROR(VLOOKUP($B12,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM12" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN12" s="97" t="str">
+      <c r="AJ12" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO12" s="94" t="str">
+      <c r="AK12" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP12" s="101" t="str">
+      <c r="AL12" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM12" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ12" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN12" s="116" t="str">
+        <f>IFERROR(AR12/M12*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR12" s="104" t="e">
+      <c r="AO12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS12" s="104" t="e">
+      <c r="AP12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT12" s="104" t="e">
+      <c r="AQ12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU12" s="92" t="e">
+      <c r="AR12" s="92" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV12" s="99" t="str">
+      <c r="AS12" s="99" t="str">
         <f>IFERROR(VLOOKUP($B12,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW12" s="94" t="str">
+      <c r="AT12" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX12" s="94" t="str">
+      <c r="AU12" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY12" s="90" t="str">
+      <c r="AV12" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ12" s="101" t="str">
+      <c r="AW12" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA12" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX12" s="116" t="str">
+        <f>IFERROR(BB12/M12*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB12" s="104" t="e">
+      <c r="AY12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC12" s="104" t="e">
+      <c r="AZ12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD12" s="104" t="e">
+      <c r="BA12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE12" s="104" t="e">
+      <c r="BB12" s="104" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="98"/>
       <c r="B13" s="107"/>
       <c r="C13" s="110"/>
@@ -3292,141 +3225,135 @@
         <v>#N/A</v>
       </c>
       <c r="N13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q13" s="115"/>
       <c r="R13" s="115"/>
       <c r="S13" s="115"/>
       <c r="T13" s="115"/>
       <c r="U13" s="115"/>
       <c r="V13" s="115"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="123"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="115"/>
-      <c r="AD13" s="115"/>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B13,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG13" s="100" t="str">
+      <c r="AD13" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH13" s="100" t="str">
+      <c r="AE13" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI13" s="117" t="str">
+      <c r="AF13" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ13" s="102" t="str">
+      <c r="AG13" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK13" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH13" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL13" s="162" t="str">
+      <c r="AI13" s="162" t="str">
         <f>IFERROR(VLOOKUP($B13,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM13" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN13" s="97" t="str">
+      <c r="AJ13" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO13" s="94" t="str">
+      <c r="AK13" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP13" s="101" t="str">
+      <c r="AL13" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM13" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ13" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN13" s="116" t="str">
+        <f>IFERROR(AR13/M13*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR13" s="104" t="e">
+      <c r="AO13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS13" s="104" t="e">
+      <c r="AP13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT13" s="104" t="e">
+      <c r="AQ13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU13" s="92" t="e">
+      <c r="AR13" s="92" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV13" s="99" t="str">
+      <c r="AS13" s="99" t="str">
         <f>IFERROR(VLOOKUP($B13,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW13" s="94" t="str">
+      <c r="AT13" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX13" s="94" t="str">
+      <c r="AU13" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY13" s="90" t="str">
+      <c r="AV13" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ13" s="101" t="str">
+      <c r="AW13" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA13" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX13" s="116" t="str">
+        <f>IFERROR(BB13/M13*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB13" s="104" t="e">
+      <c r="AY13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC13" s="104" t="e">
+      <c r="AZ13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD13" s="104" t="e">
+      <c r="BA13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE13" s="104" t="e">
+      <c r="BB13" s="104" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="98"/>
       <c r="B14" s="107"/>
       <c r="C14" s="110"/>
@@ -3453,141 +3380,135 @@
         <v>#N/A</v>
       </c>
       <c r="N14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q14" s="115"/>
       <c r="R14" s="115"/>
       <c r="S14" s="115"/>
       <c r="T14" s="115"/>
       <c r="U14" s="115"/>
       <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="115"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="115"/>
-      <c r="AF14" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B14,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="93" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG14" s="100" t="str">
+      <c r="AD14" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH14" s="100" t="str">
+      <c r="AE14" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI14" s="117" t="str">
+      <c r="AF14" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ14" s="102" t="str">
+      <c r="AG14" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK14" s="145" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH14" s="145" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL14" s="162" t="str">
+      <c r="AI14" s="162" t="str">
         <f>IFERROR(VLOOKUP($B14,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM14" s="94" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN14" s="97" t="str">
+      <c r="AJ14" s="94" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO14" s="94" t="str">
+      <c r="AK14" s="97" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP14" s="101" t="str">
+      <c r="AL14" s="94" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM14" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ14" s="116" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN14" s="116" t="str">
+        <f>IFERROR(AR14/M14*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR14" s="104" t="e">
+      <c r="AO14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS14" s="104" t="e">
+      <c r="AP14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT14" s="104" t="e">
+      <c r="AQ14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU14" s="92" t="e">
+      <c r="AR14" s="92" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV14" s="99" t="str">
+      <c r="AS14" s="99" t="str">
         <f>IFERROR(VLOOKUP($B14,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW14" s="94" t="str">
+      <c r="AT14" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX14" s="94" t="str">
+      <c r="AU14" s="94" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY14" s="90" t="str">
+      <c r="AV14" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ14" s="101" t="str">
+      <c r="AW14" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA14" s="116" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX14" s="116" t="str">
+        <f>IFERROR(BB14/M14*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB14" s="104" t="e">
+      <c r="AY14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC14" s="104" t="e">
+      <c r="AZ14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD14" s="104" t="e">
+      <c r="BA14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE14" s="104" t="e">
+      <c r="BB14" s="104" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="139" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" s="139" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="98"/>
       <c r="B15" s="107"/>
       <c r="C15" s="110"/>
@@ -3614,141 +3535,135 @@
         <v>#N/A</v>
       </c>
       <c r="N15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="Q15" s="137"/>
       <c r="R15" s="137"/>
       <c r="S15" s="137"/>
       <c r="T15" s="137"/>
       <c r="U15" s="137"/>
       <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="137"/>
-      <c r="AF15" s="99" t="str">
-        <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 23,FALSE), "")</f>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="99" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AG15" s="100" t="str">
+      <c r="AD15" s="100" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH15" s="100" t="str">
+      <c r="AE15" s="100" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI15" s="117" t="str">
+      <c r="AF15" s="117" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AJ15" s="102" t="str">
+      <c r="AG15" s="102" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AK15" s="146" t="str">
-        <f t="shared" si="6"/>
+      <c r="AH15" s="146" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL15" s="162" t="str">
+      <c r="AI15" s="162" t="str">
         <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM15" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN15" s="103" t="str">
+      <c r="AJ15" s="100" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO15" s="100" t="str">
+      <c r="AK15" s="103" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AP15" s="101" t="str">
+      <c r="AL15" s="100" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM15" s="101" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AQ15" s="117" t="str">
-        <f t="shared" si="10"/>
+      <c r="AN15" s="117" t="str">
+        <f>IFERROR(AR15/M15*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR15" s="104" t="e">
+      <c r="AO15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS15" s="104" t="e">
+      <c r="AP15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT15" s="104" t="e">
+      <c r="AQ15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU15" s="104" t="e">
+      <c r="AR15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV15" s="99" t="str">
+      <c r="AS15" s="99" t="str">
         <f>IFERROR(VLOOKUP($B15,MY!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW15" s="100" t="str">
+      <c r="AT15" s="100" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AX15" s="100" t="str">
+      <c r="AU15" s="100" t="str">
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AY15" s="87" t="str">
+      <c r="AV15" s="87" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ15" s="101" t="str">
+      <c r="AW15" s="101" t="str">
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="BA15" s="117" t="str">
-        <f t="shared" si="14"/>
+      <c r="AX15" s="117" t="str">
+        <f>IFERROR(BB15/M15*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB15" s="104" t="e">
+      <c r="AY15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC15" s="104" t="e">
+      <c r="AZ15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD15" s="104" t="e">
+      <c r="BA15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE15" s="104" t="e">
+      <c r="BB15" s="104" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="4" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:56" s="4" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="129" t="s">
         <v>13</v>
       </c>
@@ -3770,139 +3685,136 @@
       <c r="H16" s="130"/>
       <c r="I16" s="129"/>
       <c r="J16" s="131" t="e">
-        <f t="shared" ref="J16:Q16" si="15">SUM(J4:J15)</f>
+        <f t="shared" ref="J16:P16" si="14">SUM(J4:J15)</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="131" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="L16" s="131" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="M16" s="131" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="N16" s="131" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="O16" s="131" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="P16" s="131" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="131" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
+      <c r="Q16" s="131"/>
       <c r="R16" s="131"/>
       <c r="S16" s="131"/>
       <c r="T16" s="131"/>
       <c r="U16" s="131"/>
       <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="130" t="str">
+      <c r="W16" s="132"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="171">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="130" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH16" s="130" t="str">
+      <c r="AE16" s="130" t="str">
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AI16" s="130" t="str">
-        <f>IFERROR(IF(AO16="n.a.", -AY16, IF(AY16="n.a.", AO16, AO16-AY16)),"n.a.")</f>
+      <c r="AF16" s="130" t="str">
+        <f>IFERROR(IF(AL16="n.a.", -AV16, IF(AV16="n.a.", AL16, AL16-AV16)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AJ16" s="130"/>
-      <c r="AK16" s="161" t="str">
-        <f t="shared" si="6"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="161" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL16" s="134"/>
-      <c r="AM16" s="135" t="str">
-        <f t="shared" ref="AM4:AM16" si="16">IFERROR(AR16/J16*30,"n.a.")</f>
+      <c r="AI16" s="134"/>
+      <c r="AJ16" s="135" t="str">
+        <f>IFERROR(AO16/J16*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AN16" s="135" t="str">
-        <f t="shared" ref="AN4:AN16" si="17">IFERROR(AS16/K16*30,"n.a.")</f>
+      <c r="AK16" s="135" t="str">
+        <f>IFERROR(AP16/K16*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AO16" s="135" t="str">
-        <f t="shared" ref="AO5:AO16" si="18">IFERROR(AT16/L16*30,"n.a.")</f>
+      <c r="AL16" s="135" t="str">
+        <f>IFERROR(AQ16/L16*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AP16" s="130"/>
-      <c r="AQ16" s="151" t="str">
-        <f t="shared" si="10"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="151" t="str">
+        <f>IFERROR(AR16/M16*30,"n.a.")</f>
         <v>n.a.</v>
+      </c>
+      <c r="AO16" s="131" t="e">
+        <f>SUM(AO4:AO15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP16" s="131" t="e">
+        <f>SUM(AP4:AP15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ16" s="131" t="e">
+        <f>SUM(AQ4:AQ15)</f>
+        <v>#N/A</v>
       </c>
       <c r="AR16" s="131" t="e">
         <f>SUM(AR4:AR15)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS16" s="131" t="e">
-        <f>SUM(AS4:AS15)</f>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="136" t="str">
+        <f>IFERROR(AY16/J16*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AU16" s="164" t="str">
+        <f>IFERROR(AZ16/K16*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AV16" s="135" t="str">
+        <f>IFERROR(BA16/L16*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AW16" s="165"/>
+      <c r="AX16" s="130" t="str">
+        <f>IFERROR(BB16/M16*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AY16" s="131" t="e">
+        <f>SUM(AY4:AY15)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT16" s="131" t="e">
-        <f>SUM(AT4:AT15)</f>
+      <c r="AZ16" s="131" t="e">
+        <f>SUM(AZ4:AZ15)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU16" s="131" t="e">
-        <f>SUM(AU4:AU15)</f>
+      <c r="BA16" s="131" t="e">
+        <f>SUM(BA4:BA15)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV16" s="134"/>
-      <c r="AW16" s="136" t="str">
-        <f t="shared" ref="AW4:AW16" si="19">IFERROR(BB16/J16*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AX16" s="169" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AY16" s="135" t="str">
-        <f>IFERROR(BD16/L16*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AZ16" s="170"/>
-      <c r="BA16" s="130" t="str">
-        <f>IFERROR(BE16/M16*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="BB16" s="131" t="e">
+      <c r="BB16" s="152" t="e">
         <f>SUM(BB4:BB15)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC16" s="131" t="e">
-        <f>SUM(BC4:BC15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD16" s="131" t="e">
-        <f>SUM(BD4:BD15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE16" s="152" t="e">
-        <f>SUM(BE4:BE15)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57" collapsed="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:54" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="17"/>
@@ -3925,47 +3837,44 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
       <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
+      <c r="AI17" s="88"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
-      <c r="AL17" s="88"/>
+      <c r="AL17" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="AM17" s="17"/>
       <c r="AN17" s="17"/>
-      <c r="AO17" s="88" t="s">
-        <v>36</v>
-      </c>
+      <c r="AO17" s="17"/>
       <c r="AP17" s="17"/>
       <c r="AQ17" s="17"/>
       <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
+      <c r="AS17" s="88"/>
       <c r="AT17" s="17"/>
       <c r="AU17" s="17"/>
-      <c r="AV17" s="88"/>
+      <c r="AV17" s="89" t="s">
+        <v>37</v>
+      </c>
       <c r="AW17" s="17"/>
       <c r="AX17" s="17"/>
-      <c r="AY17" s="89" t="s">
-        <v>37</v>
-      </c>
+      <c r="AY17" s="17"/>
       <c r="AZ17" s="17"/>
       <c r="BA17" s="17"/>
       <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="17"/>
@@ -3988,43 +3897,40 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
+      <c r="AI18" s="88"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="88"/>
+      <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="17"/>
       <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
+      <c r="AS18" s="88"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
-      <c r="AV18" s="88"/>
+      <c r="AV18" s="56"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
-      <c r="AY18" s="56"/>
+      <c r="AY18" s="17"/>
       <c r="AZ18" s="17"/>
       <c r="BA18" s="17"/>
       <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="17"/>
@@ -4047,43 +3953,40 @@
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
       <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
+      <c r="AI19" s="88"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
-      <c r="AL19" s="88"/>
+      <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="17"/>
       <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
+      <c r="AS19" s="88"/>
       <c r="AT19" s="17"/>
       <c r="AU19" s="17"/>
-      <c r="AV19" s="88"/>
+      <c r="AV19" s="56"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
-      <c r="AY19" s="56"/>
+      <c r="AY19" s="17"/>
       <c r="AZ19" s="17"/>
       <c r="BA19" s="17"/>
       <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
@@ -4106,43 +4009,40 @@
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="125"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
+      <c r="AI20" s="88"/>
       <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
-      <c r="AL20" s="88"/>
+      <c r="AL20" s="17"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="17"/>
       <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
+      <c r="AS20" s="88"/>
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
-      <c r="AV20" s="88"/>
+      <c r="AV20" s="56"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
-      <c r="AY20" s="56"/>
+      <c r="AY20" s="17"/>
       <c r="AZ20" s="17"/>
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="17"/>
@@ -4165,43 +4065,40 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
       <c r="AF21" s="17"/>
       <c r="AG21" s="17"/>
       <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
+      <c r="AI21" s="88"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
-      <c r="AL21" s="88"/>
+      <c r="AL21" s="17"/>
       <c r="AM21" s="17"/>
       <c r="AN21" s="17"/>
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
+      <c r="AS21" s="88"/>
       <c r="AT21" s="17"/>
       <c r="AU21" s="17"/>
-      <c r="AV21" s="88"/>
+      <c r="AV21" s="56"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
-      <c r="AY21" s="56"/>
+      <c r="AY21" s="17"/>
       <c r="AZ21" s="17"/>
       <c r="BA21" s="17"/>
       <c r="BB21" s="17"/>
-      <c r="BC21" s="17"/>
-      <c r="BD21" s="17"/>
-      <c r="BE21" s="17"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="17"/>
@@ -4224,43 +4121,40 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
       <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
+      <c r="AI22" s="88"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
-      <c r="AL22" s="88"/>
+      <c r="AL22" s="17"/>
       <c r="AM22" s="17"/>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17"/>
       <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
+      <c r="AS22" s="88"/>
       <c r="AT22" s="17"/>
       <c r="AU22" s="17"/>
-      <c r="AV22" s="88"/>
+      <c r="AV22" s="56"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
-      <c r="AY22" s="56"/>
+      <c r="AY22" s="17"/>
       <c r="AZ22" s="17"/>
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
-      <c r="BC22" s="17"/>
-      <c r="BD22" s="17"/>
-      <c r="BE22" s="17"/>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="17"/>
@@ -4283,43 +4177,40 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
       <c r="AF23" s="17"/>
       <c r="AG23" s="17"/>
       <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
+      <c r="AI23" s="88"/>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
-      <c r="AL23" s="88"/>
+      <c r="AL23" s="17"/>
       <c r="AM23" s="17"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="17"/>
       <c r="AP23" s="17"/>
       <c r="AQ23" s="17"/>
       <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
+      <c r="AS23" s="88"/>
       <c r="AT23" s="17"/>
       <c r="AU23" s="17"/>
-      <c r="AV23" s="88"/>
+      <c r="AV23" s="56"/>
       <c r="AW23" s="17"/>
       <c r="AX23" s="17"/>
-      <c r="AY23" s="56"/>
+      <c r="AY23" s="17"/>
       <c r="AZ23" s="17"/>
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="17"/>
@@ -4342,43 +4233,40 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
       <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
+      <c r="AI24" s="88"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
-      <c r="AL24" s="88"/>
+      <c r="AL24" s="17"/>
       <c r="AM24" s="17"/>
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
       <c r="AP24" s="17"/>
       <c r="AQ24" s="17"/>
       <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
+      <c r="AS24" s="88"/>
       <c r="AT24" s="17"/>
       <c r="AU24" s="17"/>
-      <c r="AV24" s="88"/>
+      <c r="AV24" s="56"/>
       <c r="AW24" s="17"/>
       <c r="AX24" s="17"/>
-      <c r="AY24" s="56"/>
+      <c r="AY24" s="17"/>
       <c r="AZ24" s="17"/>
       <c r="BA24" s="17"/>
       <c r="BB24" s="17"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="17"/>
@@ -4401,43 +4289,40 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
       <c r="AF25" s="17"/>
       <c r="AG25" s="17"/>
       <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
+      <c r="AI25" s="88"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
-      <c r="AL25" s="88"/>
+      <c r="AL25" s="17"/>
       <c r="AM25" s="17"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="17"/>
       <c r="AP25" s="17"/>
       <c r="AQ25" s="17"/>
       <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
+      <c r="AS25" s="88"/>
       <c r="AT25" s="17"/>
       <c r="AU25" s="17"/>
-      <c r="AV25" s="88"/>
+      <c r="AV25" s="56"/>
       <c r="AW25" s="17"/>
       <c r="AX25" s="17"/>
-      <c r="AY25" s="56"/>
+      <c r="AY25" s="17"/>
       <c r="AZ25" s="17"/>
       <c r="BA25" s="17"/>
       <c r="BB25" s="17"/>
-      <c r="BC25" s="17"/>
-      <c r="BD25" s="17"/>
-      <c r="BE25" s="17"/>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="17"/>
@@ -4460,43 +4345,40 @@
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
       <c r="AG26" s="17"/>
       <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
+      <c r="AI26" s="88"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
-      <c r="AL26" s="88"/>
+      <c r="AL26" s="17"/>
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
       <c r="AP26" s="17"/>
       <c r="AQ26" s="17"/>
       <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
+      <c r="AS26" s="88"/>
       <c r="AT26" s="17"/>
       <c r="AU26" s="17"/>
-      <c r="AV26" s="88"/>
+      <c r="AV26" s="56"/>
       <c r="AW26" s="17"/>
       <c r="AX26" s="17"/>
-      <c r="AY26" s="56"/>
+      <c r="AY26" s="17"/>
       <c r="AZ26" s="17"/>
       <c r="BA26" s="17"/>
       <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="17"/>
@@ -4519,43 +4401,40 @@
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
       <c r="AF27" s="17"/>
       <c r="AG27" s="17"/>
       <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
+      <c r="AI27" s="88"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
-      <c r="AL27" s="88"/>
+      <c r="AL27" s="17"/>
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
       <c r="AO27" s="17"/>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
+      <c r="AS27" s="88"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="88"/>
+      <c r="AV27" s="56"/>
       <c r="AW27" s="17"/>
       <c r="AX27" s="17"/>
-      <c r="AY27" s="56"/>
+      <c r="AY27" s="17"/>
       <c r="AZ27" s="17"/>
       <c r="BA27" s="17"/>
       <c r="BB27" s="17"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="17"/>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="17"/>
@@ -4578,43 +4457,40 @@
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="125"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
       <c r="AG28" s="17"/>
       <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
+      <c r="AI28" s="88"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
-      <c r="AL28" s="88"/>
+      <c r="AL28" s="17"/>
       <c r="AM28" s="17"/>
       <c r="AN28" s="17"/>
       <c r="AO28" s="17"/>
       <c r="AP28" s="17"/>
       <c r="AQ28" s="17"/>
       <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
+      <c r="AS28" s="88"/>
       <c r="AT28" s="17"/>
       <c r="AU28" s="17"/>
-      <c r="AV28" s="88"/>
+      <c r="AV28" s="56"/>
       <c r="AW28" s="17"/>
       <c r="AX28" s="17"/>
-      <c r="AY28" s="56"/>
+      <c r="AY28" s="17"/>
       <c r="AZ28" s="17"/>
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="17"/>
@@ -4637,43 +4513,40 @@
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="125"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="17"/>
       <c r="AG29" s="17"/>
       <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
+      <c r="AI29" s="88"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="17"/>
-      <c r="AL29" s="88"/>
+      <c r="AL29" s="17"/>
       <c r="AM29" s="17"/>
       <c r="AN29" s="17"/>
       <c r="AO29" s="17"/>
       <c r="AP29" s="17"/>
       <c r="AQ29" s="17"/>
       <c r="AR29" s="17"/>
-      <c r="AS29" s="17"/>
+      <c r="AS29" s="88"/>
       <c r="AT29" s="17"/>
       <c r="AU29" s="17"/>
-      <c r="AV29" s="88"/>
+      <c r="AV29" s="56"/>
       <c r="AW29" s="17"/>
       <c r="AX29" s="17"/>
-      <c r="AY29" s="56"/>
+      <c r="AY29" s="17"/>
       <c r="AZ29" s="17"/>
       <c r="BA29" s="17"/>
       <c r="BB29" s="17"/>
-      <c r="BC29" s="17"/>
-      <c r="BD29" s="17"/>
-      <c r="BE29" s="17"/>
-    </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="17"/>
@@ -4696,43 +4569,40 @@
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="125"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
       <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
+      <c r="AI30" s="88"/>
       <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
-      <c r="AL30" s="88"/>
+      <c r="AL30" s="17"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
       <c r="AO30" s="17"/>
       <c r="AP30" s="17"/>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
+      <c r="AS30" s="88"/>
       <c r="AT30" s="17"/>
       <c r="AU30" s="17"/>
-      <c r="AV30" s="88"/>
+      <c r="AV30" s="56"/>
       <c r="AW30" s="17"/>
       <c r="AX30" s="17"/>
-      <c r="AY30" s="56"/>
+      <c r="AY30" s="17"/>
       <c r="AZ30" s="17"/>
       <c r="BA30" s="17"/>
       <c r="BB30" s="17"/>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="17"/>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="17"/>
@@ -4755,43 +4625,40 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="125"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
       <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
+      <c r="AI31" s="88"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="17"/>
-      <c r="AL31" s="88"/>
+      <c r="AL31" s="17"/>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="17"/>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="17"/>
       <c r="AR31" s="17"/>
-      <c r="AS31" s="17"/>
+      <c r="AS31" s="88"/>
       <c r="AT31" s="17"/>
       <c r="AU31" s="17"/>
-      <c r="AV31" s="88"/>
+      <c r="AV31" s="56"/>
       <c r="AW31" s="17"/>
       <c r="AX31" s="17"/>
-      <c r="AY31" s="56"/>
+      <c r="AY31" s="17"/>
       <c r="AZ31" s="17"/>
       <c r="BA31" s="17"/>
       <c r="BB31" s="17"/>
-      <c r="BC31" s="17"/>
-      <c r="BD31" s="17"/>
-      <c r="BE31" s="17"/>
-    </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="17"/>
@@ -4814,43 +4681,40 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="125"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="17"/>
       <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
+      <c r="AI32" s="88"/>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
-      <c r="AL32" s="88"/>
+      <c r="AL32" s="17"/>
       <c r="AM32" s="17"/>
       <c r="AN32" s="17"/>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
       <c r="AQ32" s="17"/>
       <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
+      <c r="AS32" s="88"/>
       <c r="AT32" s="17"/>
       <c r="AU32" s="17"/>
-      <c r="AV32" s="88"/>
+      <c r="AV32" s="56"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="17"/>
-      <c r="AY32" s="56"/>
+      <c r="AY32" s="17"/>
       <c r="AZ32" s="17"/>
       <c r="BA32" s="17"/>
       <c r="BB32" s="17"/>
-      <c r="BC32" s="17"/>
-      <c r="BD32" s="17"/>
-      <c r="BE32" s="17"/>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="17"/>
@@ -4873,43 +4737,40 @@
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="125"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
+      <c r="W33" s="125"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
       <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
+      <c r="AI33" s="88"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
-      <c r="AL33" s="88"/>
+      <c r="AL33" s="17"/>
       <c r="AM33" s="17"/>
       <c r="AN33" s="17"/>
       <c r="AO33" s="17"/>
       <c r="AP33" s="17"/>
       <c r="AQ33" s="17"/>
       <c r="AR33" s="17"/>
-      <c r="AS33" s="17"/>
+      <c r="AS33" s="88"/>
       <c r="AT33" s="17"/>
       <c r="AU33" s="17"/>
-      <c r="AV33" s="88"/>
+      <c r="AV33" s="56"/>
       <c r="AW33" s="17"/>
       <c r="AX33" s="17"/>
-      <c r="AY33" s="56"/>
+      <c r="AY33" s="17"/>
       <c r="AZ33" s="17"/>
       <c r="BA33" s="17"/>
       <c r="BB33" s="17"/>
-      <c r="BC33" s="17"/>
-      <c r="BD33" s="17"/>
-      <c r="BE33" s="17"/>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="17"/>
@@ -4932,43 +4793,40 @@
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="125"/>
-      <c r="AA34" s="127"/>
-      <c r="AB34" s="127"/>
+      <c r="W34" s="125"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
+      <c r="AI34" s="88"/>
       <c r="AJ34" s="17"/>
       <c r="AK34" s="17"/>
-      <c r="AL34" s="88"/>
+      <c r="AL34" s="17"/>
       <c r="AM34" s="17"/>
       <c r="AN34" s="17"/>
       <c r="AO34" s="17"/>
       <c r="AP34" s="17"/>
       <c r="AQ34" s="17"/>
       <c r="AR34" s="17"/>
-      <c r="AS34" s="17"/>
+      <c r="AS34" s="88"/>
       <c r="AT34" s="17"/>
       <c r="AU34" s="17"/>
-      <c r="AV34" s="88"/>
+      <c r="AV34" s="56"/>
       <c r="AW34" s="17"/>
       <c r="AX34" s="17"/>
-      <c r="AY34" s="56"/>
+      <c r="AY34" s="17"/>
       <c r="AZ34" s="17"/>
       <c r="BA34" s="17"/>
       <c r="BB34" s="17"/>
-      <c r="BC34" s="17"/>
-      <c r="BD34" s="17"/>
-      <c r="BE34" s="17"/>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="17"/>
@@ -4991,43 +4849,40 @@
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="125"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="127"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
       <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
+      <c r="AI35" s="88"/>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
-      <c r="AL35" s="88"/>
+      <c r="AL35" s="17"/>
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
       <c r="AO35" s="17"/>
       <c r="AP35" s="17"/>
       <c r="AQ35" s="17"/>
       <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
+      <c r="AS35" s="88"/>
       <c r="AT35" s="17"/>
       <c r="AU35" s="17"/>
-      <c r="AV35" s="88"/>
+      <c r="AV35" s="56"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
-      <c r="AY35" s="56"/>
+      <c r="AY35" s="17"/>
       <c r="AZ35" s="17"/>
       <c r="BA35" s="17"/>
       <c r="BB35" s="17"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="17"/>
-      <c r="BE35" s="17"/>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="17"/>
@@ -5050,43 +4905,40 @@
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="125"/>
-      <c r="AA36" s="127"/>
-      <c r="AB36" s="127"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="127"/>
+      <c r="Y36" s="127"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
+      <c r="AI36" s="88"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
-      <c r="AL36" s="88"/>
+      <c r="AL36" s="17"/>
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
       <c r="AP36" s="17"/>
       <c r="AQ36" s="17"/>
       <c r="AR36" s="17"/>
-      <c r="AS36" s="17"/>
+      <c r="AS36" s="88"/>
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
-      <c r="AV36" s="88"/>
+      <c r="AV36" s="56"/>
       <c r="AW36" s="17"/>
       <c r="AX36" s="17"/>
-      <c r="AY36" s="56"/>
+      <c r="AY36" s="17"/>
       <c r="AZ36" s="17"/>
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
-      <c r="BC36" s="17"/>
-      <c r="BD36" s="17"/>
-      <c r="BE36" s="17"/>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="17"/>
@@ -5109,43 +4961,40 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="125"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="127"/>
+      <c r="W37" s="125"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="17"/>
       <c r="AF37" s="17"/>
       <c r="AG37" s="17"/>
       <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
+      <c r="AI37" s="88"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-      <c r="AL37" s="88"/>
+      <c r="AL37" s="17"/>
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
       <c r="AP37" s="17"/>
       <c r="AQ37" s="17"/>
       <c r="AR37" s="17"/>
-      <c r="AS37" s="17"/>
+      <c r="AS37" s="88"/>
       <c r="AT37" s="17"/>
       <c r="AU37" s="17"/>
-      <c r="AV37" s="88"/>
+      <c r="AV37" s="56"/>
       <c r="AW37" s="17"/>
       <c r="AX37" s="17"/>
-      <c r="AY37" s="56"/>
+      <c r="AY37" s="17"/>
       <c r="AZ37" s="17"/>
       <c r="BA37" s="17"/>
       <c r="BB37" s="17"/>
-      <c r="BC37" s="17"/>
-      <c r="BD37" s="17"/>
-      <c r="BE37" s="17"/>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="17"/>
@@ -5168,43 +5017,40 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="125"/>
-      <c r="AA38" s="127"/>
-      <c r="AB38" s="127"/>
+      <c r="W38" s="125"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="17"/>
       <c r="AF38" s="17"/>
       <c r="AG38" s="17"/>
       <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
+      <c r="AI38" s="88"/>
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
-      <c r="AL38" s="88"/>
+      <c r="AL38" s="17"/>
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
       <c r="AO38" s="17"/>
       <c r="AP38" s="17"/>
       <c r="AQ38" s="17"/>
       <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
+      <c r="AS38" s="88"/>
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
-      <c r="AV38" s="88"/>
+      <c r="AV38" s="56"/>
       <c r="AW38" s="17"/>
       <c r="AX38" s="17"/>
-      <c r="AY38" s="56"/>
+      <c r="AY38" s="17"/>
       <c r="AZ38" s="17"/>
       <c r="BA38" s="17"/>
       <c r="BB38" s="17"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="17"/>
-      <c r="BE38" s="17"/>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="17"/>
@@ -5227,43 +5073,40 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="125"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
+      <c r="W39" s="125"/>
+      <c r="X39" s="127"/>
+      <c r="Y39" s="127"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="17"/>
       <c r="AF39" s="17"/>
       <c r="AG39" s="17"/>
       <c r="AH39" s="17"/>
-      <c r="AI39" s="17"/>
+      <c r="AI39" s="88"/>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
-      <c r="AL39" s="88"/>
+      <c r="AL39" s="17"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
       <c r="AO39" s="17"/>
       <c r="AP39" s="17"/>
       <c r="AQ39" s="17"/>
       <c r="AR39" s="17"/>
-      <c r="AS39" s="17"/>
+      <c r="AS39" s="88"/>
       <c r="AT39" s="17"/>
       <c r="AU39" s="17"/>
-      <c r="AV39" s="88"/>
+      <c r="AV39" s="56"/>
       <c r="AW39" s="17"/>
       <c r="AX39" s="17"/>
-      <c r="AY39" s="56"/>
+      <c r="AY39" s="17"/>
       <c r="AZ39" s="17"/>
       <c r="BA39" s="17"/>
       <c r="BB39" s="17"/>
-      <c r="BC39" s="17"/>
-      <c r="BD39" s="17"/>
-      <c r="BE39" s="17"/>
-    </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="17"/>
@@ -5286,43 +5129,40 @@
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="127"/>
-      <c r="AB40" s="127"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="127"/>
+      <c r="Y40" s="127"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
       <c r="AE40" s="17"/>
       <c r="AF40" s="17"/>
       <c r="AG40" s="17"/>
       <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
+      <c r="AI40" s="88"/>
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
-      <c r="AL40" s="88"/>
+      <c r="AL40" s="17"/>
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
       <c r="AO40" s="17"/>
       <c r="AP40" s="17"/>
       <c r="AQ40" s="17"/>
       <c r="AR40" s="17"/>
-      <c r="AS40" s="17"/>
+      <c r="AS40" s="88"/>
       <c r="AT40" s="17"/>
       <c r="AU40" s="17"/>
-      <c r="AV40" s="88"/>
+      <c r="AV40" s="56"/>
       <c r="AW40" s="17"/>
       <c r="AX40" s="17"/>
-      <c r="AY40" s="56"/>
+      <c r="AY40" s="17"/>
       <c r="AZ40" s="17"/>
       <c r="BA40" s="17"/>
       <c r="BB40" s="17"/>
-      <c r="BC40" s="17"/>
-      <c r="BD40" s="17"/>
-      <c r="BE40" s="17"/>
-    </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="17"/>
@@ -5345,43 +5185,40 @@
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="125"/>
-      <c r="AA41" s="127"/>
-      <c r="AB41" s="127"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="127"/>
+      <c r="Y41" s="127"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
       <c r="AF41" s="17"/>
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
+      <c r="AI41" s="88"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
-      <c r="AL41" s="88"/>
+      <c r="AL41" s="17"/>
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
       <c r="AO41" s="17"/>
       <c r="AP41" s="17"/>
       <c r="AQ41" s="17"/>
       <c r="AR41" s="17"/>
-      <c r="AS41" s="17"/>
+      <c r="AS41" s="88"/>
       <c r="AT41" s="17"/>
       <c r="AU41" s="17"/>
-      <c r="AV41" s="88"/>
+      <c r="AV41" s="56"/>
       <c r="AW41" s="17"/>
       <c r="AX41" s="17"/>
-      <c r="AY41" s="56"/>
+      <c r="AY41" s="17"/>
       <c r="AZ41" s="17"/>
       <c r="BA41" s="17"/>
       <c r="BB41" s="17"/>
-      <c r="BC41" s="17"/>
-      <c r="BD41" s="17"/>
-      <c r="BE41" s="17"/>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
@@ -5404,43 +5241,40 @@
       <c r="T42" s="17"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="125"/>
-      <c r="AA42" s="127"/>
-      <c r="AB42" s="127"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="127"/>
+      <c r="Y42" s="127"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
       <c r="AF42" s="17"/>
       <c r="AG42" s="17"/>
       <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
+      <c r="AI42" s="88"/>
       <c r="AJ42" s="17"/>
       <c r="AK42" s="17"/>
-      <c r="AL42" s="88"/>
+      <c r="AL42" s="17"/>
       <c r="AM42" s="17"/>
       <c r="AN42" s="17"/>
       <c r="AO42" s="17"/>
       <c r="AP42" s="17"/>
       <c r="AQ42" s="17"/>
       <c r="AR42" s="17"/>
-      <c r="AS42" s="17"/>
+      <c r="AS42" s="88"/>
       <c r="AT42" s="17"/>
       <c r="AU42" s="17"/>
-      <c r="AV42" s="88"/>
+      <c r="AV42" s="56"/>
       <c r="AW42" s="17"/>
       <c r="AX42" s="17"/>
-      <c r="AY42" s="56"/>
+      <c r="AY42" s="17"/>
       <c r="AZ42" s="17"/>
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
-      <c r="BC42" s="17"/>
-      <c r="BD42" s="17"/>
-      <c r="BE42" s="17"/>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="17"/>
@@ -5463,43 +5297,40 @@
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="125"/>
-      <c r="AA43" s="127"/>
-      <c r="AB43" s="127"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="127"/>
+      <c r="Y43" s="127"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17"/>
       <c r="AF43" s="17"/>
       <c r="AG43" s="17"/>
       <c r="AH43" s="17"/>
-      <c r="AI43" s="17"/>
+      <c r="AI43" s="88"/>
       <c r="AJ43" s="17"/>
       <c r="AK43" s="17"/>
-      <c r="AL43" s="88"/>
+      <c r="AL43" s="17"/>
       <c r="AM43" s="17"/>
       <c r="AN43" s="17"/>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
       <c r="AQ43" s="17"/>
       <c r="AR43" s="17"/>
-      <c r="AS43" s="17"/>
+      <c r="AS43" s="88"/>
       <c r="AT43" s="17"/>
       <c r="AU43" s="17"/>
-      <c r="AV43" s="88"/>
+      <c r="AV43" s="56"/>
       <c r="AW43" s="17"/>
       <c r="AX43" s="17"/>
-      <c r="AY43" s="56"/>
+      <c r="AY43" s="17"/>
       <c r="AZ43" s="17"/>
       <c r="BA43" s="17"/>
       <c r="BB43" s="17"/>
-      <c r="BC43" s="17"/>
-      <c r="BD43" s="17"/>
-      <c r="BE43" s="17"/>
-    </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="17"/>
@@ -5522,43 +5353,40 @@
       <c r="T44" s="17"/>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="125"/>
-      <c r="AA44" s="127"/>
-      <c r="AB44" s="127"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="127"/>
+      <c r="Y44" s="127"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17"/>
       <c r="AF44" s="17"/>
       <c r="AG44" s="17"/>
       <c r="AH44" s="17"/>
-      <c r="AI44" s="17"/>
+      <c r="AI44" s="88"/>
       <c r="AJ44" s="17"/>
       <c r="AK44" s="17"/>
-      <c r="AL44" s="88"/>
+      <c r="AL44" s="17"/>
       <c r="AM44" s="17"/>
       <c r="AN44" s="17"/>
       <c r="AO44" s="17"/>
       <c r="AP44" s="17"/>
       <c r="AQ44" s="17"/>
       <c r="AR44" s="17"/>
-      <c r="AS44" s="17"/>
+      <c r="AS44" s="88"/>
       <c r="AT44" s="17"/>
       <c r="AU44" s="17"/>
-      <c r="AV44" s="88"/>
+      <c r="AV44" s="56"/>
       <c r="AW44" s="17"/>
       <c r="AX44" s="17"/>
-      <c r="AY44" s="56"/>
+      <c r="AY44" s="17"/>
       <c r="AZ44" s="17"/>
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
-      <c r="BC44" s="17"/>
-      <c r="BD44" s="17"/>
-      <c r="BE44" s="17"/>
-    </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="17"/>
@@ -5581,43 +5409,40 @@
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="125"/>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="127"/>
+      <c r="W45" s="125"/>
+      <c r="X45" s="127"/>
+      <c r="Y45" s="127"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="17"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="17"/>
       <c r="AH45" s="17"/>
-      <c r="AI45" s="17"/>
+      <c r="AI45" s="88"/>
       <c r="AJ45" s="17"/>
       <c r="AK45" s="17"/>
-      <c r="AL45" s="88"/>
+      <c r="AL45" s="17"/>
       <c r="AM45" s="17"/>
       <c r="AN45" s="17"/>
       <c r="AO45" s="17"/>
       <c r="AP45" s="17"/>
       <c r="AQ45" s="17"/>
       <c r="AR45" s="17"/>
-      <c r="AS45" s="17"/>
+      <c r="AS45" s="88"/>
       <c r="AT45" s="17"/>
       <c r="AU45" s="17"/>
-      <c r="AV45" s="88"/>
+      <c r="AV45" s="56"/>
       <c r="AW45" s="17"/>
       <c r="AX45" s="17"/>
-      <c r="AY45" s="56"/>
+      <c r="AY45" s="17"/>
       <c r="AZ45" s="17"/>
       <c r="BA45" s="17"/>
       <c r="BB45" s="17"/>
-      <c r="BC45" s="17"/>
-      <c r="BD45" s="17"/>
-      <c r="BE45" s="17"/>
-    </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="17"/>
@@ -5640,43 +5465,40 @@
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="125"/>
-      <c r="AA46" s="127"/>
-      <c r="AB46" s="127"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="127"/>
+      <c r="Y46" s="127"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="17"/>
       <c r="AF46" s="17"/>
       <c r="AG46" s="17"/>
       <c r="AH46" s="17"/>
-      <c r="AI46" s="17"/>
+      <c r="AI46" s="88"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
-      <c r="AL46" s="88"/>
+      <c r="AL46" s="17"/>
       <c r="AM46" s="17"/>
       <c r="AN46" s="17"/>
       <c r="AO46" s="17"/>
       <c r="AP46" s="17"/>
       <c r="AQ46" s="17"/>
       <c r="AR46" s="17"/>
-      <c r="AS46" s="17"/>
+      <c r="AS46" s="88"/>
       <c r="AT46" s="17"/>
       <c r="AU46" s="17"/>
-      <c r="AV46" s="88"/>
+      <c r="AV46" s="56"/>
       <c r="AW46" s="17"/>
       <c r="AX46" s="17"/>
-      <c r="AY46" s="56"/>
+      <c r="AY46" s="17"/>
       <c r="AZ46" s="17"/>
       <c r="BA46" s="17"/>
       <c r="BB46" s="17"/>
-      <c r="BC46" s="17"/>
-      <c r="BD46" s="17"/>
-      <c r="BE46" s="17"/>
-    </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="17"/>
@@ -5699,43 +5521,40 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="125"/>
-      <c r="AA47" s="127"/>
-      <c r="AB47" s="127"/>
+      <c r="W47" s="125"/>
+      <c r="X47" s="127"/>
+      <c r="Y47" s="127"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="17"/>
       <c r="AH47" s="17"/>
-      <c r="AI47" s="17"/>
+      <c r="AI47" s="88"/>
       <c r="AJ47" s="17"/>
       <c r="AK47" s="17"/>
-      <c r="AL47" s="88"/>
+      <c r="AL47" s="17"/>
       <c r="AM47" s="17"/>
       <c r="AN47" s="17"/>
       <c r="AO47" s="17"/>
       <c r="AP47" s="17"/>
       <c r="AQ47" s="17"/>
       <c r="AR47" s="17"/>
-      <c r="AS47" s="17"/>
+      <c r="AS47" s="88"/>
       <c r="AT47" s="17"/>
       <c r="AU47" s="17"/>
-      <c r="AV47" s="88"/>
+      <c r="AV47" s="56"/>
       <c r="AW47" s="17"/>
       <c r="AX47" s="17"/>
-      <c r="AY47" s="56"/>
+      <c r="AY47" s="17"/>
       <c r="AZ47" s="17"/>
       <c r="BA47" s="17"/>
       <c r="BB47" s="17"/>
-      <c r="BC47" s="17"/>
-      <c r="BD47" s="17"/>
-      <c r="BE47" s="17"/>
-    </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="17"/>
@@ -5758,43 +5577,40 @@
       <c r="T48" s="17"/>
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="125"/>
-      <c r="AA48" s="127"/>
-      <c r="AB48" s="127"/>
+      <c r="W48" s="125"/>
+      <c r="X48" s="127"/>
+      <c r="Y48" s="127"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="17"/>
       <c r="AH48" s="17"/>
-      <c r="AI48" s="17"/>
+      <c r="AI48" s="88"/>
       <c r="AJ48" s="17"/>
       <c r="AK48" s="17"/>
-      <c r="AL48" s="88"/>
+      <c r="AL48" s="17"/>
       <c r="AM48" s="17"/>
       <c r="AN48" s="17"/>
       <c r="AO48" s="17"/>
       <c r="AP48" s="17"/>
       <c r="AQ48" s="17"/>
       <c r="AR48" s="17"/>
-      <c r="AS48" s="17"/>
+      <c r="AS48" s="88"/>
       <c r="AT48" s="17"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="88"/>
+      <c r="AV48" s="56"/>
       <c r="AW48" s="17"/>
       <c r="AX48" s="17"/>
-      <c r="AY48" s="56"/>
+      <c r="AY48" s="17"/>
       <c r="AZ48" s="17"/>
       <c r="BA48" s="17"/>
       <c r="BB48" s="17"/>
-      <c r="BC48" s="17"/>
-      <c r="BD48" s="17"/>
-      <c r="BE48" s="17"/>
-    </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="17"/>
@@ -5817,43 +5633,40 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="125"/>
-      <c r="AA49" s="127"/>
-      <c r="AB49" s="127"/>
+      <c r="W49" s="125"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="17"/>
       <c r="AH49" s="17"/>
-      <c r="AI49" s="17"/>
+      <c r="AI49" s="88"/>
       <c r="AJ49" s="17"/>
       <c r="AK49" s="17"/>
-      <c r="AL49" s="88"/>
+      <c r="AL49" s="17"/>
       <c r="AM49" s="17"/>
       <c r="AN49" s="17"/>
       <c r="AO49" s="17"/>
       <c r="AP49" s="17"/>
       <c r="AQ49" s="17"/>
       <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
+      <c r="AS49" s="88"/>
       <c r="AT49" s="17"/>
       <c r="AU49" s="17"/>
-      <c r="AV49" s="88"/>
+      <c r="AV49" s="56"/>
       <c r="AW49" s="17"/>
       <c r="AX49" s="17"/>
-      <c r="AY49" s="56"/>
+      <c r="AY49" s="17"/>
       <c r="AZ49" s="17"/>
       <c r="BA49" s="17"/>
       <c r="BB49" s="17"/>
-      <c r="BC49" s="17"/>
-      <c r="BD49" s="17"/>
-      <c r="BE49" s="17"/>
-    </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="17"/>
@@ -5876,43 +5689,40 @@
       <c r="T50" s="17"/>
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="125"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="127"/>
+      <c r="W50" s="125"/>
+      <c r="X50" s="127"/>
+      <c r="Y50" s="127"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="17"/>
       <c r="AH50" s="17"/>
-      <c r="AI50" s="17"/>
+      <c r="AI50" s="88"/>
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
-      <c r="AL50" s="88"/>
+      <c r="AL50" s="17"/>
       <c r="AM50" s="17"/>
       <c r="AN50" s="17"/>
       <c r="AO50" s="17"/>
       <c r="AP50" s="17"/>
       <c r="AQ50" s="17"/>
       <c r="AR50" s="17"/>
-      <c r="AS50" s="17"/>
+      <c r="AS50" s="88"/>
       <c r="AT50" s="17"/>
       <c r="AU50" s="17"/>
-      <c r="AV50" s="88"/>
+      <c r="AV50" s="56"/>
       <c r="AW50" s="17"/>
       <c r="AX50" s="17"/>
-      <c r="AY50" s="56"/>
+      <c r="AY50" s="17"/>
       <c r="AZ50" s="17"/>
       <c r="BA50" s="17"/>
       <c r="BB50" s="17"/>
-      <c r="BC50" s="17"/>
-      <c r="BD50" s="17"/>
-      <c r="BE50" s="17"/>
-    </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="17"/>
@@ -5935,43 +5745,40 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="125"/>
-      <c r="AA51" s="127"/>
-      <c r="AB51" s="127"/>
+      <c r="W51" s="125"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="17"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="17"/>
       <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
+      <c r="AI51" s="88"/>
       <c r="AJ51" s="17"/>
       <c r="AK51" s="17"/>
-      <c r="AL51" s="88"/>
+      <c r="AL51" s="17"/>
       <c r="AM51" s="17"/>
       <c r="AN51" s="17"/>
       <c r="AO51" s="17"/>
       <c r="AP51" s="17"/>
       <c r="AQ51" s="17"/>
       <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
+      <c r="AS51" s="88"/>
       <c r="AT51" s="17"/>
       <c r="AU51" s="17"/>
-      <c r="AV51" s="88"/>
+      <c r="AV51" s="56"/>
       <c r="AW51" s="17"/>
       <c r="AX51" s="17"/>
-      <c r="AY51" s="56"/>
+      <c r="AY51" s="17"/>
       <c r="AZ51" s="17"/>
       <c r="BA51" s="17"/>
       <c r="BB51" s="17"/>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="17"/>
-      <c r="BE51" s="17"/>
-    </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="17"/>
@@ -5994,43 +5801,40 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="125"/>
-      <c r="AA52" s="127"/>
-      <c r="AB52" s="127"/>
+      <c r="W52" s="125"/>
+      <c r="X52" s="127"/>
+      <c r="Y52" s="127"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="17"/>
       <c r="AF52" s="17"/>
       <c r="AG52" s="17"/>
       <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
+      <c r="AI52" s="88"/>
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
-      <c r="AL52" s="88"/>
+      <c r="AL52" s="17"/>
       <c r="AM52" s="17"/>
       <c r="AN52" s="17"/>
       <c r="AO52" s="17"/>
       <c r="AP52" s="17"/>
       <c r="AQ52" s="17"/>
       <c r="AR52" s="17"/>
-      <c r="AS52" s="17"/>
+      <c r="AS52" s="88"/>
       <c r="AT52" s="17"/>
       <c r="AU52" s="17"/>
-      <c r="AV52" s="88"/>
+      <c r="AV52" s="56"/>
       <c r="AW52" s="17"/>
       <c r="AX52" s="17"/>
-      <c r="AY52" s="56"/>
+      <c r="AY52" s="17"/>
       <c r="AZ52" s="17"/>
       <c r="BA52" s="17"/>
       <c r="BB52" s="17"/>
-      <c r="BC52" s="17"/>
-      <c r="BD52" s="17"/>
-      <c r="BE52" s="17"/>
-    </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="17"/>
@@ -6053,43 +5857,40 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="125"/>
-      <c r="AA53" s="127"/>
-      <c r="AB53" s="127"/>
+      <c r="W53" s="125"/>
+      <c r="X53" s="127"/>
+      <c r="Y53" s="127"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
+      <c r="AI53" s="88"/>
       <c r="AJ53" s="17"/>
       <c r="AK53" s="17"/>
-      <c r="AL53" s="88"/>
+      <c r="AL53" s="17"/>
       <c r="AM53" s="17"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
       <c r="AQ53" s="17"/>
       <c r="AR53" s="17"/>
-      <c r="AS53" s="17"/>
+      <c r="AS53" s="88"/>
       <c r="AT53" s="17"/>
       <c r="AU53" s="17"/>
-      <c r="AV53" s="88"/>
+      <c r="AV53" s="56"/>
       <c r="AW53" s="17"/>
       <c r="AX53" s="17"/>
-      <c r="AY53" s="56"/>
+      <c r="AY53" s="17"/>
       <c r="AZ53" s="17"/>
       <c r="BA53" s="17"/>
       <c r="BB53" s="17"/>
-      <c r="BC53" s="17"/>
-      <c r="BD53" s="17"/>
-      <c r="BE53" s="17"/>
-    </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="17"/>
@@ -6112,43 +5913,40 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="125"/>
-      <c r="AA54" s="127"/>
-      <c r="AB54" s="127"/>
+      <c r="W54" s="125"/>
+      <c r="X54" s="127"/>
+      <c r="Y54" s="127"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="17"/>
       <c r="AH54" s="17"/>
-      <c r="AI54" s="17"/>
+      <c r="AI54" s="88"/>
       <c r="AJ54" s="17"/>
       <c r="AK54" s="17"/>
-      <c r="AL54" s="88"/>
+      <c r="AL54" s="17"/>
       <c r="AM54" s="17"/>
       <c r="AN54" s="17"/>
       <c r="AO54" s="17"/>
       <c r="AP54" s="17"/>
       <c r="AQ54" s="17"/>
       <c r="AR54" s="17"/>
-      <c r="AS54" s="17"/>
+      <c r="AS54" s="88"/>
       <c r="AT54" s="17"/>
       <c r="AU54" s="17"/>
-      <c r="AV54" s="88"/>
+      <c r="AV54" s="56"/>
       <c r="AW54" s="17"/>
       <c r="AX54" s="17"/>
-      <c r="AY54" s="56"/>
+      <c r="AY54" s="17"/>
       <c r="AZ54" s="17"/>
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
-      <c r="BC54" s="17"/>
-      <c r="BD54" s="17"/>
-      <c r="BE54" s="17"/>
-    </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="17"/>
@@ -6171,43 +5969,40 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="125"/>
-      <c r="AA55" s="127"/>
-      <c r="AB55" s="127"/>
+      <c r="W55" s="125"/>
+      <c r="X55" s="127"/>
+      <c r="Y55" s="127"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="17"/>
       <c r="AH55" s="17"/>
-      <c r="AI55" s="17"/>
+      <c r="AI55" s="88"/>
       <c r="AJ55" s="17"/>
       <c r="AK55" s="17"/>
-      <c r="AL55" s="88"/>
+      <c r="AL55" s="17"/>
       <c r="AM55" s="17"/>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
       <c r="AP55" s="17"/>
       <c r="AQ55" s="17"/>
       <c r="AR55" s="17"/>
-      <c r="AS55" s="17"/>
+      <c r="AS55" s="88"/>
       <c r="AT55" s="17"/>
       <c r="AU55" s="17"/>
-      <c r="AV55" s="88"/>
+      <c r="AV55" s="56"/>
       <c r="AW55" s="17"/>
       <c r="AX55" s="17"/>
-      <c r="AY55" s="56"/>
+      <c r="AY55" s="17"/>
       <c r="AZ55" s="17"/>
       <c r="BA55" s="17"/>
       <c r="BB55" s="17"/>
-      <c r="BC55" s="17"/>
-      <c r="BD55" s="17"/>
-      <c r="BE55" s="17"/>
-    </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="17"/>
@@ -6230,43 +6025,40 @@
       <c r="T56" s="17"/>
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="125"/>
-      <c r="AA56" s="127"/>
-      <c r="AB56" s="127"/>
+      <c r="W56" s="125"/>
+      <c r="X56" s="127"/>
+      <c r="Y56" s="127"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="17"/>
       <c r="AH56" s="17"/>
-      <c r="AI56" s="17"/>
+      <c r="AI56" s="88"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
-      <c r="AL56" s="88"/>
+      <c r="AL56" s="17"/>
       <c r="AM56" s="17"/>
       <c r="AN56" s="17"/>
       <c r="AO56" s="17"/>
       <c r="AP56" s="17"/>
       <c r="AQ56" s="17"/>
       <c r="AR56" s="17"/>
-      <c r="AS56" s="17"/>
+      <c r="AS56" s="88"/>
       <c r="AT56" s="17"/>
       <c r="AU56" s="17"/>
-      <c r="AV56" s="88"/>
+      <c r="AV56" s="56"/>
       <c r="AW56" s="17"/>
       <c r="AX56" s="17"/>
-      <c r="AY56" s="56"/>
+      <c r="AY56" s="17"/>
       <c r="AZ56" s="17"/>
       <c r="BA56" s="17"/>
       <c r="BB56" s="17"/>
-      <c r="BC56" s="17"/>
-      <c r="BD56" s="17"/>
-      <c r="BE56" s="17"/>
-    </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="17"/>
@@ -6289,43 +6081,40 @@
       <c r="T57" s="17"/>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="125"/>
-      <c r="AA57" s="127"/>
-      <c r="AB57" s="127"/>
+      <c r="W57" s="125"/>
+      <c r="X57" s="127"/>
+      <c r="Y57" s="127"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
-      <c r="AI57" s="17"/>
+      <c r="AI57" s="88"/>
       <c r="AJ57" s="17"/>
       <c r="AK57" s="17"/>
-      <c r="AL57" s="88"/>
+      <c r="AL57" s="17"/>
       <c r="AM57" s="17"/>
       <c r="AN57" s="17"/>
       <c r="AO57" s="17"/>
       <c r="AP57" s="17"/>
       <c r="AQ57" s="17"/>
       <c r="AR57" s="17"/>
-      <c r="AS57" s="17"/>
+      <c r="AS57" s="88"/>
       <c r="AT57" s="17"/>
       <c r="AU57" s="17"/>
-      <c r="AV57" s="88"/>
+      <c r="AV57" s="56"/>
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
-      <c r="AY57" s="56"/>
+      <c r="AY57" s="17"/>
       <c r="AZ57" s="17"/>
       <c r="BA57" s="17"/>
       <c r="BB57" s="17"/>
-      <c r="BC57" s="17"/>
-      <c r="BD57" s="17"/>
-      <c r="BE57" s="17"/>
-    </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="17"/>
@@ -6348,43 +6137,40 @@
       <c r="T58" s="17"/>
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="125"/>
-      <c r="AA58" s="127"/>
-      <c r="AB58" s="127"/>
+      <c r="W58" s="125"/>
+      <c r="X58" s="127"/>
+      <c r="Y58" s="127"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="17"/>
       <c r="AH58" s="17"/>
-      <c r="AI58" s="17"/>
+      <c r="AI58" s="88"/>
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
-      <c r="AL58" s="88"/>
+      <c r="AL58" s="17"/>
       <c r="AM58" s="17"/>
       <c r="AN58" s="17"/>
       <c r="AO58" s="17"/>
       <c r="AP58" s="17"/>
       <c r="AQ58" s="17"/>
       <c r="AR58" s="17"/>
-      <c r="AS58" s="17"/>
+      <c r="AS58" s="88"/>
       <c r="AT58" s="17"/>
       <c r="AU58" s="17"/>
-      <c r="AV58" s="88"/>
+      <c r="AV58" s="56"/>
       <c r="AW58" s="17"/>
       <c r="AX58" s="17"/>
-      <c r="AY58" s="56"/>
+      <c r="AY58" s="17"/>
       <c r="AZ58" s="17"/>
       <c r="BA58" s="17"/>
       <c r="BB58" s="17"/>
-      <c r="BC58" s="17"/>
-      <c r="BD58" s="17"/>
-      <c r="BE58" s="17"/>
-    </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="17"/>
@@ -6407,43 +6193,40 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="125"/>
-      <c r="AA59" s="127"/>
-      <c r="AB59" s="127"/>
+      <c r="W59" s="125"/>
+      <c r="X59" s="127"/>
+      <c r="Y59" s="127"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="17"/>
       <c r="AH59" s="17"/>
-      <c r="AI59" s="17"/>
+      <c r="AI59" s="88"/>
       <c r="AJ59" s="17"/>
       <c r="AK59" s="17"/>
-      <c r="AL59" s="88"/>
+      <c r="AL59" s="17"/>
       <c r="AM59" s="17"/>
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
       <c r="AP59" s="17"/>
       <c r="AQ59" s="17"/>
       <c r="AR59" s="17"/>
-      <c r="AS59" s="17"/>
+      <c r="AS59" s="88"/>
       <c r="AT59" s="17"/>
       <c r="AU59" s="17"/>
-      <c r="AV59" s="88"/>
+      <c r="AV59" s="56"/>
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
-      <c r="AY59" s="56"/>
+      <c r="AY59" s="17"/>
       <c r="AZ59" s="17"/>
       <c r="BA59" s="17"/>
       <c r="BB59" s="17"/>
-      <c r="BC59" s="17"/>
-      <c r="BD59" s="17"/>
-      <c r="BE59" s="17"/>
-    </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="17"/>
@@ -6466,43 +6249,40 @@
       <c r="T60" s="17"/>
       <c r="U60" s="17"/>
       <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="125"/>
-      <c r="AA60" s="127"/>
-      <c r="AB60" s="127"/>
+      <c r="W60" s="125"/>
+      <c r="X60" s="127"/>
+      <c r="Y60" s="127"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="17"/>
       <c r="AH60" s="17"/>
-      <c r="AI60" s="17"/>
+      <c r="AI60" s="88"/>
       <c r="AJ60" s="17"/>
       <c r="AK60" s="17"/>
-      <c r="AL60" s="88"/>
+      <c r="AL60" s="17"/>
       <c r="AM60" s="17"/>
       <c r="AN60" s="17"/>
       <c r="AO60" s="17"/>
       <c r="AP60" s="17"/>
       <c r="AQ60" s="17"/>
       <c r="AR60" s="17"/>
-      <c r="AS60" s="17"/>
+      <c r="AS60" s="88"/>
       <c r="AT60" s="17"/>
       <c r="AU60" s="17"/>
-      <c r="AV60" s="88"/>
+      <c r="AV60" s="56"/>
       <c r="AW60" s="17"/>
       <c r="AX60" s="17"/>
-      <c r="AY60" s="56"/>
+      <c r="AY60" s="17"/>
       <c r="AZ60" s="17"/>
       <c r="BA60" s="17"/>
       <c r="BB60" s="17"/>
-      <c r="BC60" s="17"/>
-      <c r="BD60" s="17"/>
-      <c r="BE60" s="17"/>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="17"/>
@@ -6525,43 +6305,40 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="125"/>
-      <c r="AA61" s="127"/>
-      <c r="AB61" s="127"/>
+      <c r="W61" s="125"/>
+      <c r="X61" s="127"/>
+      <c r="Y61" s="127"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="17"/>
       <c r="AH61" s="17"/>
-      <c r="AI61" s="17"/>
+      <c r="AI61" s="88"/>
       <c r="AJ61" s="17"/>
       <c r="AK61" s="17"/>
-      <c r="AL61" s="88"/>
+      <c r="AL61" s="17"/>
       <c r="AM61" s="17"/>
       <c r="AN61" s="17"/>
       <c r="AO61" s="17"/>
       <c r="AP61" s="17"/>
       <c r="AQ61" s="17"/>
       <c r="AR61" s="17"/>
-      <c r="AS61" s="17"/>
+      <c r="AS61" s="88"/>
       <c r="AT61" s="17"/>
       <c r="AU61" s="17"/>
-      <c r="AV61" s="88"/>
+      <c r="AV61" s="56"/>
       <c r="AW61" s="17"/>
       <c r="AX61" s="17"/>
-      <c r="AY61" s="56"/>
+      <c r="AY61" s="17"/>
       <c r="AZ61" s="17"/>
       <c r="BA61" s="17"/>
       <c r="BB61" s="17"/>
-      <c r="BC61" s="17"/>
-      <c r="BD61" s="17"/>
-      <c r="BE61" s="17"/>
-    </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="17"/>
@@ -6584,43 +6361,40 @@
       <c r="T62" s="17"/>
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="125"/>
-      <c r="AA62" s="127"/>
-      <c r="AB62" s="127"/>
+      <c r="W62" s="125"/>
+      <c r="X62" s="127"/>
+      <c r="Y62" s="127"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="17"/>
       <c r="AF62" s="17"/>
       <c r="AG62" s="17"/>
       <c r="AH62" s="17"/>
-      <c r="AI62" s="17"/>
+      <c r="AI62" s="88"/>
       <c r="AJ62" s="17"/>
       <c r="AK62" s="17"/>
-      <c r="AL62" s="88"/>
+      <c r="AL62" s="17"/>
       <c r="AM62" s="17"/>
       <c r="AN62" s="17"/>
       <c r="AO62" s="17"/>
       <c r="AP62" s="17"/>
       <c r="AQ62" s="17"/>
       <c r="AR62" s="17"/>
-      <c r="AS62" s="17"/>
+      <c r="AS62" s="88"/>
       <c r="AT62" s="17"/>
       <c r="AU62" s="17"/>
-      <c r="AV62" s="88"/>
+      <c r="AV62" s="56"/>
       <c r="AW62" s="17"/>
       <c r="AX62" s="17"/>
-      <c r="AY62" s="56"/>
+      <c r="AY62" s="17"/>
       <c r="AZ62" s="17"/>
       <c r="BA62" s="17"/>
       <c r="BB62" s="17"/>
-      <c r="BC62" s="17"/>
-      <c r="BD62" s="17"/>
-      <c r="BE62" s="17"/>
-    </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="17"/>
@@ -6643,43 +6417,40 @@
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="125"/>
-      <c r="AA63" s="127"/>
-      <c r="AB63" s="127"/>
+      <c r="W63" s="125"/>
+      <c r="X63" s="127"/>
+      <c r="Y63" s="127"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
       <c r="AC63" s="17"/>
       <c r="AD63" s="17"/>
       <c r="AE63" s="17"/>
       <c r="AF63" s="17"/>
       <c r="AG63" s="17"/>
       <c r="AH63" s="17"/>
-      <c r="AI63" s="17"/>
+      <c r="AI63" s="88"/>
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
-      <c r="AL63" s="88"/>
+      <c r="AL63" s="17"/>
       <c r="AM63" s="17"/>
       <c r="AN63" s="17"/>
       <c r="AO63" s="17"/>
       <c r="AP63" s="17"/>
       <c r="AQ63" s="17"/>
       <c r="AR63" s="17"/>
-      <c r="AS63" s="17"/>
+      <c r="AS63" s="88"/>
       <c r="AT63" s="17"/>
       <c r="AU63" s="17"/>
-      <c r="AV63" s="88"/>
+      <c r="AV63" s="56"/>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
-      <c r="AY63" s="56"/>
+      <c r="AY63" s="17"/>
       <c r="AZ63" s="17"/>
       <c r="BA63" s="17"/>
       <c r="BB63" s="17"/>
-      <c r="BC63" s="17"/>
-      <c r="BD63" s="17"/>
-      <c r="BE63" s="17"/>
-    </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="17"/>
@@ -6702,43 +6473,40 @@
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="125"/>
-      <c r="AA64" s="127"/>
-      <c r="AB64" s="127"/>
+      <c r="W64" s="125"/>
+      <c r="X64" s="127"/>
+      <c r="Y64" s="127"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
       <c r="AE64" s="17"/>
       <c r="AF64" s="17"/>
       <c r="AG64" s="17"/>
       <c r="AH64" s="17"/>
-      <c r="AI64" s="17"/>
+      <c r="AI64" s="88"/>
       <c r="AJ64" s="17"/>
       <c r="AK64" s="17"/>
-      <c r="AL64" s="88"/>
+      <c r="AL64" s="17"/>
       <c r="AM64" s="17"/>
       <c r="AN64" s="17"/>
       <c r="AO64" s="17"/>
       <c r="AP64" s="17"/>
       <c r="AQ64" s="17"/>
       <c r="AR64" s="17"/>
-      <c r="AS64" s="17"/>
+      <c r="AS64" s="88"/>
       <c r="AT64" s="17"/>
       <c r="AU64" s="17"/>
-      <c r="AV64" s="88"/>
+      <c r="AV64" s="56"/>
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
-      <c r="AY64" s="56"/>
+      <c r="AY64" s="17"/>
       <c r="AZ64" s="17"/>
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
-      <c r="BC64" s="17"/>
-      <c r="BD64" s="17"/>
-      <c r="BE64" s="17"/>
-    </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="17"/>
@@ -6761,43 +6529,40 @@
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="125"/>
-      <c r="AA65" s="127"/>
-      <c r="AB65" s="127"/>
+      <c r="W65" s="125"/>
+      <c r="X65" s="127"/>
+      <c r="Y65" s="127"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="17"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
       <c r="AE65" s="17"/>
       <c r="AF65" s="17"/>
       <c r="AG65" s="17"/>
       <c r="AH65" s="17"/>
-      <c r="AI65" s="17"/>
+      <c r="AI65" s="88"/>
       <c r="AJ65" s="17"/>
       <c r="AK65" s="17"/>
-      <c r="AL65" s="88"/>
+      <c r="AL65" s="17"/>
       <c r="AM65" s="17"/>
       <c r="AN65" s="17"/>
       <c r="AO65" s="17"/>
       <c r="AP65" s="17"/>
       <c r="AQ65" s="17"/>
       <c r="AR65" s="17"/>
-      <c r="AS65" s="17"/>
+      <c r="AS65" s="88"/>
       <c r="AT65" s="17"/>
       <c r="AU65" s="17"/>
-      <c r="AV65" s="88"/>
+      <c r="AV65" s="56"/>
       <c r="AW65" s="17"/>
       <c r="AX65" s="17"/>
-      <c r="AY65" s="56"/>
+      <c r="AY65" s="17"/>
       <c r="AZ65" s="17"/>
       <c r="BA65" s="17"/>
       <c r="BB65" s="17"/>
-      <c r="BC65" s="17"/>
-      <c r="BD65" s="17"/>
-      <c r="BE65" s="17"/>
-    </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="17"/>
@@ -6820,43 +6585,40 @@
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="125"/>
-      <c r="AA66" s="127"/>
-      <c r="AB66" s="127"/>
+      <c r="W66" s="125"/>
+      <c r="X66" s="127"/>
+      <c r="Y66" s="127"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="17"/>
       <c r="AF66" s="17"/>
       <c r="AG66" s="17"/>
       <c r="AH66" s="17"/>
-      <c r="AI66" s="17"/>
+      <c r="AI66" s="88"/>
       <c r="AJ66" s="17"/>
       <c r="AK66" s="17"/>
-      <c r="AL66" s="88"/>
+      <c r="AL66" s="17"/>
       <c r="AM66" s="17"/>
       <c r="AN66" s="17"/>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
       <c r="AQ66" s="17"/>
       <c r="AR66" s="17"/>
-      <c r="AS66" s="17"/>
+      <c r="AS66" s="88"/>
       <c r="AT66" s="17"/>
       <c r="AU66" s="17"/>
-      <c r="AV66" s="88"/>
+      <c r="AV66" s="56"/>
       <c r="AW66" s="17"/>
       <c r="AX66" s="17"/>
-      <c r="AY66" s="56"/>
+      <c r="AY66" s="17"/>
       <c r="AZ66" s="17"/>
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
-      <c r="BC66" s="17"/>
-      <c r="BD66" s="17"/>
-      <c r="BE66" s="17"/>
-    </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="17"/>
@@ -6879,43 +6641,40 @@
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="125"/>
-      <c r="AA67" s="127"/>
-      <c r="AB67" s="127"/>
+      <c r="W67" s="125"/>
+      <c r="X67" s="127"/>
+      <c r="Y67" s="127"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="17"/>
       <c r="AH67" s="17"/>
-      <c r="AI67" s="17"/>
+      <c r="AI67" s="88"/>
       <c r="AJ67" s="17"/>
       <c r="AK67" s="17"/>
-      <c r="AL67" s="88"/>
+      <c r="AL67" s="17"/>
       <c r="AM67" s="17"/>
       <c r="AN67" s="17"/>
       <c r="AO67" s="17"/>
       <c r="AP67" s="17"/>
       <c r="AQ67" s="17"/>
       <c r="AR67" s="17"/>
-      <c r="AS67" s="17"/>
+      <c r="AS67" s="88"/>
       <c r="AT67" s="17"/>
       <c r="AU67" s="17"/>
-      <c r="AV67" s="88"/>
+      <c r="AV67" s="56"/>
       <c r="AW67" s="17"/>
       <c r="AX67" s="17"/>
-      <c r="AY67" s="56"/>
+      <c r="AY67" s="17"/>
       <c r="AZ67" s="17"/>
       <c r="BA67" s="17"/>
       <c r="BB67" s="17"/>
-      <c r="BC67" s="17"/>
-      <c r="BD67" s="17"/>
-      <c r="BE67" s="17"/>
-    </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="17"/>
@@ -6938,43 +6697,40 @@
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="125"/>
-      <c r="AA68" s="127"/>
-      <c r="AB68" s="127"/>
+      <c r="W68" s="125"/>
+      <c r="X68" s="127"/>
+      <c r="Y68" s="127"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="17"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="17"/>
       <c r="AH68" s="17"/>
-      <c r="AI68" s="17"/>
+      <c r="AI68" s="88"/>
       <c r="AJ68" s="17"/>
       <c r="AK68" s="17"/>
-      <c r="AL68" s="88"/>
+      <c r="AL68" s="17"/>
       <c r="AM68" s="17"/>
       <c r="AN68" s="17"/>
       <c r="AO68" s="17"/>
       <c r="AP68" s="17"/>
       <c r="AQ68" s="17"/>
       <c r="AR68" s="17"/>
-      <c r="AS68" s="17"/>
+      <c r="AS68" s="88"/>
       <c r="AT68" s="17"/>
       <c r="AU68" s="17"/>
-      <c r="AV68" s="88"/>
+      <c r="AV68" s="56"/>
       <c r="AW68" s="17"/>
       <c r="AX68" s="17"/>
-      <c r="AY68" s="56"/>
+      <c r="AY68" s="17"/>
       <c r="AZ68" s="17"/>
       <c r="BA68" s="17"/>
       <c r="BB68" s="17"/>
-      <c r="BC68" s="17"/>
-      <c r="BD68" s="17"/>
-      <c r="BE68" s="17"/>
-    </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="17"/>
@@ -6997,49 +6753,46 @@
       <c r="T69" s="17"/>
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
-      <c r="Z69" s="125"/>
-      <c r="AA69" s="127"/>
-      <c r="AB69" s="127"/>
+      <c r="W69" s="125"/>
+      <c r="X69" s="127"/>
+      <c r="Y69" s="127"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="17"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="17"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="17"/>
       <c r="AH69" s="17"/>
-      <c r="AI69" s="17"/>
+      <c r="AI69" s="88"/>
       <c r="AJ69" s="17"/>
       <c r="AK69" s="17"/>
-      <c r="AL69" s="88"/>
+      <c r="AL69" s="17"/>
       <c r="AM69" s="17"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
       <c r="AP69" s="17"/>
       <c r="AQ69" s="17"/>
       <c r="AR69" s="17"/>
-      <c r="AS69" s="17"/>
+      <c r="AS69" s="88"/>
       <c r="AT69" s="17"/>
       <c r="AU69" s="17"/>
-      <c r="AV69" s="88"/>
+      <c r="AV69" s="56"/>
       <c r="AW69" s="17"/>
       <c r="AX69" s="17"/>
-      <c r="AY69" s="56"/>
+      <c r="AY69" s="17"/>
       <c r="AZ69" s="17"/>
       <c r="BA69" s="17"/>
       <c r="BB69" s="17"/>
-      <c r="BC69" s="17"/>
-      <c r="BD69" s="17"/>
-      <c r="BE69" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BD3" xr:uid="{67E1BDB7-2277-490D-9106-C9CFE26B9B97}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BD17">
-      <sortCondition ref="AJ3"/>
+  <autoFilter ref="A3:BA3" xr:uid="{67E1BDB7-2277-490D-9106-C9CFE26B9B97}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BA17">
+      <sortCondition ref="AG3"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AP4:AP15">
+  <conditionalFormatting sqref="AM4:AM15">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -7053,7 +6806,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AJ15">
+  <conditionalFormatting sqref="AG4:AG15">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -7067,7 +6820,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ4:AZ15">
+  <conditionalFormatting sqref="AW4:AW15">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -7097,7 +6850,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AP4:AP15</xm:sqref>
+          <xm:sqref>AM4:AM15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C34E7DAB-652C-4B36-B114-7F814644B994}">
@@ -7110,7 +6863,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AJ4:AJ15</xm:sqref>
+          <xm:sqref>AG4:AG15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EADD7F18-A659-409D-9FBE-C50F1D2E389A}">
@@ -7123,7 +6876,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AZ4:AZ15</xm:sqref>
+          <xm:sqref>AW4:AW15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7175,59 +6928,59 @@
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="164" t="s">
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="164" t="s">
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="164" t="s">
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="168" t="s">
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="164" t="s">
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="164" t="s">
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="167" t="s">
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="165"/>
+      <c r="AI1" s="167"/>
       <c r="AJ1" s="148"/>
     </row>
     <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>17</v>
@@ -7242,7 +6995,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="148" t="s">
         <v>21</v>
@@ -7254,7 +7007,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="148" t="s">
         <v>21</v>
@@ -7266,7 +7019,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O2" s="148" t="s">
         <v>21</v>
@@ -7278,7 +7031,7 @@
         <v>20</v>
       </c>
       <c r="R2" s="147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S2" s="148" t="s">
         <v>29</v>
@@ -7290,7 +7043,7 @@
         <v>20</v>
       </c>
       <c r="V2" s="147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W2" s="31" t="s">
         <v>21</v>
@@ -7302,7 +7055,7 @@
         <v>20</v>
       </c>
       <c r="Z2" s="147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="32" t="s">
         <v>21</v>
@@ -7317,7 +7070,7 @@
         <v>20</v>
       </c>
       <c r="AE2" s="147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="32" t="s">
         <v>21</v>
@@ -7326,7 +7079,7 @@
         <v>22</v>
       </c>
       <c r="AH2" s="149" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI2" s="150" t="s">
         <v>30</v>
@@ -7337,13 +7090,13 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="54">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="35">
         <v>12062.63992209041</v>
@@ -7418,7 +7171,7 @@
         <v>30</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="55">
         <v>30.0073177005508</v>
@@ -7433,7 +7186,7 @@
         <v>30</v>
       </c>
       <c r="AG3" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH3" s="41">
         <v>0</v>
@@ -7445,13 +7198,13 @@
     </row>
     <row r="4" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="54">
         <v>30</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="35">
         <v>31726.73912052848</v>
@@ -7526,7 +7279,7 @@
         <v>30</v>
       </c>
       <c r="AB4" s="155" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="55">
         <v>16.050182467365801</v>
@@ -7541,7 +7294,7 @@
         <v>30</v>
       </c>
       <c r="AG4" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH4" s="41">
         <v>0</v>
@@ -7553,13 +7306,13 @@
     </row>
     <row r="5" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="54">
         <v>30</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="35">
         <v>74339.27392691889</v>
@@ -7634,7 +7387,7 @@
         <v>30</v>
       </c>
       <c r="AB5" s="155" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC5" s="158">
         <v>18.656005144144579</v>
@@ -7649,7 +7402,7 @@
         <v>30</v>
       </c>
       <c r="AG5" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH5" s="41">
         <v>0</v>
@@ -7661,13 +7414,13 @@
     </row>
     <row r="6" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="54">
         <v>30</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="35">
         <v>30286.68362262753</v>
@@ -7742,7 +7495,7 @@
         <v>30</v>
       </c>
       <c r="AB6" s="155" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC6" s="158">
         <v>30.415799504610241</v>
@@ -7757,7 +7510,7 @@
         <v>30</v>
       </c>
       <c r="AG6" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH6" s="41">
         <v>0</v>
@@ -7769,13 +7522,13 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="54">
         <v>30</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="35">
         <v>90380.749658452391</v>
@@ -7850,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="159" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC7" s="55">
         <v>0</v>
@@ -7865,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="159" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AH7" s="41">
         <v>0</v>
@@ -7877,13 +7630,13 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="54">
         <v>30</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="35">
         <v>38367.755522799103</v>
@@ -7958,7 +7711,7 @@
         <v>30</v>
       </c>
       <c r="AB8" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC8" s="55">
         <v>19.531892171745969</v>
@@ -7973,7 +7726,7 @@
         <v>30</v>
       </c>
       <c r="AG8" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH8" s="41">
         <v>0</v>
@@ -7985,13 +7738,13 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="54">
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="35">
         <v>95452.544333437036</v>
@@ -8066,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="159" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC9" s="55">
         <v>0</v>
@@ -8081,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="159" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AH9" s="41">
         <v>0</v>
@@ -8093,13 +7846,13 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="54">
         <v>7</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="35">
         <v>79442.132835689059</v>
@@ -8174,7 +7927,7 @@
         <v>30</v>
       </c>
       <c r="AB10" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC10" s="158">
         <v>0</v>
@@ -8189,7 +7942,7 @@
         <v>30</v>
       </c>
       <c r="AG10" s="160" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH10" s="41">
         <v>0</v>
@@ -8201,13 +7954,13 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="54">
         <v>60</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="35">
         <v>11784.935034954</v>
@@ -8282,7 +8035,7 @@
         <v>30</v>
       </c>
       <c r="AB11" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC11" s="55">
         <v>19.624181369751931</v>
@@ -8297,7 +8050,7 @@
         <v>30</v>
       </c>
       <c r="AG11" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH11" s="41">
         <v>0</v>
@@ -8309,13 +8062,13 @@
     </row>
     <row r="12" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="54">
         <v>7</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="35">
         <v>111306.36549716871</v>
@@ -8390,7 +8143,7 @@
         <v>30</v>
       </c>
       <c r="AB12" s="155" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC12" s="55">
         <v>0</v>
@@ -8405,7 +8158,7 @@
         <v>30</v>
       </c>
       <c r="AG12" s="160" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH12" s="41">
         <v>0</v>
@@ -8417,13 +8170,13 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="54">
         <v>60</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="35">
         <v>22773.095105918001</v>
@@ -8498,7 +8251,7 @@
         <v>30</v>
       </c>
       <c r="AB13" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC13" s="55">
         <v>123.9485172777398</v>
@@ -8513,7 +8266,7 @@
         <v>60</v>
       </c>
       <c r="AG13" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH13" s="41">
         <v>0.95078663597528368</v>
@@ -8525,13 +8278,13 @@
     </row>
     <row r="14" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="54">
         <v>30</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="35">
         <v>70704.758778128322</v>
@@ -8606,7 +8359,7 @@
         <v>30</v>
       </c>
       <c r="AB14" s="155" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AC14" s="55">
         <v>0</v>
@@ -8621,7 +8374,7 @@
         <v>30</v>
       </c>
       <c r="AG14" s="155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH14" s="41">
         <v>0</v>
@@ -8781,7 +8534,7 @@
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8867,7 +8620,7 @@
   <sheetData>
     <row r="1" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="71" t="s">
         <v>39</v>
@@ -8882,16 +8635,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="121" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="5">
         <v>43709</v>
@@ -12175,16 +11928,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="121" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="5">
         <v>43709</v>
@@ -35919,7 +35672,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:FC251"/>
+  <dimension ref="A1:FB251"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -35931,67 +35684,67 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="40.6328125" customWidth="1"/>
-    <col min="3" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="45" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="69" max="71" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="95" max="97" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="44" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="80" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="94" max="96" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:158" x14ac:dyDescent="0.35">
       <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="120"/>
+      <c r="F1" s="118" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:159" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:158" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -35999,633 +35752,631 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>58</v>
+      <c r="F2" s="5">
+        <v>43709</v>
       </c>
       <c r="G2" s="5">
-        <v>43709</v>
+        <f>F2+1</f>
+        <v>43710</v>
       </c>
       <c r="H2" s="5">
-        <f>G2+1</f>
-        <v>43710</v>
+        <f t="shared" ref="H2:AI2" si="0">G2+1</f>
+        <v>43711</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:AJ2" si="0">H2+1</f>
-        <v>43711</v>
+        <f t="shared" si="0"/>
+        <v>43712</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" si="0"/>
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" si="0"/>
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" si="0"/>
-        <v>43714</v>
+        <v>43715</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" si="0"/>
-        <v>43715</v>
+        <v>43716</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" si="0"/>
-        <v>43716</v>
+        <v>43717</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" si="0"/>
-        <v>43717</v>
+        <v>43718</v>
       </c>
       <c r="P2" s="5">
         <f t="shared" si="0"/>
-        <v>43718</v>
+        <v>43719</v>
       </c>
       <c r="Q2" s="5">
         <f t="shared" si="0"/>
-        <v>43719</v>
+        <v>43720</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" si="0"/>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="S2" s="5">
         <f t="shared" si="0"/>
-        <v>43721</v>
+        <v>43722</v>
       </c>
       <c r="T2" s="5">
         <f t="shared" si="0"/>
-        <v>43722</v>
+        <v>43723</v>
       </c>
       <c r="U2" s="5">
         <f t="shared" si="0"/>
-        <v>43723</v>
+        <v>43724</v>
       </c>
       <c r="V2" s="5">
         <f t="shared" si="0"/>
-        <v>43724</v>
+        <v>43725</v>
       </c>
       <c r="W2" s="5">
         <f t="shared" si="0"/>
-        <v>43725</v>
+        <v>43726</v>
       </c>
       <c r="X2" s="5">
         <f t="shared" si="0"/>
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="Y2" s="5">
         <f t="shared" si="0"/>
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="Z2" s="5">
         <f t="shared" si="0"/>
-        <v>43728</v>
+        <v>43729</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" si="0"/>
-        <v>43729</v>
+        <v>43730</v>
       </c>
       <c r="AB2" s="5">
         <f t="shared" si="0"/>
-        <v>43730</v>
+        <v>43731</v>
       </c>
       <c r="AC2" s="5">
         <f t="shared" si="0"/>
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="AD2" s="5">
         <f t="shared" si="0"/>
-        <v>43732</v>
+        <v>43733</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" si="0"/>
-        <v>43733</v>
+        <v>43734</v>
       </c>
       <c r="AF2" s="5">
         <f t="shared" si="0"/>
-        <v>43734</v>
+        <v>43735</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" si="0"/>
-        <v>43735</v>
+        <v>43736</v>
       </c>
       <c r="AH2" s="5">
         <f t="shared" si="0"/>
-        <v>43736</v>
-      </c>
-      <c r="AI2" s="5">
-        <f t="shared" si="0"/>
         <v>43737</v>
       </c>
-      <c r="AJ2" s="70">
+      <c r="AI2" s="70">
         <f t="shared" si="0"/>
         <v>43738</v>
       </c>
+      <c r="AJ2" s="70">
+        <f>AI2+1</f>
+        <v>43739</v>
+      </c>
       <c r="AK2" s="70">
-        <f>AJ2+1</f>
-        <v>43739</v>
+        <f t="shared" ref="AK2:CV2" si="1">AJ2+1</f>
+        <v>43740</v>
       </c>
       <c r="AL2" s="70">
-        <f t="shared" ref="AL2:CW2" si="1">AK2+1</f>
-        <v>43740</v>
+        <f t="shared" si="1"/>
+        <v>43741</v>
       </c>
       <c r="AM2" s="70">
         <f t="shared" si="1"/>
-        <v>43741</v>
+        <v>43742</v>
       </c>
       <c r="AN2" s="70">
         <f t="shared" si="1"/>
-        <v>43742</v>
+        <v>43743</v>
       </c>
       <c r="AO2" s="70">
         <f t="shared" si="1"/>
-        <v>43743</v>
+        <v>43744</v>
       </c>
       <c r="AP2" s="70">
         <f t="shared" si="1"/>
-        <v>43744</v>
+        <v>43745</v>
       </c>
       <c r="AQ2" s="70">
         <f t="shared" si="1"/>
-        <v>43745</v>
+        <v>43746</v>
       </c>
       <c r="AR2" s="70">
         <f t="shared" si="1"/>
-        <v>43746</v>
+        <v>43747</v>
       </c>
       <c r="AS2" s="70">
         <f t="shared" si="1"/>
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="AT2" s="70">
         <f t="shared" si="1"/>
-        <v>43748</v>
+        <v>43749</v>
       </c>
       <c r="AU2" s="70">
         <f t="shared" si="1"/>
-        <v>43749</v>
+        <v>43750</v>
       </c>
       <c r="AV2" s="70">
         <f t="shared" si="1"/>
-        <v>43750</v>
+        <v>43751</v>
       </c>
       <c r="AW2" s="70">
         <f t="shared" si="1"/>
-        <v>43751</v>
+        <v>43752</v>
       </c>
       <c r="AX2" s="70">
         <f t="shared" si="1"/>
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="AY2" s="70">
         <f t="shared" si="1"/>
-        <v>43753</v>
+        <v>43754</v>
       </c>
       <c r="AZ2" s="70">
         <f t="shared" si="1"/>
-        <v>43754</v>
+        <v>43755</v>
       </c>
       <c r="BA2" s="70">
         <f t="shared" si="1"/>
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="BB2" s="70">
         <f t="shared" si="1"/>
-        <v>43756</v>
+        <v>43757</v>
       </c>
       <c r="BC2" s="70">
         <f t="shared" si="1"/>
-        <v>43757</v>
+        <v>43758</v>
       </c>
       <c r="BD2" s="70">
         <f t="shared" si="1"/>
-        <v>43758</v>
+        <v>43759</v>
       </c>
       <c r="BE2" s="70">
         <f t="shared" si="1"/>
-        <v>43759</v>
+        <v>43760</v>
       </c>
       <c r="BF2" s="70">
         <f t="shared" si="1"/>
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="BG2" s="70">
         <f t="shared" si="1"/>
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="BH2" s="70">
         <f t="shared" si="1"/>
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="BI2" s="70">
         <f t="shared" si="1"/>
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="BJ2" s="70">
         <f t="shared" si="1"/>
-        <v>43764</v>
+        <v>43765</v>
       </c>
       <c r="BK2" s="70">
         <f t="shared" si="1"/>
-        <v>43765</v>
+        <v>43766</v>
       </c>
       <c r="BL2" s="70">
         <f t="shared" si="1"/>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="BM2" s="70">
         <f t="shared" si="1"/>
-        <v>43767</v>
+        <v>43768</v>
       </c>
       <c r="BN2" s="70">
         <f t="shared" si="1"/>
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="BO2" s="70">
         <f t="shared" si="1"/>
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="BP2" s="70">
         <f t="shared" si="1"/>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="BQ2" s="70">
         <f t="shared" si="1"/>
-        <v>43771</v>
+        <v>43772</v>
       </c>
       <c r="BR2" s="70">
         <f t="shared" si="1"/>
-        <v>43772</v>
+        <v>43773</v>
       </c>
       <c r="BS2" s="70">
         <f t="shared" si="1"/>
-        <v>43773</v>
+        <v>43774</v>
       </c>
       <c r="BT2" s="70">
         <f t="shared" si="1"/>
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="BU2" s="70">
         <f t="shared" si="1"/>
-        <v>43775</v>
+        <v>43776</v>
       </c>
       <c r="BV2" s="70">
         <f t="shared" si="1"/>
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="BW2" s="70">
         <f t="shared" si="1"/>
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="BX2" s="70">
         <f t="shared" si="1"/>
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="BY2" s="70">
         <f t="shared" si="1"/>
-        <v>43779</v>
+        <v>43780</v>
       </c>
       <c r="BZ2" s="70">
         <f t="shared" si="1"/>
-        <v>43780</v>
+        <v>43781</v>
       </c>
       <c r="CA2" s="70">
         <f t="shared" si="1"/>
-        <v>43781</v>
+        <v>43782</v>
       </c>
       <c r="CB2" s="70">
         <f t="shared" si="1"/>
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="CC2" s="70">
         <f t="shared" si="1"/>
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="CD2" s="70">
         <f t="shared" si="1"/>
-        <v>43784</v>
+        <v>43785</v>
       </c>
       <c r="CE2" s="70">
         <f t="shared" si="1"/>
-        <v>43785</v>
+        <v>43786</v>
       </c>
       <c r="CF2" s="70">
         <f t="shared" si="1"/>
-        <v>43786</v>
+        <v>43787</v>
       </c>
       <c r="CG2" s="70">
         <f t="shared" si="1"/>
-        <v>43787</v>
+        <v>43788</v>
       </c>
       <c r="CH2" s="70">
         <f t="shared" si="1"/>
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="CI2" s="70">
         <f t="shared" si="1"/>
-        <v>43789</v>
+        <v>43790</v>
       </c>
       <c r="CJ2" s="70">
         <f t="shared" si="1"/>
-        <v>43790</v>
+        <v>43791</v>
       </c>
       <c r="CK2" s="70">
         <f t="shared" si="1"/>
-        <v>43791</v>
+        <v>43792</v>
       </c>
       <c r="CL2" s="70">
         <f t="shared" si="1"/>
-        <v>43792</v>
+        <v>43793</v>
       </c>
       <c r="CM2" s="70">
         <f t="shared" si="1"/>
-        <v>43793</v>
+        <v>43794</v>
       </c>
       <c r="CN2" s="70">
         <f t="shared" si="1"/>
-        <v>43794</v>
+        <v>43795</v>
       </c>
       <c r="CO2" s="70">
         <f t="shared" si="1"/>
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="CP2" s="70">
         <f t="shared" si="1"/>
-        <v>43796</v>
+        <v>43797</v>
       </c>
       <c r="CQ2" s="70">
         <f t="shared" si="1"/>
-        <v>43797</v>
+        <v>43798</v>
       </c>
       <c r="CR2" s="70">
         <f t="shared" si="1"/>
-        <v>43798</v>
+        <v>43799</v>
       </c>
       <c r="CS2" s="70">
         <f t="shared" si="1"/>
-        <v>43799</v>
+        <v>43800</v>
       </c>
       <c r="CT2" s="70">
         <f t="shared" si="1"/>
-        <v>43800</v>
+        <v>43801</v>
       </c>
       <c r="CU2" s="70">
         <f t="shared" si="1"/>
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="CV2" s="70">
         <f t="shared" si="1"/>
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="CW2" s="70">
-        <f t="shared" si="1"/>
-        <v>43803</v>
+        <f t="shared" ref="CW2:FB2" si="2">CV2+1</f>
+        <v>43804</v>
       </c>
       <c r="CX2" s="70">
-        <f t="shared" ref="CX2:FC2" si="2">CW2+1</f>
-        <v>43804</v>
+        <f t="shared" si="2"/>
+        <v>43805</v>
       </c>
       <c r="CY2" s="70">
         <f t="shared" si="2"/>
-        <v>43805</v>
+        <v>43806</v>
       </c>
       <c r="CZ2" s="70">
         <f t="shared" si="2"/>
-        <v>43806</v>
+        <v>43807</v>
       </c>
       <c r="DA2" s="70">
         <f t="shared" si="2"/>
-        <v>43807</v>
+        <v>43808</v>
       </c>
       <c r="DB2" s="70">
         <f t="shared" si="2"/>
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="DC2" s="70">
         <f t="shared" si="2"/>
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="DD2" s="70">
         <f t="shared" si="2"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="DE2" s="70">
         <f t="shared" si="2"/>
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="DF2" s="70">
         <f t="shared" si="2"/>
-        <v>43812</v>
+        <v>43813</v>
       </c>
       <c r="DG2" s="70">
         <f t="shared" si="2"/>
-        <v>43813</v>
+        <v>43814</v>
       </c>
       <c r="DH2" s="70">
         <f t="shared" si="2"/>
-        <v>43814</v>
+        <v>43815</v>
       </c>
       <c r="DI2" s="70">
         <f t="shared" si="2"/>
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="DJ2" s="70">
         <f t="shared" si="2"/>
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="DK2" s="70">
         <f t="shared" si="2"/>
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="DL2" s="70">
         <f t="shared" si="2"/>
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="DM2" s="70">
         <f t="shared" si="2"/>
-        <v>43819</v>
+        <v>43820</v>
       </c>
       <c r="DN2" s="70">
         <f t="shared" si="2"/>
-        <v>43820</v>
+        <v>43821</v>
       </c>
       <c r="DO2" s="70">
         <f t="shared" si="2"/>
-        <v>43821</v>
+        <v>43822</v>
       </c>
       <c r="DP2" s="70">
         <f t="shared" si="2"/>
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="DQ2" s="70">
         <f t="shared" si="2"/>
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="DR2" s="70">
         <f t="shared" si="2"/>
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="DS2" s="70">
         <f t="shared" si="2"/>
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="DT2" s="70">
         <f t="shared" si="2"/>
-        <v>43826</v>
+        <v>43827</v>
       </c>
       <c r="DU2" s="70">
         <f t="shared" si="2"/>
-        <v>43827</v>
+        <v>43828</v>
       </c>
       <c r="DV2" s="70">
         <f t="shared" si="2"/>
-        <v>43828</v>
+        <v>43829</v>
       </c>
       <c r="DW2" s="70">
         <f t="shared" si="2"/>
-        <v>43829</v>
+        <v>43830</v>
       </c>
       <c r="DX2" s="70">
         <f t="shared" si="2"/>
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="DY2" s="70">
         <f t="shared" si="2"/>
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="DZ2" s="70">
         <f t="shared" si="2"/>
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="EA2" s="70">
         <f t="shared" si="2"/>
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="EB2" s="70">
         <f t="shared" si="2"/>
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="EC2" s="70">
         <f t="shared" si="2"/>
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="ED2" s="70">
         <f t="shared" si="2"/>
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="EE2" s="70">
         <f t="shared" si="2"/>
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="EF2" s="70">
         <f t="shared" si="2"/>
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="EG2" s="70">
         <f t="shared" si="2"/>
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="EH2" s="70">
         <f t="shared" si="2"/>
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="EI2" s="70">
         <f t="shared" si="2"/>
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="EJ2" s="70">
         <f t="shared" si="2"/>
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="EK2" s="70">
         <f t="shared" si="2"/>
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="EL2" s="70">
         <f t="shared" si="2"/>
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="EM2" s="70">
         <f t="shared" si="2"/>
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="EN2" s="70">
         <f t="shared" si="2"/>
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="EO2" s="70">
         <f t="shared" si="2"/>
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="EP2" s="70">
         <f t="shared" si="2"/>
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="EQ2" s="70">
         <f t="shared" si="2"/>
-        <v>43849</v>
+        <v>43850</v>
       </c>
       <c r="ER2" s="70">
         <f t="shared" si="2"/>
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="ES2" s="70">
         <f t="shared" si="2"/>
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="ET2" s="70">
         <f t="shared" si="2"/>
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="EU2" s="70">
         <f t="shared" si="2"/>
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="EV2" s="70">
         <f t="shared" si="2"/>
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="EW2" s="70">
         <f t="shared" si="2"/>
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="EX2" s="70">
         <f t="shared" si="2"/>
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="EY2" s="70">
         <f t="shared" si="2"/>
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="EZ2" s="70">
         <f t="shared" si="2"/>
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="FA2" s="70">
         <f t="shared" si="2"/>
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="FB2" s="70">
         <f t="shared" si="2"/>
-        <v>43860</v>
-      </c>
-      <c r="FC2" s="70">
-        <f t="shared" si="2"/>
         <v>43861</v>
       </c>
     </row>
-    <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="F3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -36717,12 +36468,12 @@
       <c r="CQ3"/>
       <c r="CR3"/>
       <c r="CS3"/>
-      <c r="CT3"/>
-    </row>
-    <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -36814,12 +36565,12 @@
       <c r="CQ4"/>
       <c r="CR4"/>
       <c r="CS4"/>
-      <c r="CT4"/>
-    </row>
-    <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="F5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -36911,12 +36662,12 @@
       <c r="CQ5"/>
       <c r="CR5"/>
       <c r="CS5"/>
-      <c r="CT5"/>
-    </row>
-    <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="F6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -37008,12 +36759,12 @@
       <c r="CQ6"/>
       <c r="CR6"/>
       <c r="CS6"/>
-      <c r="CT6"/>
-    </row>
-    <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="F7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -37105,12 +36856,12 @@
       <c r="CQ7"/>
       <c r="CR7"/>
       <c r="CS7"/>
-      <c r="CT7"/>
-    </row>
-    <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="F8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -37202,12 +36953,12 @@
       <c r="CQ8"/>
       <c r="CR8"/>
       <c r="CS8"/>
-      <c r="CT8"/>
-    </row>
-    <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="F9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -37299,12 +37050,12 @@
       <c r="CQ9"/>
       <c r="CR9"/>
       <c r="CS9"/>
-      <c r="CT9"/>
-    </row>
-    <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="F10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -37396,12 +37147,12 @@
       <c r="CQ10"/>
       <c r="CR10"/>
       <c r="CS10"/>
-      <c r="CT10"/>
-    </row>
-    <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="F11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -37473,8 +37224,8 @@
       <c r="BW11"/>
       <c r="BX11"/>
       <c r="BY11"/>
-      <c r="BZ11"/>
-      <c r="CA11" s="108"/>
+      <c r="BZ11" s="108"/>
+      <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
@@ -37493,12 +37244,12 @@
       <c r="CQ11"/>
       <c r="CR11"/>
       <c r="CS11"/>
-      <c r="CT11"/>
-    </row>
-    <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="F12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -37590,12 +37341,12 @@
       <c r="CQ12"/>
       <c r="CR12"/>
       <c r="CS12"/>
-      <c r="CT12"/>
-    </row>
-    <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="F13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -37687,12 +37438,12 @@
       <c r="CQ13"/>
       <c r="CR13"/>
       <c r="CS13"/>
-      <c r="CT13"/>
-    </row>
-    <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="F14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -37784,12 +37535,12 @@
       <c r="CQ14"/>
       <c r="CR14"/>
       <c r="CS14"/>
-      <c r="CT14"/>
-    </row>
-    <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="F15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -37881,1189 +37632,1188 @@
       <c r="CQ15"/>
       <c r="CR15"/>
       <c r="CS15"/>
-      <c r="CT15"/>
-    </row>
-    <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="119"/>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="122"/>
+      <c r="F16" s="119"/>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="119"/>
-    </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="122"/>
+      <c r="F17" s="119"/>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="G19" s="72"/>
-    </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="72"/>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="72"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="72"/>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="G22" s="72"/>
-    </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="72"/>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="G23" s="72"/>
-    </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="72"/>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="G24" s="72"/>
-    </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="72"/>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
-      <c r="G25" s="72"/>
-    </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="72"/>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
-      <c r="G26" s="72"/>
-    </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="72"/>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="G27" s="72"/>
-    </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="72"/>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="G28" s="72"/>
-    </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="72"/>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="G29" s="72"/>
-    </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="72"/>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="G30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="72"/>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="G31" s="72"/>
-    </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="72"/>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="G32" s="72"/>
-    </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="72"/>
+    </row>
+    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
-      <c r="G33" s="72"/>
-    </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="72"/>
+    </row>
+    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
-      <c r="G34" s="72"/>
-    </row>
-    <row r="35" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="72"/>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
-      <c r="G35" s="72"/>
-    </row>
-    <row r="36" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="72"/>
+    </row>
+    <row r="36" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
-      <c r="G36" s="72"/>
-    </row>
-    <row r="37" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="72"/>
+    </row>
+    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="G37" s="72"/>
-    </row>
-    <row r="38" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="72"/>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
-      <c r="G38" s="72"/>
-    </row>
-    <row r="39" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="72"/>
+    </row>
+    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
-      <c r="G39" s="72"/>
-    </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="72"/>
+    </row>
+    <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="G40" s="72"/>
-    </row>
-    <row r="41" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="72"/>
+    </row>
+    <row r="41" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
-      <c r="G41" s="72"/>
-    </row>
-    <row r="42" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="72"/>
+    </row>
+    <row r="42" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
-      <c r="G42" s="72"/>
-    </row>
-    <row r="43" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="72"/>
+    </row>
+    <row r="43" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
-      <c r="G43" s="72"/>
-    </row>
-    <row r="44" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="72"/>
+    </row>
+    <row r="44" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
-      <c r="G44" s="72"/>
-    </row>
-    <row r="45" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="72"/>
+    </row>
+    <row r="45" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
-      <c r="G45" s="72"/>
-    </row>
-    <row r="46" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="72"/>
+    </row>
+    <row r="46" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
-      <c r="G46" s="72"/>
-    </row>
-    <row r="47" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="72"/>
+    </row>
+    <row r="47" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
-      <c r="G47" s="72"/>
-    </row>
-    <row r="48" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="72"/>
+    </row>
+    <row r="48" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
-      <c r="G48" s="72"/>
-    </row>
-    <row r="49" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="72"/>
+    </row>
+    <row r="49" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49"/>
-      <c r="G49" s="72"/>
-    </row>
-    <row r="50" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="72"/>
+    </row>
+    <row r="50" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50"/>
-      <c r="G50" s="72"/>
-    </row>
-    <row r="51" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="72"/>
+    </row>
+    <row r="51" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51"/>
-      <c r="G51" s="72"/>
-    </row>
-    <row r="52" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F51" s="72"/>
+    </row>
+    <row r="52" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52"/>
-      <c r="G52" s="72"/>
-    </row>
-    <row r="53" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="72"/>
+    </row>
+    <row r="53" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
-      <c r="G53" s="72"/>
-    </row>
-    <row r="54" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="72"/>
+    </row>
+    <row r="54" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
-      <c r="G54" s="72"/>
-    </row>
-    <row r="55" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="72"/>
+    </row>
+    <row r="55" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
-      <c r="G55" s="72"/>
-    </row>
-    <row r="56" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F55" s="72"/>
+    </row>
+    <row r="56" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
-      <c r="G56" s="72"/>
-    </row>
-    <row r="57" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="72"/>
+    </row>
+    <row r="57" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57"/>
-      <c r="G57" s="72"/>
-    </row>
-    <row r="58" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F57" s="72"/>
+    </row>
+    <row r="58" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="B58"/>
-      <c r="G58" s="72"/>
-    </row>
-    <row r="59" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="72"/>
+    </row>
+    <row r="59" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59"/>
-      <c r="G59" s="72"/>
-    </row>
-    <row r="60" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F59" s="72"/>
+    </row>
+    <row r="60" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60"/>
-      <c r="G60" s="72"/>
-    </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F60" s="72"/>
+    </row>
+    <row r="61" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61"/>
       <c r="B61"/>
-      <c r="G61" s="72"/>
-    </row>
-    <row r="62" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="72"/>
+    </row>
+    <row r="62" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="B62"/>
-      <c r="G62" s="72"/>
-    </row>
-    <row r="63" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="72"/>
+    </row>
+    <row r="63" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="B63"/>
-      <c r="G63" s="72"/>
-    </row>
-    <row r="64" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F63" s="72"/>
+    </row>
+    <row r="64" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
-      <c r="G64" s="72"/>
-    </row>
-    <row r="65" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F64" s="72"/>
+    </row>
+    <row r="65" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
-      <c r="G65" s="72"/>
-    </row>
-    <row r="66" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F65" s="72"/>
+    </row>
+    <row r="66" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
-      <c r="G66" s="72"/>
-    </row>
-    <row r="67" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F66" s="72"/>
+    </row>
+    <row r="67" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
-      <c r="G67" s="72"/>
-    </row>
-    <row r="68" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F67" s="72"/>
+    </row>
+    <row r="68" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
-      <c r="G68" s="72"/>
-    </row>
-    <row r="69" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F68" s="72"/>
+    </row>
+    <row r="69" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
-      <c r="G69" s="72"/>
-    </row>
-    <row r="70" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F69" s="72"/>
+    </row>
+    <row r="70" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
-      <c r="G70" s="72"/>
-    </row>
-    <row r="71" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F70" s="72"/>
+    </row>
+    <row r="71" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
-      <c r="G71" s="72"/>
-    </row>
-    <row r="72" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F71" s="72"/>
+    </row>
+    <row r="72" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
-      <c r="G72" s="72"/>
-    </row>
-    <row r="73" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F72" s="72"/>
+    </row>
+    <row r="73" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
-      <c r="G73" s="72"/>
-    </row>
-    <row r="74" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F73" s="72"/>
+    </row>
+    <row r="74" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
-      <c r="G74" s="72"/>
-    </row>
-    <row r="75" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F74" s="72"/>
+    </row>
+    <row r="75" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
-      <c r="G75" s="72"/>
-    </row>
-    <row r="76" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F75" s="72"/>
+    </row>
+    <row r="76" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
-      <c r="G76" s="72"/>
-    </row>
-    <row r="77" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F76" s="72"/>
+    </row>
+    <row r="77" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
-      <c r="G77" s="72"/>
-    </row>
-    <row r="78" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F77" s="72"/>
+    </row>
+    <row r="78" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
-      <c r="G78" s="72"/>
-    </row>
-    <row r="79" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F78" s="72"/>
+    </row>
+    <row r="79" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
-      <c r="G79" s="72"/>
-    </row>
-    <row r="80" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F79" s="72"/>
+    </row>
+    <row r="80" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
-      <c r="G80" s="72"/>
-    </row>
-    <row r="81" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F80" s="72"/>
+    </row>
+    <row r="81" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
-      <c r="G81" s="72"/>
-    </row>
-    <row r="82" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F81" s="72"/>
+    </row>
+    <row r="82" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
-      <c r="G82" s="72"/>
-    </row>
-    <row r="83" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F82" s="72"/>
+    </row>
+    <row r="83" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
-      <c r="G83" s="72"/>
-    </row>
-    <row r="84" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F83" s="72"/>
+    </row>
+    <row r="84" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
-      <c r="G84" s="72"/>
-    </row>
-    <row r="85" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F84" s="72"/>
+    </row>
+    <row r="85" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
-      <c r="G85" s="72"/>
-    </row>
-    <row r="86" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F85" s="72"/>
+    </row>
+    <row r="86" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
-      <c r="G86" s="72"/>
-    </row>
-    <row r="87" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F86" s="72"/>
+    </row>
+    <row r="87" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
-      <c r="G87" s="72"/>
-    </row>
-    <row r="88" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F87" s="72"/>
+    </row>
+    <row r="88" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
-      <c r="G88" s="72"/>
-    </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F88" s="72"/>
+    </row>
+    <row r="89" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
-      <c r="G89" s="72"/>
-    </row>
-    <row r="90" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F89" s="72"/>
+    </row>
+    <row r="90" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
-      <c r="G90" s="72"/>
-    </row>
-    <row r="91" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F90" s="72"/>
+    </row>
+    <row r="91" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
-      <c r="G91" s="72"/>
-    </row>
-    <row r="92" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F91" s="72"/>
+    </row>
+    <row r="92" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
-      <c r="G92" s="72"/>
-    </row>
-    <row r="93" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F92" s="72"/>
+    </row>
+    <row r="93" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
-      <c r="G93" s="72"/>
-    </row>
-    <row r="94" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F93" s="72"/>
+    </row>
+    <row r="94" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
-      <c r="G94" s="72"/>
-    </row>
-    <row r="95" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F94" s="72"/>
+    </row>
+    <row r="95" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
-      <c r="G95" s="72"/>
-    </row>
-    <row r="96" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F95" s="72"/>
+    </row>
+    <row r="96" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
-      <c r="G96" s="72"/>
-    </row>
-    <row r="97" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F96" s="72"/>
+    </row>
+    <row r="97" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
-      <c r="G97" s="72"/>
-    </row>
-    <row r="98" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F97" s="72"/>
+    </row>
+    <row r="98" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
-      <c r="G98" s="72"/>
-    </row>
-    <row r="99" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F98" s="72"/>
+    </row>
+    <row r="99" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
-      <c r="G99" s="72"/>
-    </row>
-    <row r="100" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F99" s="72"/>
+    </row>
+    <row r="100" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
-      <c r="G100" s="72"/>
-    </row>
-    <row r="101" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F100" s="72"/>
+    </row>
+    <row r="101" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
-      <c r="G101" s="72"/>
-    </row>
-    <row r="102" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F101" s="72"/>
+    </row>
+    <row r="102" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="G102" s="72"/>
-    </row>
-    <row r="103" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F102" s="72"/>
+    </row>
+    <row r="103" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="G103" s="72"/>
-    </row>
-    <row r="104" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F103" s="72"/>
+    </row>
+    <row r="104" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="G104" s="72"/>
-    </row>
-    <row r="105" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F104" s="72"/>
+    </row>
+    <row r="105" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="G105" s="72"/>
-    </row>
-    <row r="106" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F105" s="72"/>
+    </row>
+    <row r="106" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
-      <c r="G106" s="72"/>
-    </row>
-    <row r="107" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F106" s="72"/>
+    </row>
+    <row r="107" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
-      <c r="G107" s="72"/>
-    </row>
-    <row r="108" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F107" s="72"/>
+    </row>
+    <row r="108" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
-      <c r="G108" s="72"/>
-    </row>
-    <row r="109" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F108" s="72"/>
+    </row>
+    <row r="109" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
-      <c r="G109" s="72"/>
-    </row>
-    <row r="110" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F109" s="72"/>
+    </row>
+    <row r="110" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
-      <c r="G110" s="72"/>
-    </row>
-    <row r="111" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F110" s="72"/>
+    </row>
+    <row r="111" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="G111" s="72"/>
-    </row>
-    <row r="112" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F111" s="72"/>
+    </row>
+    <row r="112" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
-      <c r="G112" s="72"/>
-    </row>
-    <row r="113" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F112" s="72"/>
+    </row>
+    <row r="113" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="G113" s="72"/>
-    </row>
-    <row r="114" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F113" s="72"/>
+    </row>
+    <row r="114" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="G114" s="72"/>
-    </row>
-    <row r="115" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F114" s="72"/>
+    </row>
+    <row r="115" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="G115" s="72"/>
-    </row>
-    <row r="116" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F115" s="72"/>
+    </row>
+    <row r="116" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="G116" s="72"/>
-    </row>
-    <row r="117" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F116" s="72"/>
+    </row>
+    <row r="117" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
-      <c r="G117" s="72"/>
-    </row>
-    <row r="118" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F117" s="72"/>
+    </row>
+    <row r="118" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
-      <c r="G118" s="72"/>
-    </row>
-    <row r="119" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F118" s="72"/>
+    </row>
+    <row r="119" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
-      <c r="G119" s="72"/>
-    </row>
-    <row r="120" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F119" s="72"/>
+    </row>
+    <row r="120" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
-      <c r="G120" s="72"/>
-    </row>
-    <row r="121" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F120" s="72"/>
+    </row>
+    <row r="121" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121"/>
-      <c r="G121" s="72"/>
-    </row>
-    <row r="122" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F121" s="72"/>
+    </row>
+    <row r="122" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="B122"/>
-      <c r="G122" s="72"/>
-    </row>
-    <row r="123" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F122" s="72"/>
+    </row>
+    <row r="123" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123"/>
-      <c r="G123" s="72"/>
-    </row>
-    <row r="124" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F123" s="72"/>
+    </row>
+    <row r="124" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="G124" s="72"/>
-    </row>
-    <row r="125" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F124" s="72"/>
+    </row>
+    <row r="125" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="G125" s="72"/>
-    </row>
-    <row r="126" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F125" s="72"/>
+    </row>
+    <row r="126" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
-      <c r="G126" s="72"/>
-    </row>
-    <row r="127" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F126" s="72"/>
+    </row>
+    <row r="127" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127"/>
-      <c r="G127" s="72"/>
-    </row>
-    <row r="128" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F127" s="72"/>
+    </row>
+    <row r="128" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
-      <c r="G128" s="72"/>
-    </row>
-    <row r="129" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F128" s="72"/>
+    </row>
+    <row r="129" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
-      <c r="G129" s="72"/>
-    </row>
-    <row r="130" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F129" s="72"/>
+    </row>
+    <row r="130" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
-      <c r="G130" s="72"/>
-    </row>
-    <row r="131" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F130" s="72"/>
+    </row>
+    <row r="131" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
-      <c r="G131" s="72"/>
-    </row>
-    <row r="132" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F131" s="72"/>
+    </row>
+    <row r="132" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132"/>
       <c r="B132"/>
-      <c r="G132" s="72"/>
-    </row>
-    <row r="133" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F132" s="72"/>
+    </row>
+    <row r="133" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133"/>
-      <c r="G133" s="72"/>
-    </row>
-    <row r="134" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F133" s="72"/>
+    </row>
+    <row r="134" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134"/>
-      <c r="G134" s="72"/>
-    </row>
-    <row r="135" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F134" s="72"/>
+    </row>
+    <row r="135" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135"/>
-      <c r="G135" s="72"/>
-    </row>
-    <row r="136" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F135" s="72"/>
+    </row>
+    <row r="136" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136"/>
       <c r="B136"/>
-      <c r="G136" s="72"/>
-    </row>
-    <row r="137" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F136" s="72"/>
+    </row>
+    <row r="137" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137"/>
-      <c r="G137" s="72"/>
-    </row>
-    <row r="138" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F137" s="72"/>
+    </row>
+    <row r="138" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
-      <c r="G138" s="72"/>
-    </row>
-    <row r="139" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F138" s="72"/>
+    </row>
+    <row r="139" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139"/>
-      <c r="G139" s="72"/>
-    </row>
-    <row r="140" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F139" s="72"/>
+    </row>
+    <row r="140" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140"/>
       <c r="B140"/>
-      <c r="G140" s="72"/>
-    </row>
-    <row r="141" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F140" s="72"/>
+    </row>
+    <row r="141" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141"/>
-      <c r="G141" s="72"/>
-    </row>
-    <row r="142" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F141" s="72"/>
+    </row>
+    <row r="142" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142"/>
       <c r="B142"/>
-      <c r="G142" s="72"/>
-    </row>
-    <row r="143" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F142" s="72"/>
+    </row>
+    <row r="143" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143"/>
-      <c r="G143" s="72"/>
-    </row>
-    <row r="144" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F143" s="72"/>
+    </row>
+    <row r="144" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144"/>
       <c r="B144"/>
-      <c r="G144" s="72"/>
-    </row>
-    <row r="145" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F144" s="72"/>
+    </row>
+    <row r="145" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145"/>
       <c r="B145"/>
-      <c r="G145" s="72"/>
-    </row>
-    <row r="146" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F145" s="72"/>
+    </row>
+    <row r="146" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146"/>
       <c r="B146"/>
-      <c r="G146" s="72"/>
-    </row>
-    <row r="147" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F146" s="72"/>
+    </row>
+    <row r="147" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147"/>
       <c r="B147"/>
-      <c r="G147" s="72"/>
-    </row>
-    <row r="148" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F147" s="72"/>
+    </row>
+    <row r="148" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148"/>
       <c r="B148"/>
-      <c r="G148" s="72"/>
-    </row>
-    <row r="149" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F148" s="72"/>
+    </row>
+    <row r="149" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149"/>
       <c r="B149"/>
-      <c r="G149" s="72"/>
-    </row>
-    <row r="150" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F149" s="72"/>
+    </row>
+    <row r="150" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150"/>
       <c r="B150"/>
-      <c r="G150" s="72"/>
-    </row>
-    <row r="151" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F150" s="72"/>
+    </row>
+    <row r="151" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151"/>
       <c r="B151"/>
-      <c r="G151" s="72"/>
-    </row>
-    <row r="152" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F151" s="72"/>
+    </row>
+    <row r="152" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152"/>
       <c r="B152"/>
-      <c r="G152" s="72"/>
-    </row>
-    <row r="153" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F152" s="72"/>
+    </row>
+    <row r="153" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153"/>
       <c r="B153"/>
-      <c r="G153" s="72"/>
-    </row>
-    <row r="154" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F153" s="72"/>
+    </row>
+    <row r="154" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154"/>
       <c r="B154"/>
-      <c r="G154" s="72"/>
-    </row>
-    <row r="155" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F154" s="72"/>
+    </row>
+    <row r="155" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155"/>
       <c r="B155"/>
-      <c r="G155" s="72"/>
-    </row>
-    <row r="156" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F155" s="72"/>
+    </row>
+    <row r="156" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156"/>
       <c r="B156"/>
-      <c r="G156" s="72"/>
-    </row>
-    <row r="157" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F156" s="72"/>
+    </row>
+    <row r="157" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157"/>
       <c r="B157"/>
-      <c r="G157" s="72"/>
-    </row>
-    <row r="158" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F157" s="72"/>
+    </row>
+    <row r="158" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158"/>
       <c r="B158"/>
-      <c r="G158" s="72"/>
-    </row>
-    <row r="159" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F158" s="72"/>
+    </row>
+    <row r="159" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159"/>
       <c r="B159"/>
-      <c r="G159" s="72"/>
-    </row>
-    <row r="160" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F159" s="72"/>
+    </row>
+    <row r="160" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160"/>
       <c r="B160"/>
-      <c r="G160" s="72"/>
-    </row>
-    <row r="161" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F160" s="72"/>
+    </row>
+    <row r="161" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161"/>
       <c r="B161"/>
-      <c r="G161" s="72"/>
-    </row>
-    <row r="162" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F161" s="72"/>
+    </row>
+    <row r="162" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162"/>
       <c r="B162"/>
-      <c r="G162" s="72"/>
-    </row>
-    <row r="163" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F162" s="72"/>
+    </row>
+    <row r="163" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163"/>
       <c r="B163"/>
-      <c r="G163" s="72"/>
-    </row>
-    <row r="164" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F163" s="72"/>
+    </row>
+    <row r="164" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164"/>
       <c r="B164"/>
-      <c r="G164" s="72"/>
-    </row>
-    <row r="165" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F164" s="72"/>
+    </row>
+    <row r="165" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165"/>
       <c r="B165"/>
-      <c r="G165" s="72"/>
-    </row>
-    <row r="166" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F165" s="72"/>
+    </row>
+    <row r="166" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166"/>
       <c r="B166"/>
-      <c r="G166" s="72"/>
-    </row>
-    <row r="167" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F166" s="72"/>
+    </row>
+    <row r="167" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167"/>
       <c r="B167"/>
-      <c r="G167" s="72"/>
-    </row>
-    <row r="168" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F167" s="72"/>
+    </row>
+    <row r="168" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168"/>
       <c r="B168"/>
-      <c r="G168" s="72"/>
-    </row>
-    <row r="169" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F168" s="72"/>
+    </row>
+    <row r="169" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169"/>
       <c r="B169"/>
-      <c r="G169" s="72"/>
-    </row>
-    <row r="170" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F169" s="72"/>
+    </row>
+    <row r="170" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170"/>
       <c r="B170"/>
-      <c r="G170" s="72"/>
-    </row>
-    <row r="171" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F170" s="72"/>
+    </row>
+    <row r="171" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171"/>
       <c r="B171"/>
-      <c r="G171" s="72"/>
-    </row>
-    <row r="172" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F171" s="72"/>
+    </row>
+    <row r="172" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172"/>
       <c r="B172"/>
-      <c r="G172" s="72"/>
-    </row>
-    <row r="173" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F172" s="72"/>
+    </row>
+    <row r="173" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173"/>
       <c r="B173"/>
-      <c r="G173" s="72"/>
-    </row>
-    <row r="174" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F173" s="72"/>
+    </row>
+    <row r="174" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174"/>
       <c r="B174"/>
-      <c r="G174" s="72"/>
-    </row>
-    <row r="175" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F174" s="72"/>
+    </row>
+    <row r="175" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175"/>
       <c r="B175"/>
-      <c r="G175" s="72"/>
-    </row>
-    <row r="176" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F175" s="72"/>
+    </row>
+    <row r="176" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176"/>
       <c r="B176"/>
-      <c r="G176" s="72"/>
-    </row>
-    <row r="177" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F176" s="72"/>
+    </row>
+    <row r="177" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177"/>
       <c r="B177"/>
-      <c r="G177" s="72"/>
-    </row>
-    <row r="178" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F177" s="72"/>
+    </row>
+    <row r="178" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178"/>
       <c r="B178"/>
-      <c r="G178" s="72"/>
-    </row>
-    <row r="179" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F178" s="72"/>
+    </row>
+    <row r="179" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179"/>
       <c r="B179"/>
-      <c r="G179" s="72"/>
-    </row>
-    <row r="180" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F179" s="72"/>
+    </row>
+    <row r="180" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180"/>
       <c r="B180"/>
-      <c r="G180" s="72"/>
-    </row>
-    <row r="181" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F180" s="72"/>
+    </row>
+    <row r="181" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181"/>
       <c r="B181"/>
-      <c r="G181" s="72"/>
-    </row>
-    <row r="182" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F181" s="72"/>
+    </row>
+    <row r="182" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182"/>
       <c r="B182"/>
-      <c r="G182" s="72"/>
-    </row>
-    <row r="183" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F182" s="72"/>
+    </row>
+    <row r="183" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183"/>
       <c r="B183"/>
-      <c r="G183" s="72"/>
-    </row>
-    <row r="184" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F183" s="72"/>
+    </row>
+    <row r="184" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184"/>
       <c r="B184"/>
-      <c r="G184" s="72"/>
-    </row>
-    <row r="185" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F184" s="72"/>
+    </row>
+    <row r="185" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185"/>
       <c r="B185"/>
-      <c r="G185" s="72"/>
-    </row>
-    <row r="186" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F185" s="72"/>
+    </row>
+    <row r="186" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186"/>
       <c r="B186"/>
-      <c r="G186" s="72"/>
-    </row>
-    <row r="187" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F186" s="72"/>
+    </row>
+    <row r="187" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187"/>
       <c r="B187"/>
-      <c r="G187" s="72"/>
-    </row>
-    <row r="188" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F187" s="72"/>
+    </row>
+    <row r="188" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188"/>
       <c r="B188"/>
-      <c r="G188" s="72"/>
-    </row>
-    <row r="189" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F188" s="72"/>
+    </row>
+    <row r="189" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189"/>
       <c r="B189"/>
-      <c r="G189" s="72"/>
-    </row>
-    <row r="190" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F189" s="72"/>
+    </row>
+    <row r="190" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190"/>
       <c r="B190"/>
-      <c r="G190" s="72"/>
-    </row>
-    <row r="191" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F190" s="72"/>
+    </row>
+    <row r="191" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191"/>
       <c r="B191"/>
-      <c r="G191" s="72"/>
-    </row>
-    <row r="192" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F191" s="72"/>
+    </row>
+    <row r="192" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192"/>
       <c r="B192"/>
-      <c r="G192" s="72"/>
-    </row>
-    <row r="193" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F192" s="72"/>
+    </row>
+    <row r="193" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193"/>
       <c r="B193"/>
-      <c r="G193" s="72"/>
-    </row>
-    <row r="194" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F193" s="72"/>
+    </row>
+    <row r="194" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194"/>
       <c r="B194"/>
-      <c r="G194" s="72"/>
-    </row>
-    <row r="195" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F194" s="72"/>
+    </row>
+    <row r="195" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195"/>
       <c r="B195"/>
-      <c r="G195" s="72"/>
-    </row>
-    <row r="196" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F195" s="72"/>
+    </row>
+    <row r="196" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196"/>
       <c r="B196"/>
-      <c r="G196" s="72"/>
-    </row>
-    <row r="197" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F196" s="72"/>
+    </row>
+    <row r="197" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197"/>
       <c r="B197"/>
-      <c r="G197" s="72"/>
-    </row>
-    <row r="198" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F197" s="72"/>
+    </row>
+    <row r="198" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198"/>
       <c r="B198"/>
-      <c r="G198" s="72"/>
-    </row>
-    <row r="199" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F198" s="72"/>
+    </row>
+    <row r="199" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199"/>
       <c r="B199"/>
-      <c r="G199" s="72"/>
-    </row>
-    <row r="200" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F199" s="72"/>
+    </row>
+    <row r="200" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200"/>
       <c r="B200"/>
-      <c r="G200" s="72"/>
-    </row>
-    <row r="201" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F200" s="72"/>
+    </row>
+    <row r="201" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201"/>
       <c r="B201"/>
-      <c r="G201" s="72"/>
-    </row>
-    <row r="202" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F201" s="72"/>
+    </row>
+    <row r="202" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202"/>
       <c r="B202"/>
-      <c r="G202" s="72"/>
-    </row>
-    <row r="203" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F202" s="72"/>
+    </row>
+    <row r="203" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203"/>
       <c r="B203"/>
-      <c r="G203" s="72"/>
-    </row>
-    <row r="204" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F203" s="72"/>
+    </row>
+    <row r="204" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204"/>
       <c r="B204"/>
-      <c r="G204" s="72"/>
-    </row>
-    <row r="205" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F204" s="72"/>
+    </row>
+    <row r="205" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205"/>
       <c r="B205"/>
-      <c r="G205" s="72"/>
-    </row>
-    <row r="206" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F205" s="72"/>
+    </row>
+    <row r="206" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206"/>
       <c r="B206"/>
-      <c r="G206" s="72"/>
-    </row>
-    <row r="207" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F206" s="72"/>
+    </row>
+    <row r="207" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207"/>
       <c r="B207"/>
-      <c r="G207" s="72"/>
-    </row>
-    <row r="208" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F207" s="72"/>
+    </row>
+    <row r="208" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208"/>
       <c r="B208"/>
-      <c r="G208" s="72"/>
-    </row>
-    <row r="209" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F208" s="72"/>
+    </row>
+    <row r="209" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209"/>
       <c r="B209"/>
-      <c r="G209" s="72"/>
-    </row>
-    <row r="210" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F209" s="72"/>
+    </row>
+    <row r="210" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210"/>
       <c r="B210"/>
-      <c r="G210" s="72"/>
-    </row>
-    <row r="211" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F210" s="72"/>
+    </row>
+    <row r="211" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211"/>
       <c r="B211"/>
-      <c r="G211" s="72"/>
-    </row>
-    <row r="212" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F211" s="72"/>
+    </row>
+    <row r="212" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212"/>
       <c r="B212"/>
-      <c r="G212" s="72"/>
-    </row>
-    <row r="213" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F212" s="72"/>
+    </row>
+    <row r="213" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213"/>
       <c r="B213"/>
-      <c r="G213" s="72"/>
-    </row>
-    <row r="214" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F213" s="72"/>
+    </row>
+    <row r="214" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214"/>
       <c r="B214"/>
-      <c r="G214" s="72"/>
-    </row>
-    <row r="215" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F214" s="72"/>
+    </row>
+    <row r="215" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215"/>
       <c r="B215"/>
-      <c r="G215" s="72"/>
-    </row>
-    <row r="216" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F215" s="72"/>
+    </row>
+    <row r="216" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216"/>
       <c r="B216"/>
-      <c r="G216" s="72"/>
-    </row>
-    <row r="217" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F216" s="72"/>
+    </row>
+    <row r="217" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217"/>
       <c r="B217"/>
-      <c r="G217" s="72"/>
-    </row>
-    <row r="218" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F217" s="72"/>
+    </row>
+    <row r="218" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218"/>
       <c r="B218"/>
-      <c r="G218" s="72"/>
-    </row>
-    <row r="219" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F218" s="72"/>
+    </row>
+    <row r="219" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219"/>
       <c r="B219"/>
-      <c r="G219" s="72"/>
-    </row>
-    <row r="220" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F219" s="72"/>
+    </row>
+    <row r="220" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220"/>
       <c r="B220"/>
-      <c r="G220" s="72"/>
-    </row>
-    <row r="221" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F220" s="72"/>
+    </row>
+    <row r="221" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221"/>
       <c r="B221"/>
-      <c r="G221" s="72"/>
-    </row>
-    <row r="222" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F221" s="72"/>
+    </row>
+    <row r="222" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222"/>
       <c r="B222"/>
-      <c r="G222" s="72"/>
-    </row>
-    <row r="223" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F222" s="72"/>
+    </row>
+    <row r="223" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223"/>
       <c r="B223"/>
-      <c r="G223" s="72"/>
-    </row>
-    <row r="224" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F223" s="72"/>
+    </row>
+    <row r="224" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224"/>
       <c r="B224"/>
-      <c r="G224" s="72"/>
-    </row>
-    <row r="225" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F224" s="72"/>
+    </row>
+    <row r="225" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225"/>
       <c r="B225"/>
-      <c r="G225" s="72"/>
-    </row>
-    <row r="226" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F225" s="72"/>
+    </row>
+    <row r="226" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226"/>
       <c r="B226"/>
-      <c r="G226" s="72"/>
-    </row>
-    <row r="227" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F226" s="72"/>
+    </row>
+    <row r="227" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227"/>
       <c r="B227"/>
-      <c r="G227" s="72"/>
-    </row>
-    <row r="228" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F227" s="72"/>
+    </row>
+    <row r="228" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228"/>
       <c r="B228"/>
-      <c r="G228" s="72"/>
-    </row>
-    <row r="229" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F228" s="72"/>
+    </row>
+    <row r="229" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229"/>
       <c r="B229"/>
-      <c r="G229" s="72"/>
-    </row>
-    <row r="230" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F229" s="72"/>
+    </row>
+    <row r="230" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230"/>
       <c r="B230"/>
-      <c r="G230" s="72"/>
-    </row>
-    <row r="231" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F230" s="72"/>
+    </row>
+    <row r="231" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231"/>
       <c r="B231"/>
-      <c r="G231" s="72"/>
-    </row>
-    <row r="232" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F231" s="72"/>
+    </row>
+    <row r="232" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232"/>
       <c r="B232"/>
-      <c r="G232" s="72"/>
-    </row>
-    <row r="233" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F232" s="72"/>
+    </row>
+    <row r="233" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233"/>
       <c r="B233"/>
-      <c r="G233" s="72"/>
-    </row>
-    <row r="234" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F233" s="72"/>
+    </row>
+    <row r="234" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234"/>
       <c r="B234"/>
-      <c r="G234" s="72"/>
-    </row>
-    <row r="235" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F234" s="72"/>
+    </row>
+    <row r="235" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235"/>
       <c r="B235"/>
-      <c r="G235" s="72"/>
-    </row>
-    <row r="236" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F235" s="72"/>
+    </row>
+    <row r="236" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236"/>
       <c r="B236"/>
-      <c r="G236" s="72"/>
-    </row>
-    <row r="237" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F236" s="72"/>
+    </row>
+    <row r="237" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237"/>
       <c r="B237"/>
-      <c r="G237" s="72"/>
-    </row>
-    <row r="238" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F237" s="72"/>
+    </row>
+    <row r="238" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238"/>
       <c r="B238"/>
-      <c r="G238" s="72"/>
-    </row>
-    <row r="239" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F238" s="72"/>
+    </row>
+    <row r="239" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239"/>
       <c r="B239"/>
-      <c r="G239" s="72"/>
-    </row>
-    <row r="240" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F239" s="72"/>
+    </row>
+    <row r="240" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240"/>
       <c r="B240"/>
-      <c r="G240" s="72"/>
-    </row>
-    <row r="241" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F240" s="72"/>
+    </row>
+    <row r="241" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241"/>
       <c r="B241"/>
-      <c r="G241" s="72"/>
-    </row>
-    <row r="242" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F241" s="72"/>
+    </row>
+    <row r="242" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242"/>
       <c r="B242"/>
-      <c r="G242" s="72"/>
-    </row>
-    <row r="243" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F242" s="72"/>
+    </row>
+    <row r="243" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243"/>
       <c r="B243"/>
-      <c r="G243" s="72"/>
-    </row>
-    <row r="244" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F243" s="72"/>
+    </row>
+    <row r="244" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244"/>
       <c r="B244"/>
-      <c r="G244" s="72"/>
-    </row>
-    <row r="245" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F244" s="72"/>
+    </row>
+    <row r="245" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245"/>
       <c r="B245"/>
-      <c r="G245" s="72"/>
-    </row>
-    <row r="246" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F245" s="72"/>
+    </row>
+    <row r="246" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246"/>
       <c r="B246"/>
-      <c r="G246" s="72"/>
-    </row>
-    <row r="247" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F246" s="72"/>
+    </row>
+    <row r="247" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247"/>
       <c r="B247"/>
-      <c r="G247" s="72"/>
-    </row>
-    <row r="248" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F247" s="72"/>
+    </row>
+    <row r="248" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248"/>
       <c r="B248"/>
-      <c r="G248" s="72"/>
-    </row>
-    <row r="249" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F248" s="72"/>
+    </row>
+    <row r="249" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249"/>
       <c r="B249"/>
-      <c r="G249" s="72"/>
-    </row>
-    <row r="250" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F249" s="72"/>
+    </row>
+    <row r="250" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250"/>
       <c r="B250"/>
-      <c r="G250" s="72"/>
-    </row>
-    <row r="251" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F250" s="72"/>
+    </row>
+    <row r="251" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251"/>
       <c r="B251"/>
-      <c r="G251" s="72"/>
+      <c r="F251" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39227,16 +38977,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="121" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="5">
         <v>43709</v>

--- a/MY/wc_template_MY_v3.xlsx
+++ b/MY/wc_template_MY_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\MY\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CBD36-52F8-43DC-9338-D38ECF2F4F78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA551A0E-6DE6-4B00-BCBB-AFEB54408095}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17070" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -1149,6 +1149,9 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1158,9 +1161,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:BD69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -1838,7 +1838,7 @@
         <v>#N/A</v>
       </c>
       <c r="P4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="115"/>
@@ -1898,7 +1898,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN4" s="116" t="str">
-        <f>IFERROR(AR4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AN4:AN16" si="5">IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="92" t="e">
@@ -1934,11 +1934,11 @@
         <v>n.a.</v>
       </c>
       <c r="AW4" s="95" t="str">
-        <f t="shared" ref="AW4:AW15" si="5">IFERROR(-AS4+AV4, "n.a.")</f>
+        <f t="shared" ref="AW4:AW15" si="6">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="116" t="str">
-        <f>IFERROR(BB4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AX4:AX16" si="7">IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="92" t="e">
@@ -1993,7 +1993,7 @@
         <v>#N/A</v>
       </c>
       <c r="P5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="115"/>
@@ -2009,7 +2009,7 @@
       <c r="AA5" s="115"/>
       <c r="AB5" s="115"/>
       <c r="AC5" s="93" t="str">
-        <f t="shared" ref="AC5:AC16" si="6">IFERROR(AI5-AS5, "")</f>
+        <f t="shared" ref="AC5:AC16" si="8">IFERROR(AI5-AS5, "")</f>
         <v/>
       </c>
       <c r="AD5" s="100" t="str">
@@ -2029,7 +2029,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH5" s="145" t="str">
-        <f t="shared" ref="AH5:AH16" si="7">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
+        <f t="shared" ref="AH5:AH16" si="9">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI5" s="162" t="str">
@@ -2037,15 +2037,15 @@
         <v/>
       </c>
       <c r="AJ5" s="94" t="str">
-        <f t="shared" ref="AJ5:AJ15" si="8">IFERROR(AO5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AJ5:AJ15" si="10">IFERROR(AO5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AK5" s="97" t="str">
-        <f t="shared" ref="AK5:AK15" si="9">IFERROR(AP5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AK5:AK15" si="11">IFERROR(AP5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AL5" s="94" t="str">
-        <f t="shared" ref="AL5:AL15" si="10">IFERROR(AQ5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AL5:AL15" si="12">IFERROR(AQ5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AM5" s="101" t="str">
@@ -2053,7 +2053,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN5" s="116" t="str">
-        <f>IFERROR(AR5/M5*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO5" s="104" t="e">
@@ -2077,23 +2077,23 @@
         <v/>
       </c>
       <c r="AT5" s="94" t="str">
-        <f t="shared" ref="AT5:AT15" si="11">IFERROR(AY5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AT5:AT15" si="13">IFERROR(AY5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AU5" s="94" t="str">
-        <f t="shared" ref="AU5:AU15" si="12">IFERROR(AZ5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AU5:AU15" si="14">IFERROR(AZ5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AV5" s="90" t="str">
-        <f t="shared" ref="AV5:AV15" si="13">IFERROR(BA5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AV5:AV15" si="15">IFERROR(BA5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AW5" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX5" s="116" t="str">
-        <f>IFERROR(BB5/M5*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY5" s="104" t="e">
@@ -2148,7 +2148,7 @@
         <v>#N/A</v>
       </c>
       <c r="P6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="115"/>
@@ -2164,7 +2164,7 @@
       <c r="AA6" s="115"/>
       <c r="AB6" s="115"/>
       <c r="AC6" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD6" s="100" t="str">
@@ -2184,7 +2184,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH6" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI6" s="162" t="str">
@@ -2192,15 +2192,15 @@
         <v/>
       </c>
       <c r="AJ6" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK6" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL6" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM6" s="101" t="str">
@@ -2208,7 +2208,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN6" s="116" t="str">
-        <f>IFERROR(AR6/M6*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO6" s="104" t="e">
@@ -2232,23 +2232,23 @@
         <v/>
       </c>
       <c r="AT6" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU6" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV6" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU6" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV6" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW6" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX6" s="116" t="str">
-        <f>IFERROR(BB6/M6*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY6" s="104" t="e">
@@ -2303,7 +2303,7 @@
         <v>#N/A</v>
       </c>
       <c r="P7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="115"/>
@@ -2319,7 +2319,7 @@
       <c r="AA7" s="115"/>
       <c r="AB7" s="115"/>
       <c r="AC7" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD7" s="100" t="str">
@@ -2339,7 +2339,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH7" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI7" s="162" t="str">
@@ -2347,15 +2347,15 @@
         <v/>
       </c>
       <c r="AJ7" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK7" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL7" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM7" s="101" t="str">
@@ -2363,7 +2363,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN7" s="116" t="str">
-        <f>IFERROR(AR7/M7*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO7" s="104" t="e">
@@ -2387,23 +2387,23 @@
         <v/>
       </c>
       <c r="AT7" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU7" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV7" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU7" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV7" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW7" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX7" s="116" t="str">
-        <f>IFERROR(BB7/M7*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY7" s="104" t="e">
@@ -2458,7 +2458,7 @@
         <v>#N/A</v>
       </c>
       <c r="P8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="115"/>
@@ -2474,7 +2474,7 @@
       <c r="AA8" s="115"/>
       <c r="AB8" s="115"/>
       <c r="AC8" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD8" s="100" t="str">
@@ -2494,7 +2494,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH8" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI8" s="162" t="str">
@@ -2502,15 +2502,15 @@
         <v/>
       </c>
       <c r="AJ8" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK8" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL8" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM8" s="101" t="str">
@@ -2518,7 +2518,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN8" s="116" t="str">
-        <f>IFERROR(AR8/M8*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO8" s="104" t="e">
@@ -2542,23 +2542,23 @@
         <v/>
       </c>
       <c r="AT8" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU8" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV8" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU8" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV8" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW8" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX8" s="116" t="str">
-        <f>IFERROR(BB8/M8*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY8" s="104" t="e">
@@ -2613,7 +2613,7 @@
         <v>#N/A</v>
       </c>
       <c r="P9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="115"/>
@@ -2629,7 +2629,7 @@
       <c r="AA9" s="115"/>
       <c r="AB9" s="115"/>
       <c r="AC9" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD9" s="100" t="str">
@@ -2649,7 +2649,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH9" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI9" s="162" t="str">
@@ -2657,15 +2657,15 @@
         <v/>
       </c>
       <c r="AJ9" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK9" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL9" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM9" s="101" t="str">
@@ -2673,7 +2673,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN9" s="116" t="str">
-        <f>IFERROR(AR9/M9*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO9" s="104" t="e">
@@ -2697,23 +2697,23 @@
         <v/>
       </c>
       <c r="AT9" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU9" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV9" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU9" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV9" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW9" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX9" s="116" t="str">
-        <f>IFERROR(BB9/M9*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY9" s="104" t="e">
@@ -2768,7 +2768,7 @@
         <v>#N/A</v>
       </c>
       <c r="P10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="115"/>
@@ -2784,7 +2784,7 @@
       <c r="AA10" s="115"/>
       <c r="AB10" s="115"/>
       <c r="AC10" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD10" s="100" t="str">
@@ -2804,7 +2804,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH10" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI10" s="162" t="str">
@@ -2812,15 +2812,15 @@
         <v/>
       </c>
       <c r="AJ10" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK10" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL10" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM10" s="101" t="str">
@@ -2828,7 +2828,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN10" s="116" t="str">
-        <f>IFERROR(AR10/M10*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO10" s="104" t="e">
@@ -2852,23 +2852,23 @@
         <v/>
       </c>
       <c r="AT10" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU10" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV10" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU10" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV10" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW10" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX10" s="116" t="str">
-        <f>IFERROR(BB10/M10*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY10" s="104" t="e">
@@ -2923,7 +2923,7 @@
         <v>#N/A</v>
       </c>
       <c r="P11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="115"/>
@@ -2939,7 +2939,7 @@
       <c r="AA11" s="115"/>
       <c r="AB11" s="115"/>
       <c r="AC11" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD11" s="100" t="str">
@@ -2959,7 +2959,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH11" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI11" s="162" t="str">
@@ -2967,15 +2967,15 @@
         <v/>
       </c>
       <c r="AJ11" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK11" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL11" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM11" s="101" t="str">
@@ -2983,7 +2983,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN11" s="116" t="str">
-        <f>IFERROR(AR11/M11*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO11" s="104" t="e">
@@ -3007,23 +3007,23 @@
         <v/>
       </c>
       <c r="AT11" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU11" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV11" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU11" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV11" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW11" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX11" s="116" t="str">
-        <f>IFERROR(BB11/M11*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY11" s="104" t="e">
@@ -3078,7 +3078,7 @@
         <v>#N/A</v>
       </c>
       <c r="P12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="115"/>
@@ -3094,7 +3094,7 @@
       <c r="AA12" s="115"/>
       <c r="AB12" s="115"/>
       <c r="AC12" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD12" s="100" t="str">
@@ -3114,7 +3114,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH12" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI12" s="162" t="str">
@@ -3122,15 +3122,15 @@
         <v/>
       </c>
       <c r="AJ12" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK12" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL12" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM12" s="101" t="str">
@@ -3138,7 +3138,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN12" s="116" t="str">
-        <f>IFERROR(AR12/M12*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO12" s="104" t="e">
@@ -3162,23 +3162,23 @@
         <v/>
       </c>
       <c r="AT12" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU12" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV12" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU12" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV12" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW12" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX12" s="116" t="str">
-        <f>IFERROR(BB12/M12*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY12" s="104" t="e">
@@ -3233,7 +3233,7 @@
         <v>#N/A</v>
       </c>
       <c r="P13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="115"/>
@@ -3249,7 +3249,7 @@
       <c r="AA13" s="115"/>
       <c r="AB13" s="115"/>
       <c r="AC13" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD13" s="100" t="str">
@@ -3269,7 +3269,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH13" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI13" s="162" t="str">
@@ -3277,15 +3277,15 @@
         <v/>
       </c>
       <c r="AJ13" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK13" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL13" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM13" s="101" t="str">
@@ -3293,7 +3293,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN13" s="116" t="str">
-        <f>IFERROR(AR13/M13*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO13" s="104" t="e">
@@ -3317,23 +3317,23 @@
         <v/>
       </c>
       <c r="AT13" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU13" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV13" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU13" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV13" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW13" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX13" s="116" t="str">
-        <f>IFERROR(BB13/M13*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY13" s="104" t="e">
@@ -3388,7 +3388,7 @@
         <v>#N/A</v>
       </c>
       <c r="P14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="115"/>
@@ -3404,7 +3404,7 @@
       <c r="AA14" s="115"/>
       <c r="AB14" s="115"/>
       <c r="AC14" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD14" s="100" t="str">
@@ -3424,7 +3424,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH14" s="145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI14" s="162" t="str">
@@ -3432,15 +3432,15 @@
         <v/>
       </c>
       <c r="AJ14" s="94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK14" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL14" s="94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM14" s="101" t="str">
@@ -3448,7 +3448,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN14" s="116" t="str">
-        <f>IFERROR(AR14/M14*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO14" s="104" t="e">
@@ -3472,23 +3472,23 @@
         <v/>
       </c>
       <c r="AT14" s="94" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU14" s="94" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV14" s="90" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU14" s="94" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV14" s="90" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW14" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX14" s="116" t="str">
-        <f>IFERROR(BB14/M14*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY14" s="104" t="e">
@@ -3543,7 +3543,7 @@
         <v>#N/A</v>
       </c>
       <c r="P15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="137"/>
@@ -3559,7 +3559,7 @@
       <c r="AA15" s="137"/>
       <c r="AB15" s="137"/>
       <c r="AC15" s="99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD15" s="100" t="str">
@@ -3579,7 +3579,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH15" s="146" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI15" s="162" t="str">
@@ -3587,15 +3587,15 @@
         <v/>
       </c>
       <c r="AJ15" s="100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AK15" s="103" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AL15" s="100" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
       <c r="AM15" s="101" t="str">
@@ -3603,7 +3603,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN15" s="117" t="str">
-        <f>IFERROR(AR15/M15*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO15" s="104" t="e">
@@ -3627,23 +3627,23 @@
         <v/>
       </c>
       <c r="AT15" s="100" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU15" s="100" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV15" s="87" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
+      <c r="AU15" s="100" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV15" s="87" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW15" s="101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AX15" s="117" t="str">
-        <f>IFERROR(BB15/M15*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY15" s="104" t="e">
@@ -3685,31 +3685,31 @@
       <c r="H16" s="130"/>
       <c r="I16" s="129"/>
       <c r="J16" s="131" t="e">
-        <f t="shared" ref="J16:P16" si="14">SUM(J4:J15)</f>
+        <f t="shared" ref="J16:P16" si="16">SUM(J4:J15)</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="131" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="L16" s="131" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="M16" s="131" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="N16" s="131" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="O16" s="131" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P16" s="131" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="131"/>
@@ -3724,8 +3724,8 @@
       <c r="Z16" s="131"/>
       <c r="AA16" s="131"/>
       <c r="AB16" s="131"/>
-      <c r="AC16" s="171">
-        <f t="shared" si="6"/>
+      <c r="AC16" s="166">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD16" s="130" t="str">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="AG16" s="130"/>
       <c r="AH16" s="161" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AI16" s="134"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="AM16" s="130"/>
       <c r="AN16" s="151" t="str">
-        <f>IFERROR(AR16/M16*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AO16" s="131" t="e">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AW16" s="165"/>
       <c r="AX16" s="130" t="str">
-        <f>IFERROR(BB16/M16*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AY16" s="131" t="e">
@@ -6928,54 +6928,54 @@
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="166" t="s">
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="166" t="s">
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="166" t="s">
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="170" t="s">
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="166" t="s">
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="166" t="s">
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="169" t="s">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="169"/>
+      <c r="AH1" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="148"/>
     </row>
     <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/MY/wc_template_MY_v3.xlsx
+++ b/MY/wc_template_MY_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\MY\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA551A0E-6DE6-4B00-BCBB-AFEB54408095}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C79A2A6-3F3A-4D78-B314-A98924B43A64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -1814,15 +1814,15 @@
       <c r="H4" s="105"/>
       <c r="I4" s="105"/>
       <c r="J4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="92" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="92" t="e">
@@ -1969,15 +1969,15 @@
       <c r="H5" s="105"/>
       <c r="I5" s="105"/>
       <c r="J5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="92" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="92" t="e">
@@ -2124,15 +2124,15 @@
       <c r="H6" s="105"/>
       <c r="I6" s="105"/>
       <c r="J6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="92" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="92" t="e">
@@ -2279,15 +2279,15 @@
       <c r="H7" s="105"/>
       <c r="I7" s="105"/>
       <c r="J7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="92" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="92" t="e">
@@ -2434,15 +2434,15 @@
       <c r="H8" s="105"/>
       <c r="I8" s="105"/>
       <c r="J8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="92" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="92" t="e">
@@ -2589,15 +2589,15 @@
       <c r="H9" s="105"/>
       <c r="I9" s="105"/>
       <c r="J9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="92" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M9" s="92" t="e">
@@ -2744,15 +2744,15 @@
       <c r="H10" s="105"/>
       <c r="I10" s="105"/>
       <c r="J10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="92" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M10" s="92" t="e">
@@ -2899,15 +2899,15 @@
       <c r="H11" s="105"/>
       <c r="I11" s="105"/>
       <c r="J11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="92" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="92" t="e">
@@ -3054,15 +3054,15 @@
       <c r="H12" s="105"/>
       <c r="I12" s="105"/>
       <c r="J12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L12" s="92" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="92" t="e">
@@ -3209,15 +3209,15 @@
       <c r="H13" s="105"/>
       <c r="I13" s="105"/>
       <c r="J13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L13" s="92" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M13" s="92" t="e">
@@ -3364,15 +3364,15 @@
       <c r="H14" s="105"/>
       <c r="I14" s="105"/>
       <c r="J14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="92" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="92" t="e">
@@ -3519,15 +3519,15 @@
       <c r="H15" s="105"/>
       <c r="I15" s="105"/>
       <c r="J15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L15" s="104" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M15" s="104" t="e">

--- a/MY/wc_template_MY_v3.xlsx
+++ b/MY/wc_template_MY_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\MY\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C79A2A6-3F3A-4D78-B314-A98924B43A64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27797433-3754-45B4-B4A5-6E061208A644}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Monthly Inbounds (US$)</t>
+  </si>
+  <si>
+    <t>L90D</t>
   </si>
 </sst>
 </file>
@@ -8641,7 +8644,7 @@
         <v>54</v>
       </c>
       <c r="E2" s="118" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F2" s="121" t="s">
         <v>56</v>
@@ -11841,7 +11844,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
